--- a/sriramModel-nelson-atypical-patientID_1-sims-crh-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-atypical-patientID_1-sims-crh-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.024748076826232</v>
+        <v>1.054827445451819</v>
       </c>
       <c r="C2">
-        <v>1.058897511231359</v>
+        <v>1.013235045809032</v>
       </c>
       <c r="D2">
-        <v>1.143405794986332</v>
+        <v>1.029827400878343</v>
       </c>
       <c r="E2">
-        <v>1.012121974418939</v>
+        <v>1.196663446710877</v>
       </c>
       <c r="F2">
-        <v>1.290117350767884</v>
+        <v>1.091608307160621</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049097880243588</v>
+        <v>1.108155752156269</v>
       </c>
       <c r="C3">
-        <v>1.11673769226733</v>
+        <v>1.026053245155172</v>
       </c>
       <c r="D3">
-        <v>1.283062954958453</v>
+        <v>1.059147768524634</v>
       </c>
       <c r="E3">
-        <v>1.023809378524356</v>
+        <v>1.390242528800567</v>
       </c>
       <c r="F3">
-        <v>1.579961761764751</v>
+        <v>1.180595097694537</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.073050812248022</v>
+        <v>1.159946461814562</v>
       </c>
       <c r="C4">
-        <v>1.173528687389877</v>
+        <v>1.038460905935481</v>
       </c>
       <c r="D4">
-        <v>1.41905595804701</v>
+        <v>1.087965265315489</v>
       </c>
       <c r="E4">
-        <v>1.035069117657381</v>
+        <v>1.577565100123091</v>
       </c>
       <c r="F4">
-        <v>1.869549566563709</v>
+        <v>1.26703175690624</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.096608291000692</v>
+        <v>1.210165509876065</v>
       </c>
       <c r="C5">
-        <v>1.229278632599718</v>
+        <v>1.050464356470327</v>
       </c>
       <c r="D5">
-        <v>1.551459861370884</v>
+        <v>1.116284104738665</v>
       </c>
       <c r="E5">
-        <v>1.045907919221472</v>
+        <v>1.753218174994268</v>
       </c>
       <c r="F5">
-        <v>2.15889561656674</v>
+        <v>1.350987382546377</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.119771752065659</v>
+        <v>1.258783412733577</v>
       </c>
       <c r="C6">
-        <v>1.283995664309398</v>
+        <v>1.062069681108129</v>
       </c>
       <c r="D6">
-        <v>1.680343746049556</v>
+        <v>1.144108260438889</v>
       </c>
       <c r="E6">
-        <v>1.056332344032485</v>
+        <v>1.909917857128431</v>
       </c>
       <c r="F6">
-        <v>2.448013443665828</v>
+        <v>1.432528946369695</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.142542649605244</v>
+        <v>1.305775428531804</v>
       </c>
       <c r="C7">
-        <v>1.337687927273881</v>
+        <v>1.073282811906752</v>
       </c>
       <c r="D7">
-        <v>1.805773066959102</v>
+        <v>1.171441525742603</v>
       </c>
       <c r="E7">
-        <v>1.06634879688653</v>
+        <v>2.040652032499666</v>
       </c>
       <c r="F7">
-        <v>2.736915396650208</v>
+        <v>1.511721425093157</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.164922457537761</v>
+        <v>1.351121565099876</v>
       </c>
       <c r="C8">
-        <v>1.39036358170565</v>
+        <v>1.084109551404196</v>
       </c>
       <c r="D8">
-        <v>1.927811247138903</v>
+        <v>1.198287526830709</v>
       </c>
       <c r="E8">
-        <v>1.075963536471127</v>
+        <v>2.141789778076257</v>
       </c>
       <c r="F8">
-        <v>3.025612754745531</v>
+        <v>1.588627869975091</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.186912670612918</v>
+        <v>1.394806387637311</v>
       </c>
       <c r="C9">
-        <v>1.442030809691913</v>
+        <v>1.094555564369126</v>
       </c>
       <c r="D9">
-        <v>2.046520743151868</v>
+        <v>1.224649724401738</v>
       </c>
       <c r="E9">
-        <v>1.085182684618472</v>
+        <v>2.214589231063334</v>
       </c>
       <c r="F9">
-        <v>3.314115820695826</v>
+        <v>1.663309463362738</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.208514805446205</v>
+        <v>1.436818670966668</v>
       </c>
       <c r="C10">
-        <v>1.492697820893603</v>
+        <v>1.104626392633273</v>
       </c>
       <c r="D10">
-        <v>2.161963735874963</v>
+        <v>1.250531440018373</v>
       </c>
       <c r="E10">
-        <v>1.094012234943456</v>
+        <v>2.263876486800229</v>
       </c>
       <c r="F10">
-        <v>3.602433994995307</v>
+        <v>1.735825578757753</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.229730401500298</v>
+        <v>1.477150944559769</v>
       </c>
       <c r="C11">
-        <v>1.542372857616604</v>
+        <v>1.114327456339019</v>
       </c>
       <c r="D11">
-        <v>2.274202555129596</v>
+        <v>1.275935854463827</v>
       </c>
       <c r="E11">
-        <v>1.102458061034164</v>
+        <v>2.295545645782124</v>
       </c>
       <c r="F11">
-        <v>3.890575832146554</v>
+        <v>1.806233852245111</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.250561022021726</v>
+        <v>1.515798961921921</v>
       </c>
       <c r="C12">
-        <v>1.591064199264551</v>
+        <v>1.123664065872779</v>
       </c>
       <c r="D12">
-        <v>2.383299915164547</v>
+        <v>1.30086602350367</v>
       </c>
       <c r="E12">
-        <v>1.11052592398635</v>
+        <v>2.314817116078049</v>
       </c>
       <c r="F12">
-        <v>4.178549079142996</v>
+        <v>1.874590245040757</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.271008254919242</v>
+        <v>1.552761161971036</v>
       </c>
       <c r="C13">
-        <v>1.638780166208681</v>
+        <v>1.132641433119112</v>
       </c>
       <c r="D13">
-        <v>2.489319016658155</v>
+        <v>1.325324886718998</v>
       </c>
       <c r="E13">
-        <v>1.118221479572371</v>
+        <v>2.325646822352708</v>
       </c>
       <c r="F13">
-        <v>4.466360695654242</v>
+        <v>1.940949097616668</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.291073713595164</v>
+        <v>1.588038209399709</v>
       </c>
       <c r="C14">
-        <v>1.685529123113961</v>
+        <v>1.141264669059488</v>
       </c>
       <c r="D14">
-        <v>2.592323555739212</v>
+        <v>1.349315269068186</v>
       </c>
       <c r="E14">
-        <v>1.125550284932726</v>
+        <v>2.330802358008146</v>
       </c>
       <c r="F14">
-        <v>4.754016854653182</v>
+        <v>2.005363180357908</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.310759037727194</v>
+        <v>1.621632687285609</v>
       </c>
       <c r="C15">
-        <v>1.731319481747338</v>
+        <v>1.149538796420686</v>
       </c>
       <c r="D15">
-        <v>2.692377669657</v>
+        <v>1.372839895280432</v>
       </c>
       <c r="E15">
-        <v>1.132517804818431</v>
+        <v>2.332147048094547</v>
       </c>
       <c r="F15">
-        <v>5.041522921442367</v>
+        <v>2.067883743156433</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.330065894003394</v>
+        <v>1.653549008029517</v>
       </c>
       <c r="C16">
-        <v>1.776159703296673</v>
+        <v>1.157468754015791</v>
       </c>
       <c r="D16">
-        <v>2.789545840871906</v>
+        <v>1.395901395362906</v>
       </c>
       <c r="E16">
-        <v>1.139129417469517</v>
+        <v>2.330916853714312</v>
       </c>
       <c r="F16">
-        <v>5.328883408149162</v>
+        <v>2.128560572414697</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.348995976807089</v>
+        <v>1.683793636399889</v>
       </c>
       <c r="C17">
-        <v>1.820058300229879</v>
+        <v>1.165059399709441</v>
       </c>
       <c r="D17">
-        <v>2.883892775333092</v>
+        <v>1.41850231025263</v>
       </c>
       <c r="E17">
-        <v>1.145390420113313</v>
+        <v>2.327929923310902</v>
       </c>
       <c r="F17">
-        <v>5.616101899738726</v>
+        <v>2.187442045392584</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.367551008857154</v>
+        <v>1.712375571067646</v>
       </c>
       <c r="C18">
-        <v>1.863023837718559</v>
+        <v>1.172315512267838</v>
       </c>
       <c r="D18">
-        <v>2.975483266707107</v>
+        <v>1.440645097161254</v>
       </c>
       <c r="E18">
-        <v>1.15130603411146</v>
+        <v>2.323730761548173</v>
       </c>
       <c r="F18">
-        <v>5.903180946448592</v>
+        <v>2.244575084665181</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.385732741799768</v>
+        <v>1.739307046194357</v>
       </c>
       <c r="C19">
-        <v>1.905064934651282</v>
+        <v>1.179241802250487</v>
       </c>
       <c r="D19">
-        <v>3.064382054821085</v>
+        <v>1.462332138318086</v>
       </c>
       <c r="E19">
-        <v>1.156881409786261</v>
+        <v>2.318685139314566</v>
       </c>
       <c r="F19">
-        <v>6.190121916192263</v>
+        <v>2.30000532029142</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.403542956756154</v>
+        <v>1.7646043510022</v>
       </c>
       <c r="C20">
-        <v>1.946190264260148</v>
+        <v>1.185842921586715</v>
       </c>
       <c r="D20">
-        <v>3.150653684341238</v>
+        <v>1.483565741095862</v>
       </c>
       <c r="E20">
-        <v>1.162121630935198</v>
+        <v>2.313041589231013</v>
       </c>
       <c r="F20">
-        <v>6.476924798881538</v>
+        <v>2.353777079868972</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.420983464823079</v>
+        <v>1.788288502011236</v>
       </c>
       <c r="C21">
-        <v>1.986408554383233</v>
+        <v>1.192123443287282</v>
       </c>
       <c r="D21">
-        <v>3.23436236787027</v>
+        <v>1.504348154527216</v>
       </c>
       <c r="E21">
-        <v>1.167031719056475</v>
+        <v>2.306971088455174</v>
       </c>
       <c r="F21">
-        <v>6.763587952797305</v>
+        <v>2.405933451893807</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.4380561075305</v>
+        <v>1.810385821109974</v>
       </c>
       <c r="C22">
-        <v>2.025728587384504</v>
+        <v>1.198087884824362</v>
       </c>
       <c r="D22">
-        <v>3.315571856310902</v>
+        <v>1.524681556177235</v>
       </c>
       <c r="E22">
-        <v>1.171616637299706</v>
+        <v>2.300592780175061</v>
       </c>
       <c r="F22">
-        <v>7.050107780967435</v>
+        <v>2.456516309858781</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.454762757253016</v>
+        <v>1.830928102442966</v>
       </c>
       <c r="C23">
-        <v>2.064159199752515</v>
+        <v>1.203740729443854</v>
       </c>
       <c r="D23">
-        <v>3.394345318340747</v>
+        <v>1.544568086202275</v>
       </c>
       <c r="E23">
-        <v>1.175881294157894</v>
+        <v>2.293990735455568</v>
       </c>
       <c r="F23">
-        <v>7.336478322981709</v>
+        <v>2.505566326846028</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.471105317579441</v>
+        <v>1.849952414463163</v>
       </c>
       <c r="C24">
-        <v>2.101709281397002</v>
+        <v>1.209086356779909</v>
       </c>
       <c r="D24">
-        <v>3.470745230097304</v>
+        <v>1.564009823246921</v>
       </c>
       <c r="E24">
-        <v>1.179830546915039</v>
+        <v>2.287225080420132</v>
       </c>
       <c r="F24">
-        <v>7.622690744822846</v>
+        <v>2.553123025924211</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.487085723637317</v>
+        <v>1.867500628435947</v>
       </c>
       <c r="C25">
-        <v>2.138387774663468</v>
+        <v>1.214129123276087</v>
       </c>
       <c r="D25">
-        <v>3.544833275628371</v>
+        <v>1.583008815135946</v>
       </c>
       <c r="E25">
-        <v>1.183469204862568</v>
+        <v>2.28033935309391</v>
       </c>
       <c r="F25">
-        <v>7.908732705930738</v>
+        <v>2.599224810734774</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.502705942376501</v>
+        <v>1.883618696589466</v>
       </c>
       <c r="C26">
-        <v>2.174203673084172</v>
+        <v>1.218873349214548</v>
       </c>
       <c r="D26">
-        <v>3.61667025824987</v>
+        <v>1.601567067922757</v>
       </c>
       <c r="E26">
-        <v>1.18680203229579</v>
+        <v>2.273365381475732</v>
       </c>
       <c r="F26">
-        <v>8.194587578946496</v>
+        <v>2.643909008538931</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.517967972808781</v>
+        <v>1.898355811450308</v>
       </c>
       <c r="C27">
-        <v>2.209166019883331</v>
+        <v>1.223323299731688</v>
       </c>
       <c r="D27">
-        <v>3.686316022674666</v>
+        <v>1.619686553855113</v>
       </c>
       <c r="E27">
-        <v>1.189833751302931</v>
+        <v>2.266326756712299</v>
       </c>
       <c r="F27">
-        <v>8.480233493470015</v>
+        <v>2.687211901709411</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.532873846207522</v>
+        <v>1.91176352830565</v>
       </c>
       <c r="C28">
-        <v>2.243283906253937</v>
+        <v>1.227483211727483</v>
       </c>
       <c r="D28">
-        <v>3.753829387561969</v>
+        <v>1.637369221316772</v>
       </c>
       <c r="E28">
-        <v>1.192569044357643</v>
+        <v>2.259241143289834</v>
       </c>
       <c r="F28">
-        <v>8.76564217048171</v>
+        <v>2.729168742136181</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.547425626264446</v>
+        <v>1.923894927891679</v>
       </c>
       <c r="C29">
-        <v>2.276566469422927</v>
+        <v>1.231357279304382</v>
       </c>
       <c r="D29">
-        <v>3.819268087998659</v>
+        <v>1.654616989580656</v>
       </c>
       <c r="E29">
-        <v>1.195012556724745</v>
+        <v>2.252121893850732</v>
       </c>
       <c r="F29">
-        <v>9.050777509266254</v>
+        <v>2.769813823997882</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.561625409207421</v>
+        <v>1.934803890042325</v>
       </c>
       <c r="C30">
-        <v>2.309022890520862</v>
+        <v>1.234949655725644</v>
       </c>
       <c r="D30">
-        <v>3.882688727337102</v>
+        <v>1.671431762169993</v>
       </c>
       <c r="E30">
-        <v>1.197168898688407</v>
+        <v>2.24497920620245</v>
       </c>
       <c r="F30">
-        <v>9.335593883875035</v>
+        <v>2.809180479606127</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.575475323876502</v>
+        <v>1.944544429729106</v>
       </c>
       <c r="C31">
-        <v>2.340662392271902</v>
+        <v>1.23826446192833</v>
       </c>
       <c r="D31">
-        <v>3.944146737749979</v>
+        <v>1.687815425266288</v>
       </c>
       <c r="E31">
-        <v>1.199042647611641</v>
+        <v>2.237820964428512</v>
       </c>
       <c r="F31">
-        <v>9.620034101275433</v>
+        <v>2.847301103533801</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.588977531761993</v>
+        <v>1.953170120078063</v>
       </c>
       <c r="C32">
-        <v>2.371494236518982</v>
+        <v>1.2413057775774</v>
       </c>
       <c r="D32">
-        <v>4.003696348845834</v>
+        <v>1.703769854796694</v>
       </c>
       <c r="E32">
-        <v>1.200638349836345</v>
+        <v>2.230653306580132</v>
       </c>
       <c r="F32">
-        <v>9.904026969815064</v>
+        <v>2.884207196514278</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.602134227001913</v>
+        <v>1.960733698226115</v>
       </c>
       <c r="C33">
-        <v>2.401527721598844</v>
+        <v>1.244077653581193</v>
       </c>
       <c r="D33">
-        <v>4.061390563675221</v>
+        <v>1.719296921113731</v>
       </c>
       <c r="E33">
-        <v>1.201960522431005</v>
+        <v>2.223481036940614</v>
       </c>
       <c r="F33">
-        <v>10.18748442379739</v>
+        <v>2.919929373400902</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.614947636342548</v>
+        <v>1.967286707492198</v>
       </c>
       <c r="C34">
-        <v>2.430772179581282</v>
+        <v>1.246584109713163</v>
       </c>
       <c r="D34">
-        <v>4.11728114146811</v>
+        <v>1.734398491280892</v>
       </c>
       <c r="E34">
-        <v>1.203013654793838</v>
+        <v>2.216307944540824</v>
       </c>
       <c r="F34">
-        <v>10.47029815174253</v>
+        <v>2.954497406318799</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.627420019059612</v>
+        <v>1.972879250503017</v>
       </c>
       <c r="C35">
-        <v>2.459236973386034</v>
+        <v>1.248829136281572</v>
       </c>
       <c r="D35">
-        <v>4.171418586465514</v>
+        <v>1.74907643454986</v>
       </c>
       <c r="E35">
-        <v>1.203802210117654</v>
+        <v>2.209137056371067</v>
       </c>
       <c r="F35">
-        <v>10.75233567951708</v>
+        <v>2.987940237293401</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.639553666843598</v>
+        <v>1.977559794389592</v>
       </c>
       <c r="C36">
-        <v>2.486931493790559</v>
+        <v>1.250816699522573</v>
       </c>
       <c r="D36">
-        <v>4.223852142229047</v>
+        <v>1.763332625258784</v>
       </c>
       <c r="E36">
-        <v>1.204330626724472</v>
+        <v>2.201970804248357</v>
       </c>
       <c r="F36">
-        <v>11.03343587196443</v>
+        <v>3.020286018152397</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.65135090364701</v>
+        <v>1.981375048745591</v>
       </c>
       <c r="C37">
-        <v>2.513865156341429</v>
+        <v>1.252550738568165</v>
       </c>
       <c r="D37">
-        <v>4.27462979085059</v>
+        <v>1.777168948441892</v>
       </c>
       <c r="E37">
-        <v>1.204603319275122</v>
+        <v>2.194811151068102</v>
       </c>
       <c r="F37">
-        <v>11.31340383769981</v>
+        <v>3.051562126324825</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.662814085496956</v>
+        <v>1.98436988149248</v>
       </c>
       <c r="C38">
-        <v>2.540047398181589</v>
+        <v>1.254035169502384</v>
       </c>
       <c r="D38">
-        <v>4.323798256514484</v>
+        <v>1.790587303736274</v>
       </c>
       <c r="E38">
-        <v>1.204624679860568</v>
+        <v>2.187659689394543</v>
       </c>
       <c r="F38">
-        <v>11.59200525609835</v>
+        <v>3.081795188335954</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.673945600270965</v>
+        <v>1.986587280646899</v>
       </c>
       <c r="C39">
-        <v>2.565487674805324</v>
+        <v>1.255273884785349</v>
       </c>
       <c r="D39">
-        <v>4.371403012902831</v>
+        <v>1.803589606200736</v>
       </c>
       <c r="E39">
-        <v>1.204399078979389</v>
+        <v>2.180517721695182</v>
       </c>
       <c r="F39">
-        <v>11.86896019727241</v>
+        <v>3.111011106010755</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.68474786743939</v>
+        <v>1.988068340491734</v>
       </c>
       <c r="C40">
-        <v>2.590195456752313</v>
+        <v>1.256270753258784</v>
       </c>
       <c r="D40">
-        <v>4.417488293973348</v>
+        <v>1.81617779034576</v>
       </c>
       <c r="E40">
-        <v>1.203930866408546</v>
+        <v>2.173386319213489</v>
       </c>
       <c r="F40">
-        <v>12.14393657971383</v>
+        <v>3.139235069925676</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.695223337772462</v>
+        <v>1.988852273443336</v>
       </c>
       <c r="C41">
-        <v>2.614180226251577</v>
+        <v>1.257029622787008</v>
       </c>
       <c r="D41">
-        <v>4.462097107677683</v>
+        <v>1.828353820830371</v>
       </c>
       <c r="E41">
-        <v>1.203224371971374</v>
+        <v>2.166266374988001</v>
       </c>
       <c r="F41">
-        <v>12.41654351030071</v>
+        <v>3.166491586159087</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.705374493015234</v>
+        <v>1.988976437591103</v>
       </c>
       <c r="C42">
-        <v>2.63745147382602</v>
+        <v>1.257554318806273</v>
       </c>
       <c r="D42">
-        <v>4.505271252193881</v>
+        <v>1.840119688713333</v>
       </c>
       <c r="E42">
-        <v>1.202283906208583</v>
+        <v>2.159158636298383</v>
       </c>
       <c r="F42">
-        <v>12.68632488025211</v>
+        <v>3.192804493338645</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.715203845528657</v>
+        <v>1.988476381498347</v>
       </c>
       <c r="C43">
-        <v>2.660018694867229</v>
+        <v>1.257848647019866</v>
       </c>
       <c r="D43">
-        <v>4.547051334364561</v>
+        <v>1.851477407183575</v>
       </c>
       <c r="E43">
-        <v>1.201113760955698</v>
+        <v>2.152063718545321</v>
       </c>
       <c r="F43">
-        <v>12.95275374712959</v>
+        <v>3.218196983826243</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.724713937899954</v>
+        <v>1.987385900095381</v>
       </c>
       <c r="C44">
-        <v>2.681891386190823</v>
+        <v>1.257916393174167</v>
       </c>
       <c r="D44">
-        <v>4.58747678996076</v>
+        <v>1.862429036325484</v>
       </c>
       <c r="E44">
-        <v>1.199718209833017</v>
+        <v>2.14498213727577</v>
       </c>
       <c r="F44">
-        <v>13.21522820988425</v>
+        <v>3.242691624287414</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.733907342520673</v>
+        <v>1.985737096567984</v>
       </c>
       <c r="C45">
-        <v>2.703079042582115</v>
+        <v>1.257761323777079</v>
       </c>
       <c r="D45">
-        <v>4.626585905474847</v>
+        <v>1.872976671845158</v>
       </c>
       <c r="E45">
-        <v>1.198101508651396</v>
+        <v>2.137914325594152</v>
       </c>
       <c r="F45">
-        <v>13.47306966315697</v>
+        <v>3.266310372217352</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.74278666113551</v>
+        <v>1.983560443978093</v>
       </c>
       <c r="C46">
-        <v>2.723591153337907</v>
+        <v>1.257387187069001</v>
       </c>
       <c r="D46">
-        <v>4.664415841198087</v>
+        <v>1.883122443334419</v>
       </c>
       <c r="E46">
-        <v>1.196267895738604</v>
+        <v>2.130860650372617</v>
       </c>
       <c r="F46">
-        <v>13.72552447059946</v>
+        <v>3.289074597616762</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.75135452436046</v>
+        <v>1.98088485393292</v>
       </c>
       <c r="C47">
-        <v>2.743437198814592</v>
+        <v>1.256797713807147</v>
       </c>
       <c r="D47">
-        <v>4.701002655314641</v>
+        <v>1.892868531690975</v>
       </c>
       <c r="E47">
-        <v>1.19422159218935</v>
+        <v>2.123821424724787</v>
       </c>
       <c r="F47">
-        <v>13.97177017146742</v>
+        <v>3.311005095934449</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.759613591173272</v>
+        <v>1.977737747556358</v>
       </c>
       <c r="C48">
-        <v>2.762626646992605</v>
+        <v>1.255996617967317</v>
       </c>
       <c r="D48">
-        <v>4.736381328806005</v>
+        <v>1.902217165792252</v>
       </c>
       <c r="E48">
-        <v>1.191966802043881</v>
+        <v>2.116796915474269</v>
       </c>
       <c r="F48">
-        <v>14.21092728633848</v>
+        <v>3.332122109693362</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.767566548374957</v>
+        <v>1.974145125252781</v>
       </c>
       <c r="C49">
-        <v>2.781168950062646</v>
+        <v>1.254987589959108</v>
       </c>
       <c r="D49">
-        <v>4.770585790965228</v>
+        <v>1.911170622031712</v>
       </c>
       <c r="E49">
-        <v>1.189507712398188</v>
+        <v>2.109787350461496</v>
       </c>
       <c r="F49">
-        <v>14.44207753541295</v>
+        <v>3.352445340420348</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.775216110025207</v>
+        <v>1.970131634552302</v>
       </c>
       <c r="C50">
-        <v>2.799073541039403</v>
+        <v>1.253774311296029</v>
       </c>
       <c r="D50">
-        <v>4.803648945351868</v>
+        <v>1.919731230028883</v>
       </c>
       <c r="E50">
-        <v>1.186848493449759</v>
+        <v>2.102792924790954</v>
       </c>
       <c r="F50">
-        <v>14.66428879035962</v>
+        <v>3.371993967541228</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.782565016850674</v>
+        <v>1.965720638416551</v>
       </c>
       <c r="C51">
-        <v>2.816349830411883</v>
+        <v>1.252360445844318</v>
       </c>
       <c r="D51">
-        <v>4.835602696030918</v>
+        <v>1.927901380404157</v>
       </c>
       <c r="E51">
-        <v>1.183993298481679</v>
+        <v>2.095813804693307</v>
       </c>
       <c r="F51">
-        <v>14.87664632896617</v>
+        <v>3.39078666278069</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.78961603562883</v>
+        <v>1.960934281798523</v>
       </c>
       <c r="C52">
-        <v>2.833007202835945</v>
+        <v>1.250749639229482</v>
       </c>
       <c r="D52">
-        <v>4.866477973961918</v>
+        <v>1.935683521331644</v>
       </c>
       <c r="E52">
-        <v>1.180946263789106</v>
+        <v>2.088850133275632</v>
       </c>
       <c r="F52">
-        <v>15.0782890062045</v>
+        <v>3.408841604107852</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.796371958546553</v>
+        <v>1.955793558261867</v>
       </c>
       <c r="C53">
-        <v>2.849055013874788</v>
+        <v>1.248945512096511</v>
       </c>
       <c r="D53">
-        <v>4.896304763419217</v>
+        <v>1.943080158243978</v>
       </c>
       <c r="E53">
-        <v>1.177711508550952</v>
+        <v>2.081902034020305</v>
       </c>
       <c r="F53">
-        <v>15.26844793209937</v>
+        <v>3.426176493452018</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.802835602536046</v>
+        <v>1.950318366595211</v>
       </c>
       <c r="C54">
-        <v>2.864502586791331</v>
+        <v>1.246951682827088</v>
       </c>
       <c r="D54">
-        <v>4.925112128339378</v>
+        <v>1.950093869113433</v>
       </c>
       <c r="E54">
-        <v>1.17429313465004</v>
+        <v>2.074969613856344</v>
       </c>
       <c r="F54">
-        <v>15.44648436862244</v>
+        <v>3.442808566569875</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.809009808587397</v>
+        <v>1.944527577339687</v>
       </c>
       <c r="C55">
-        <v>2.879359209401226</v>
+        <v>1.244771750355564</v>
       </c>
       <c r="D55">
-        <v>4.952928238505232</v>
+        <v>1.956727298406398</v>
       </c>
       <c r="E55">
-        <v>1.170695226443378</v>
+        <v>2.068052966351849</v>
       </c>
       <c r="F55">
-        <v>15.61192307016704</v>
+        <v>3.458754611239087</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.814897441040282</v>
+        <v>1.938439081735039</v>
       </c>
       <c r="C56">
-        <v>2.893634130987967</v>
+        <v>1.242409290288815</v>
       </c>
       <c r="D56">
-        <v>4.979780395489027</v>
+        <v>1.962983150546568</v>
       </c>
       <c r="E56">
-        <v>1.166921850488373</v>
+        <v>2.061152171540453</v>
       </c>
       <c r="F56">
-        <v>15.7644773982198</v>
+        <v>3.474030976093657</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.820501386854287</v>
+        <v>1.932069847738353</v>
       </c>
       <c r="C57">
-        <v>2.907336559286749</v>
+        <v>1.239867861859454</v>
       </c>
       <c r="D57">
-        <v>5.005695058287152</v>
+        <v>1.96886421298089</v>
       </c>
       <c r="E57">
-        <v>1.162977055228746</v>
+        <v>2.054267300094287</v>
       </c>
       <c r="F57">
-        <v>15.90406331807754</v>
+        <v>3.488653587352605</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.82582455486022</v>
+        <v>1.925435976201252</v>
       </c>
       <c r="C58">
-        <v>2.920475657536844</v>
+        <v>1.237151016094534</v>
       </c>
       <c r="D58">
-        <v>5.030697868589493</v>
+        <v>1.97437334613097</v>
       </c>
       <c r="E58">
-        <v>1.15886487063546</v>
+        <v>2.047398411401093</v>
       </c>
       <c r="F58">
-        <v>16.03080073289625</v>
+        <v>3.502637957996884</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.830869874992076</v>
+        <v>1.918552736142616</v>
       </c>
       <c r="C59">
-        <v>2.933060541613142</v>
+        <v>1.234262284976173</v>
       </c>
       <c r="D59">
-        <v>5.054813675635015</v>
+        <v>1.9795134801251</v>
       </c>
       <c r="E59">
-        <v>1.154589307807529</v>
+        <v>2.040545557748947</v>
       </c>
       <c r="F59">
-        <v>16.14500225882234</v>
+        <v>3.515999201946015</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.835640297501882</v>
+        <v>1.911434629606649</v>
       </c>
       <c r="C60">
-        <v>2.945100277234207</v>
+        <v>1.231205174705231</v>
       </c>
       <c r="D60">
-        <v>5.078066560614404</v>
+        <v>1.984287624813172</v>
       </c>
       <c r="E60">
-        <v>1.150154358544012</v>
+        <v>2.033708783107552</v>
       </c>
       <c r="F60">
-        <v>16.24715113549181</v>
+        <v>3.528752044895161</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.840138792157252</v>
+        <v>1.904095415195199</v>
       </c>
       <c r="C61">
-        <v>2.956603877253746</v>
+        <v>1.227983183198487</v>
       </c>
       <c r="D61">
-        <v>5.100479860584858</v>
+        <v>1.988698876282838</v>
       </c>
       <c r="E61">
-        <v>1.145563994883174</v>
+        <v>2.026888125740036</v>
       </c>
       <c r="F61">
-        <v>16.33787116575302</v>
+        <v>3.540910834888674</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.844368347423758</v>
+        <v>1.896548166210798</v>
       </c>
       <c r="C62">
-        <v>2.967580299031642</v>
+        <v>1.224599790413408</v>
       </c>
       <c r="D62">
-        <v>5.122076191871546</v>
+        <v>1.992750407497366</v>
       </c>
       <c r="E62">
-        <v>1.140822168608758</v>
+        <v>2.02008361844978</v>
       </c>
       <c r="F62">
-        <v>16.41789218243894</v>
+        <v>3.552489555538566</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.848331969632087</v>
+        <v>1.888805297476442</v>
       </c>
       <c r="C63">
-        <v>2.978038441896967</v>
+        <v>1.221058458022169</v>
       </c>
       <c r="D63">
-        <v>5.142877472933909</v>
+        <v>1.996445466523589</v>
       </c>
       <c r="E63">
-        <v>1.13593281072891</v>
+        <v>2.01329528788392</v>
       </c>
       <c r="F63">
-        <v>16.48801451743537</v>
+        <v>3.563501833385425</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.852032682131975</v>
+        <v>1.880878606105342</v>
       </c>
       <c r="C64">
-        <v>2.987987144696625</v>
+        <v>1.217362625870191</v>
       </c>
       <c r="D64">
-        <v>5.162904946681443</v>
+        <v>1.999787398931012</v>
       </c>
       <c r="E64">
-        <v>1.130899830930266</v>
+        <v>2.006523158039458</v>
       </c>
       <c r="F64">
-        <v>16.54907542144154</v>
+        <v>3.573960951196924</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.855473524433026</v>
+        <v>1.872779309887177</v>
       </c>
       <c r="C65">
-        <v>2.997435183436668</v>
+        <v>1.213515721755054</v>
       </c>
       <c r="D65">
-        <v>5.18217920222549</v>
+        <v>2.002779632991224</v>
       </c>
       <c r="E65">
-        <v>1.12572711700847</v>
+        <v>1.999767251186083</v>
       </c>
       <c r="F65">
-        <v>16.60191955963793</v>
+        <v>3.583879853566594</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.858657551334262</v>
+        <v>1.864518068208907</v>
       </c>
       <c r="C66">
-        <v>3.006391269009972</v>
+        <v>1.209521153884864</v>
       </c>
       <c r="D66">
-        <v>5.200720196060278</v>
+        <v>2.005425666844816</v>
       </c>
       <c r="E66">
-        <v>1.120418534277665</v>
+        <v>1.993027582159915</v>
       </c>
       <c r="F66">
-        <v>16.64737480594513</v>
+        <v>3.593271165248061</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.861587832042679</v>
+        <v>1.856105028225101</v>
       </c>
       <c r="C67">
-        <v>3.01486404502263</v>
+        <v>1.205382310681603</v>
       </c>
       <c r="D67">
-        <v>5.218547272668242</v>
+        <v>2.007729104847224</v>
       </c>
       <c r="E67">
-        <v>1.114977924960534</v>
+        <v>1.986304162875873</v>
       </c>
       <c r="F67">
-        <v>16.68623374614844</v>
+        <v>3.602147189802005</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.864267449282492</v>
+        <v>1.847549836892073</v>
       </c>
       <c r="C68">
-        <v>3.022862085711238</v>
+        <v>1.201102560946728</v>
       </c>
       <c r="D68">
-        <v>5.235679184548119</v>
+        <v>2.009693635452476</v>
       </c>
       <c r="E68">
-        <v>1.10940910756132</v>
+        <v>1.979597010408237</v>
       </c>
       <c r="F68">
-        <v>16.7192406754511</v>
+        <v>3.610519924039957</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.866699498395484</v>
+        <v>1.838861681715045</v>
       </c>
       <c r="C69">
-        <v>3.030393893956552</v>
+        <v>1.196685257549426</v>
       </c>
       <c r="D69">
-        <v>5.252134111665796</v>
+        <v>2.011323022295289</v>
       </c>
       <c r="E69">
-        <v>1.103715876224171</v>
+        <v>1.972906135484763</v>
       </c>
       <c r="F69">
-        <v>16.7470834686168</v>
+        <v>3.618401077445974</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.868887086434011</v>
+        <v>1.830049306744852</v>
       </c>
       <c r="C70">
-        <v>3.037467899387846</v>
+        <v>1.192133733316475</v>
       </c>
       <c r="D70">
-        <v>5.267929680331696</v>
+        <v>2.012621123941705</v>
       </c>
       <c r="E70">
-        <v>1.097902000078011</v>
+        <v>1.966231537332314</v>
       </c>
       <c r="F70">
-        <v>16.77038949204803</v>
+        <v>3.625802050515283</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.87083333124702</v>
+        <v>1.821121039771372</v>
       </c>
       <c r="C71">
-        <v>3.044092456585996</v>
+        <v>1.187451298366227</v>
       </c>
       <c r="D71">
-        <v>5.28308298150998</v>
+        <v>2.013591893572968</v>
       </c>
       <c r="E71">
-        <v>1.091971222569779</v>
+        <v>1.959573228510286</v>
       </c>
       <c r="F71">
-        <v>16.78972467275332</v>
+        <v>3.632733978870413</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.872541360560787</v>
+        <v>1.812084817598649</v>
       </c>
       <c r="C72">
-        <v>3.05027584338049</v>
+        <v>1.18264124502798</v>
       </c>
       <c r="D72">
-        <v>5.297610588565328</v>
+        <v>2.014239363054812</v>
       </c>
       <c r="E72">
-        <v>1.085927260788385</v>
+        <v>1.952931216173156</v>
       </c>
       <c r="F72">
-        <v>16.8055948886476</v>
+        <v>3.639207724051156</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.874014311055663</v>
+        <v>1.802948199112132</v>
       </c>
       <c r="C73">
-        <v>3.056026259241926</v>
+        <v>1.17770684590783</v>
       </c>
       <c r="D73">
-        <v>5.311528574455507</v>
+        <v>2.01456764214995</v>
       </c>
       <c r="E73">
-        <v>1.079773804780777</v>
+        <v>1.946305494346148</v>
       </c>
       <c r="F73">
-        <v>16.81844895275913</v>
+        <v>3.645233865797646</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.875255327438424</v>
+        <v>1.793718395774706</v>
       </c>
       <c r="C74">
-        <v>3.061351823766056</v>
+        <v>1.172651352315939</v>
       </c>
       <c r="D74">
-        <v>5.324852528378806</v>
+        <v>2.014580945333342</v>
       </c>
       <c r="E74">
-        <v>1.073514516861826</v>
+        <v>1.939696068432377</v>
       </c>
       <c r="F74">
-        <v>16.82868259609569</v>
+        <v>3.650822743475152</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.87626756151143</v>
+        <v>1.784402279209181</v>
       </c>
       <c r="C75">
-        <v>3.066260575253111</v>
+        <v>1.167477990605856</v>
       </c>
       <c r="D75">
-        <v>5.337597571887417</v>
+        <v>2.014283566528278</v>
       </c>
       <c r="E75">
-        <v>1.06715303091983</v>
+        <v>1.933102938966488</v>
       </c>
       <c r="F75">
-        <v>16.83664298667985</v>
+        <v>3.655984437734468</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.877054171240583</v>
+        <v>1.7750064077705</v>
       </c>
       <c r="C76">
-        <v>3.070760469380633</v>
+        <v>1.16218996986374</v>
       </c>
       <c r="D76">
-        <v>5.349778374475784</v>
+        <v>2.013679860641373</v>
       </c>
       <c r="E76">
-        <v>1.060692951718961</v>
+        <v>1.926526102414726</v>
       </c>
       <c r="F76">
-        <v>16.84263344325141</v>
+        <v>3.660728780512335</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.877618319823006</v>
+        <v>1.76553703704861</v>
       </c>
       <c r="C77">
-        <v>3.074859377967909</v>
+        <v>1.15679047578188</v>
       </c>
       <c r="D77">
-        <v>5.361409168656844</v>
+        <v>2.012774292446452</v>
       </c>
       <c r="E77">
-        <v>1.054137854200309</v>
+        <v>1.919965555850317</v>
       </c>
       <c r="F77">
-        <v>16.84691810255693</v>
+        <v>3.665065375849895</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.877963174754877</v>
+        <v>1.756000137291486</v>
       </c>
       <c r="C78">
-        <v>3.078565087829739</v>
+        <v>1.151282670916738</v>
       </c>
       <c r="D78">
-        <v>5.372503764537507</v>
+        <v>2.011571401661658</v>
       </c>
       <c r="E78">
-        <v>1.047491282783104</v>
+        <v>1.913421295637531</v>
       </c>
       <c r="F78">
-        <v>16.84972638126415</v>
+        <v>3.669003589393342</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.878091906900023</v>
+        <v>1.746401410211111</v>
       </c>
       <c r="C79">
-        <v>3.081885299719529</v>
+        <v>1.145669693746899</v>
       </c>
       <c r="D79">
-        <v>5.383075563906733</v>
+        <v>2.010075784925186</v>
       </c>
       <c r="E79">
-        <v>1.040756750667425</v>
+        <v>1.906893317019824</v>
       </c>
       <c r="F79">
-        <v>16.85125713513487</v>
+        <v>3.672552565765685</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.878007689560426</v>
+        <v>1.736746297269563</v>
       </c>
       <c r="C80">
-        <v>3.0848276273626</v>
+        <v>1.139954661235389</v>
       </c>
       <c r="D80">
-        <v>5.393137573847262</v>
+        <v>2.008292131206699</v>
       </c>
       <c r="E80">
-        <v>1.033937739139898</v>
+        <v>1.900381614578304</v>
       </c>
       <c r="F80">
-        <v>16.85168246387308</v>
+        <v>3.675721235015718</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.877713697549711</v>
+        <v>1.72703999960061</v>
       </c>
       <c r="C81">
-        <v>3.087399596574989</v>
+        <v>1.13414066586463</v>
       </c>
       <c r="D81">
-        <v>5.40270241988516</v>
+        <v>2.006225206879332</v>
       </c>
       <c r="E81">
-        <v>1.027037696883544</v>
+        <v>1.893886182056813</v>
       </c>
       <c r="F81">
-        <v>16.85115114233691</v>
+        <v>3.67851830644752</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.877213106270499</v>
+        <v>1.717287483179941</v>
       </c>
       <c r="C82">
-        <v>3.089608644466947</v>
+        <v>1.128230775275134</v>
       </c>
       <c r="D82">
-        <v>5.41178235868971</v>
+        <v>2.003879835889715</v>
       </c>
       <c r="E82">
-        <v>1.02006003929322</v>
+        <v>1.887407012687986</v>
       </c>
       <c r="F82">
-        <v>16.84979168063667</v>
+        <v>3.680952292894884</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.876509090796335</v>
+        <v>1.707493495971272</v>
       </c>
       <c r="C83">
-        <v>3.091462118728082</v>
+        <v>1.12222803259011</v>
       </c>
       <c r="D83">
-        <v>5.420389290337048</v>
+        <v>2.001260903391167</v>
       </c>
       <c r="E83">
-        <v>1.013008147797911</v>
+        <v>1.880944098921195</v>
       </c>
       <c r="F83">
-        <v>16.84771502961434</v>
+        <v>3.683031503934896</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.87560482495897</v>
+        <v>1.697662575130451</v>
       </c>
       <c r="C84">
-        <v>3.092967276997199</v>
+        <v>1.11613545608895</v>
       </c>
       <c r="D84">
-        <v>5.428534770146015</v>
+        <v>1.998373377992334</v>
       </c>
       <c r="E84">
-        <v>1.005885369190975</v>
+        <v>1.874497433342121</v>
       </c>
       <c r="F84">
-        <v>16.8450169564445</v>
+        <v>3.684764048555048</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.874503480441935</v>
+        <v>1.687799058193722</v>
       </c>
       <c r="C85">
-        <v>3.094131286309973</v>
+        <v>1.109956038328172</v>
       </c>
       <c r="D85">
-        <v>5.436230020110345</v>
+        <v>1.995222280739867</v>
       </c>
       <c r="E85">
-        <v>0.9986950149695617</v>
+        <v>1.868067008098173</v>
       </c>
       <c r="F85">
-        <v>16.8417801192948</v>
+        <v>3.686157855170578</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.873208225881027</v>
+        <v>1.677907094381744</v>
       </c>
       <c r="C86">
-        <v>3.094961222624863</v>
+        <v>1.103692745640645</v>
       </c>
       <c r="D86">
-        <v>5.443485939944471</v>
+        <v>1.991812667988405</v>
       </c>
       <c r="E86">
-        <v>0.9914403606844376</v>
+        <v>1.861652811473472</v>
       </c>
       <c r="F86">
-        <v>16.83807587142245</v>
+        <v>3.687220661829712</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.871722225972616</v>
+        <v>1.66799064999836</v>
       </c>
       <c r="C87">
-        <v>3.095464070422001</v>
+        <v>1.097348518171379</v>
       </c>
       <c r="D87">
-        <v>5.450313117705107</v>
+        <v>1.988149677004871</v>
       </c>
       <c r="E87">
-        <v>0.9841246453007951</v>
+        <v>1.855254835644684</v>
       </c>
       <c r="F87">
-        <v>16.83396582471367</v>
+        <v>3.687960026755066</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.870048640590452</v>
+        <v>1.658053521532659</v>
       </c>
       <c r="C88">
-        <v>3.095646722379544</v>
+        <v>1.090926269136068</v>
       </c>
       <c r="D88">
-        <v>5.456721840072108</v>
+        <v>1.984238487970807</v>
       </c>
       <c r="E88">
-        <v>0.9767510705716818</v>
+        <v>1.848873071510166</v>
       </c>
       <c r="F88">
-        <v>16.82950320118368</v>
+        <v>3.688383338921614</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.868190623911686</v>
+        <v>1.648099339308812</v>
       </c>
       <c r="C89">
-        <v>3.095515979119349</v>
+        <v>1.084428884500279</v>
       </c>
       <c r="D89">
-        <v>5.462722102265471</v>
+        <v>1.980084301838752</v>
       </c>
       <c r="E89">
-        <v>0.9693228004247942</v>
+        <v>1.84250751011395</v>
       </c>
       <c r="F89">
-        <v>16.82473399883258</v>
+        <v>3.688497809520504</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.866151323552783</v>
+        <v>1.638131578665431</v>
       </c>
       <c r="C90">
-        <v>3.095078549023132</v>
+        <v>1.077859222616694</v>
       </c>
       <c r="D90">
-        <v>5.468323617609856</v>
+        <v>1.975692381839835</v>
       </c>
       <c r="E90">
-        <v>0.9618429603634334</v>
+        <v>1.836158142593548</v>
       </c>
       <c r="F90">
-        <v>16.8196979958218</v>
+        <v>3.68831049037329</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.86393387971599</v>
+        <v>1.628153564993116</v>
       </c>
       <c r="C91">
-        <v>3.094341048112492</v>
+        <v>1.071220113622861</v>
       </c>
       <c r="D91">
-        <v>5.473535826756159</v>
+        <v>1.971068024762028</v>
       </c>
       <c r="E91">
-        <v>0.9543146368826593</v>
+        <v>1.82982495023545</v>
       </c>
       <c r="F91">
-        <v>16.81442961443022</v>
+        <v>3.687828271886251</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.861541424346989</v>
+        <v>1.61816848104413</v>
       </c>
       <c r="C92">
-        <v>3.093309999998066</v>
+        <v>1.064514359161473</v>
       </c>
       <c r="D92">
-        <v>5.47836790658884</v>
+        <v>1.966216546289035</v>
       </c>
       <c r="E92">
-        <v>0.9467408769016855</v>
+        <v>1.823507926866536</v>
       </c>
       <c r="F92">
-        <v>16.80895866379468</v>
+        <v>3.68705788260765</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.858977080304371</v>
+        <v>1.608179374636236</v>
       </c>
       <c r="C93">
-        <v>3.091991835889075</v>
+        <v>1.057744732216113</v>
       </c>
       <c r="D93">
-        <v>5.482828778810957</v>
+        <v>1.961143286985449</v>
       </c>
       <c r="E93">
-        <v>0.9391246872124807</v>
+        <v>1.817207062008056</v>
       </c>
       <c r="F93">
-        <v>16.80331097812874</v>
+        <v>3.686005905016658</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.856243960541479</v>
+        <v>1.598189162285888</v>
       </c>
       <c r="C94">
-        <v>3.090392894664868</v>
+        <v>1.050913976482135</v>
       </c>
       <c r="D94">
-        <v>5.486927118230625</v>
+        <v>1.95585361967393</v>
       </c>
       <c r="E94">
-        <v>0.9314690339465153</v>
+        <v>1.810922345395297</v>
       </c>
       <c r="F94">
-        <v>16.79750896498966</v>
+        <v>3.684678770164439</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.853345167301204</v>
+        <v>1.5882006379368</v>
       </c>
       <c r="C95">
-        <v>3.088519423001196</v>
+        <v>1.04402480567355</v>
       </c>
       <c r="D95">
-        <v>5.490671360751735</v>
+        <v>1.950352925935495</v>
       </c>
       <c r="E95">
-        <v>0.9237768420597327</v>
+        <v>1.804653766955003</v>
       </c>
       <c r="F95">
-        <v>16.79157207624574</v>
+        <v>3.683082762578647</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.850283791324241</v>
+        <v>1.578216475615977</v>
       </c>
       <c r="C96">
-        <v>3.086377575556664</v>
+        <v>1.03707990348552</v>
       </c>
       <c r="D96">
-        <v>5.494069711085643</v>
+        <v>1.944646586852445</v>
       </c>
       <c r="E96">
-        <v>0.9160509948364035</v>
+        <v>1.79840130566855</v>
       </c>
       <c r="F96">
-        <v>16.78551721268714</v>
+        <v>3.681224030919832</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.847062911071317</v>
+        <v>1.568239235743573</v>
       </c>
       <c r="C97">
-        <v>3.08397341521071</v>
+        <v>1.030081924129323</v>
       </c>
       <c r="D97">
-        <v>5.497130150187922</v>
+        <v>1.938740003635799</v>
       </c>
       <c r="E97">
-        <v>0.9082943334126687</v>
+        <v>1.792164954401099</v>
       </c>
       <c r="F97">
-        <v>16.77935907171624</v>
+        <v>3.679108581906037</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.843685591959868</v>
+        <v>1.558271370045483</v>
       </c>
       <c r="C98">
-        <v>3.081312913354493</v>
+        <v>1.02303349014532</v>
       </c>
       <c r="D98">
-        <v>5.499860442434588</v>
+        <v>1.932638573563629</v>
       </c>
       <c r="E98">
-        <v>0.9005096563206269</v>
+        <v>1.785944700988032</v>
       </c>
       <c r="F98">
-        <v>16.77311044623451</v>
+        <v>3.676742290941667</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.840154885615604</v>
+        <v>1.548315230197529</v>
       </c>
       <c r="C99">
-        <v>3.078401950228387</v>
+        <v>1.015937192979632</v>
       </c>
       <c r="D99">
-        <v>5.502268142544492</v>
+        <v>1.926347681740771</v>
       </c>
       <c r="E99">
-        <v>0.8926997190523691</v>
+        <v>1.779740533242356</v>
       </c>
       <c r="F99">
-        <v>16.76678248167944</v>
+        <v>3.674130905314276</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.836473829139384</v>
+        <v>1.538373059163115</v>
       </c>
       <c r="C100">
-        <v>3.075246315309584</v>
+        <v>1.008795592790913</v>
       </c>
       <c r="D100">
-        <v>5.504360602257871</v>
+        <v>1.91987270743747</v>
       </c>
       <c r="E100">
-        <v>0.8848672336462179</v>
+        <v>1.773552438978149</v>
       </c>
       <c r="F100">
-        <v>16.76038489724521</v>
+        <v>3.6712800401029</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.832645444389796</v>
+        <v>1.528447016537519</v>
       </c>
       <c r="C101">
-        <v>3.071851707743368</v>
+        <v>1.001611219215917</v>
       </c>
       <c r="D101">
-        <v>5.506144976780509</v>
+        <v>1.913219012698428</v>
       </c>
       <c r="E101">
-        <v>0.8770148682945221</v>
+        <v>1.767380400118659</v>
       </c>
       <c r="F101">
-        <v>16.75392617637377</v>
+        <v>3.668195192544142</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.8286727372818</v>
+        <v>1.51853916706038</v>
       </c>
       <c r="C102">
-        <v>3.068223736817953</v>
+        <v>0.9943865681209251</v>
       </c>
       <c r="D102">
-        <v>5.507628231000271</v>
+        <v>1.906391938929862</v>
       </c>
       <c r="E102">
-        <v>0.8691452469736383</v>
+        <v>1.761224405660043</v>
       </c>
       <c r="F102">
-        <v>16.74741373075046</v>
+        <v>3.66488173784425</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.824558697101779</v>
+        <v>1.508651479949455</v>
       </c>
       <c r="C103">
-        <v>3.064367922478461</v>
+        <v>0.9871241033914386</v>
       </c>
       <c r="D103">
-        <v>5.508817145487285</v>
+        <v>1.899396800437595</v>
       </c>
       <c r="E103">
-        <v>0.8612609490966354</v>
+        <v>1.755084441803205</v>
       </c>
       <c r="F103">
-        <v>16.74085404187521</v>
+        <v>3.661344931293863</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.820306295839299</v>
+        <v>1.498785854561831</v>
       </c>
       <c r="C104">
-        <v>3.060289695880999</v>
+        <v>0.9798262568942738</v>
       </c>
       <c r="D104">
-        <v>5.50971832228144</v>
+        <v>1.892238884611553</v>
       </c>
       <c r="E104">
-        <v>0.853364509189404</v>
+        <v>1.748960494547439</v>
       </c>
       <c r="F104">
-        <v>16.73425278312038</v>
+        <v>3.65758991834755</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.815918487535875</v>
+        <v>1.488944098569366</v>
       </c>
       <c r="C105">
-        <v>3.055994399983119</v>
+        <v>0.972495428017903</v>
       </c>
       <c r="D105">
-        <v>5.510338190480496</v>
+        <v>1.884923440740485</v>
       </c>
       <c r="E105">
-        <v>0.8454584165890654</v>
+        <v>1.74285254969974</v>
       </c>
       <c r="F105">
-        <v>16.72761492517031</v>
+        <v>3.6536217302778</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.811398207650978</v>
+        <v>1.479127945416466</v>
       </c>
       <c r="C106">
-        <v>3.051487290169008</v>
+        <v>0.9651339815367574</v>
       </c>
       <c r="D106">
-        <v>5.510683011629507</v>
+        <v>1.877455680195699</v>
       </c>
       <c r="E106">
-        <v>0.8375451151672331</v>
+        <v>1.736760592457355</v>
       </c>
       <c r="F106">
-        <v>16.72094482714191</v>
+        <v>3.649445289879702</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.806748372445545</v>
+        <v>1.469339058587269</v>
       </c>
       <c r="C107">
-        <v>3.046773534906531</v>
+        <v>0.9577442490753685</v>
       </c>
       <c r="D107">
-        <v>5.510758884926569</v>
+        <v>1.869840770297427</v>
       </c>
       <c r="E107">
-        <v>0.829627003076743</v>
+        <v>1.730684608338066</v>
       </c>
       <c r="F107">
-        <v>16.71424631540347</v>
+        <v>3.645065416842885</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.801971878383162</v>
+        <v>1.459579021594833</v>
       </c>
       <c r="C108">
-        <v>3.041858216435456</v>
+        <v>0.9503285300912934</v>
       </c>
       <c r="D108">
-        <v>5.510571752242937</v>
+        <v>1.862083829299713</v>
       </c>
       <c r="E108">
-        <v>0.8217064325225256</v>
+        <v>1.724624582490763</v>
       </c>
       <c r="F108">
-        <v>16.70752275180707</v>
+        <v>3.64048682359975</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.797071601549134</v>
+        <v>1.449849357042761</v>
       </c>
       <c r="C109">
-        <v>3.036746331484936</v>
+        <v>0.9428890889650369</v>
       </c>
       <c r="D109">
-        <v>5.51012740297409</v>
+        <v>1.854189925561902</v>
       </c>
       <c r="E109">
-        <v>0.8137857095568691</v>
+        <v>1.718580499879511</v>
       </c>
       <c r="F109">
-        <v>16.70077709281448</v>
+        <v>3.635714125518132</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.792050397087565</v>
+        <v>1.440151519013458</v>
       </c>
       <c r="C110">
-        <v>3.031442792017755</v>
+        <v>0.9354281554970801</v>
       </c>
       <c r="D110">
-        <v>5.509431478717299</v>
+        <v>1.846164068157769</v>
       </c>
       <c r="E110">
-        <v>0.8058670938995837</v>
+        <v>1.712552345292546</v>
       </c>
       <c r="F110">
-        <v>16.69401194077358</v>
+        <v>3.630751839609062</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.786911098656599</v>
+        <v>1.43048689684808</v>
       </c>
       <c r="C111">
-        <v>3.025952425999524</v>
+        <v>0.9279479253295089</v>
       </c>
       <c r="D111">
-        <v>5.508489477793709</v>
+        <v>1.838011209615056</v>
       </c>
       <c r="E111">
-        <v>0.7979527987815328</v>
+        <v>1.706540104166584</v>
       </c>
       <c r="F111">
-        <v>16.68722958842181</v>
+        <v>3.625604384377316</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.781656517901931</v>
+        <v>1.420856823068191</v>
       </c>
       <c r="C112">
-        <v>3.020279978191247</v>
+        <v>0.9204505617305824</v>
       </c>
       <c r="D112">
-        <v>5.507306759608217</v>
+        <v>1.829736237374294</v>
       </c>
       <c r="E112">
-        <v>0.7900449908143137</v>
+        <v>1.700543760844415</v>
       </c>
       <c r="F112">
-        <v>16.6804320575538</v>
+        <v>3.620276088807768</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.776289443948644</v>
+        <v>1.411262567552126</v>
       </c>
       <c r="C113">
-        <v>3.014430110964372</v>
+        <v>0.9129381905343902</v>
       </c>
       <c r="D113">
-        <v>5.505888548866407</v>
+        <v>1.821343971929959</v>
       </c>
       <c r="E113">
-        <v>0.7821457898840176</v>
+        <v>1.694563299888522</v>
       </c>
       <c r="F113">
-        <v>16.67362113264454</v>
+        <v>3.614771189234804</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.770812642911463</v>
+        <v>1.401705346738469</v>
       </c>
       <c r="C114">
-        <v>3.008407405135597</v>
+        <v>0.9054129033419844</v>
       </c>
       <c r="D114">
-        <v>5.504239939639845</v>
+        <v>1.812839168154234</v>
       </c>
       <c r="E114">
-        <v>0.7742572690698196</v>
+        <v>1.688598705777767</v>
       </c>
       <c r="F114">
-        <v>16.66679839011035</v>
+        <v>3.609093832254109</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.765228857423447</v>
+        <v>1.392186323920904</v>
       </c>
       <c r="C115">
-        <v>3.002216360820233</v>
+        <v>0.8978767572829611</v>
       </c>
       <c r="D115">
-        <v>5.502365899299872</v>
+        <v>1.804226503253241</v>
       </c>
       <c r="E115">
-        <v>0.7663814545873545</v>
+        <v>1.682649962908672</v>
       </c>
       <c r="F115">
-        <v>16.6599652237997</v>
+        <v>3.603248080591736</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.759540806183136</v>
+        <v>1.382706605718882</v>
       </c>
       <c r="C116">
-        <v>2.995861398302191</v>
+        <v>0.8903317754424773</v>
       </c>
       <c r="D116">
-        <v>5.500271272309917</v>
+        <v>1.795510586437562</v>
       </c>
       <c r="E116">
-        <v>0.7585203257572255</v>
+        <v>1.676717055166277</v>
       </c>
       <c r="F116">
-        <v>16.65312286721303</v>
+        <v>3.597237909910435</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.753751183520149</v>
+        <v>1.373267253864752</v>
       </c>
       <c r="C117">
-        <v>2.989346858920246</v>
+        <v>0.8827799434267772</v>
       </c>
       <c r="D117">
-        <v>5.497960783896311</v>
+        <v>1.786695944995979</v>
       </c>
       <c r="E117">
-        <v>0.7506758149967667</v>
+        <v>1.670799966870869</v>
       </c>
       <c r="F117">
-        <v>16.64627241289069</v>
+        <v>3.591067214752719</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.747862658979211</v>
+        <v>1.363869279142405</v>
       </c>
       <c r="C118">
-        <v>2.982677005967938</v>
+        <v>0.875223211947471</v>
       </c>
       <c r="D118">
-        <v>5.495439043587694</v>
+        <v>1.777787028906947</v>
       </c>
       <c r="E118">
-        <v>0.7428498078379838</v>
+        <v>1.664898682102441</v>
       </c>
       <c r="F118">
-        <v>16.63941482941188</v>
+        <v>3.584739810216967</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.741877876922552</v>
+        <v>1.354513644643925</v>
       </c>
       <c r="C119">
-        <v>2.975856025606287</v>
+        <v>0.8676634977409566</v>
       </c>
       <c r="D119">
-        <v>5.492710548641721</v>
+        <v>1.768788209890536</v>
       </c>
       <c r="E119">
-        <v>0.7350441429690112</v>
+        <v>1.659013184866058</v>
       </c>
       <c r="F119">
-        <v>16.63255097612619</v>
+        <v>3.578259430098525</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.735799456150635</v>
+        <v>1.345201271695843</v>
       </c>
       <c r="C120">
-        <v>2.968888027787389</v>
+        <v>0.8601026813208492</v>
       </c>
       <c r="D120">
-        <v>5.489779687349875</v>
+        <v>1.759703772381808</v>
       </c>
       <c r="E120">
-        <v>0.7272606122999137</v>
+        <v>1.653143459109929</v>
       </c>
       <c r="F120">
-        <v>16.625681616131</v>
+        <v>3.571629734565171</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.729629989541097</v>
+        <v>1.335933034640283</v>
       </c>
       <c r="C121">
-        <v>2.961777047188714</v>
+        <v>0.8525426064877961</v>
       </c>
       <c r="D121">
-        <v>5.486650742237673</v>
+        <v>1.750537923938521</v>
       </c>
       <c r="E121">
-        <v>0.7195009610525143</v>
+        <v>1.647289487647068</v>
       </c>
       <c r="F121">
-        <v>16.61880742764123</v>
+        <v>3.564854308083107</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.723372043705838</v>
+        <v>1.326709768607697</v>
       </c>
       <c r="C122">
-        <v>2.954527044155815</v>
+        <v>0.844985081552496</v>
       </c>
       <c r="D122">
-        <v>5.483327893151804</v>
+        <v>1.741294780933803</v>
       </c>
       <c r="E122">
-        <v>0.7117668878744318</v>
+        <v>1.641451254452202</v>
       </c>
       <c r="F122">
-        <v>16.61192901391673</v>
+        <v>3.557936660713074</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.717028158666111</v>
+        <v>1.31753226819013</v>
       </c>
       <c r="C123">
-        <v>2.947141905652791</v>
+        <v>0.8374318819015041</v>
       </c>
       <c r="D123">
-        <v>5.479815220250126</v>
+        <v>1.731978377355131</v>
       </c>
       <c r="E123">
-        <v>0.7040600449752131</v>
+        <v>1.63562874301929</v>
       </c>
       <c r="F123">
-        <v>16.60504691199467</v>
+        <v>3.550880233636831</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.710600847545497</v>
+        <v>1.308401287108332</v>
       </c>
       <c r="C124">
-        <v>2.939625446218824</v>
+        <v>0.8298847439134194</v>
       </c>
       <c r="D124">
-        <v>5.476116706886779</v>
+        <v>1.722592661447399</v>
       </c>
       <c r="E124">
-        <v>0.696382038287506</v>
+        <v>1.62982193671639</v>
       </c>
       <c r="F124">
-        <v>16.59816160034744</v>
+        <v>3.54368839685352</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1.704092596280629</v>
+        <v>1.299317544185638</v>
       </c>
       <c r="C125">
-        <v>2.931981408930529</v>
+        <v>0.8223453689501731</v>
       </c>
       <c r="D125">
-        <v>5.472236242407043</v>
+        <v>1.713141490797204</v>
       </c>
       <c r="E125">
-        <v>0.6887344276501572</v>
+        <v>1.624030818819701</v>
       </c>
       <c r="F125">
-        <v>16.59127350561317</v>
+        <v>3.536364452493246</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.697505863349393</v>
+        <v>1.290281720439653</v>
       </c>
       <c r="C126">
-        <v>2.924213466368315</v>
+        <v>0.8148154229827407</v>
       </c>
       <c r="D126">
-        <v>5.468177624844902</v>
+        <v>1.703628641280309</v>
       </c>
       <c r="E126">
-        <v>0.6811187270141261</v>
+        <v>1.618255372008663</v>
       </c>
       <c r="F126">
-        <v>16.58438300851745</v>
+        <v>3.528911637772015</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.690843079516623</v>
+        <v>1.281294461843198</v>
       </c>
       <c r="C127">
-        <v>2.916325221586126</v>
+        <v>0.8072965380041019</v>
       </c>
       <c r="D127">
-        <v>5.463944563536708</v>
+        <v>1.694057795451158</v>
       </c>
       <c r="E127">
-        <v>0.6735364046706545</v>
+        <v>1.612495579427603</v>
       </c>
       <c r="F127">
-        <v>16.57749044908385</v>
+        <v>3.521333122769464</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1.684106647596949</v>
+        <v>1.272356382215703</v>
       </c>
       <c r="C128">
-        <v>2.908320209083299</v>
+        <v>0.7997903075623535</v>
       </c>
       <c r="D128">
-        <v>5.459540681644571</v>
+        <v>1.684432552264151</v>
       </c>
       <c r="E128">
-        <v>0.665988883501642</v>
+        <v>1.606751423938378</v>
       </c>
       <c r="F128">
-        <v>16.57059613122546</v>
+        <v>3.513632016250634</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1.677298942234614</v>
+        <v>1.263468060078564</v>
       </c>
       <c r="C129">
-        <v>2.900201895778056</v>
+        <v>0.7922982902056227</v>
       </c>
       <c r="D129">
-        <v>5.45496951860173</v>
+        <v>1.674756422295207</v>
       </c>
       <c r="E129">
-        <v>0.6584775412502456</v>
+        <v>1.601022888268531</v>
       </c>
       <c r="F129">
-        <v>16.56370032679046</v>
+        <v>3.505811364881255</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.670422309700075</v>
+        <v>1.254630044888524</v>
       </c>
       <c r="C130">
-        <v>2.891973681981356</v>
+        <v>0.7848220101115171</v>
       </c>
       <c r="D130">
-        <v>5.450234532474139</v>
+        <v>1.66503282739287</v>
       </c>
       <c r="E130">
-        <v>0.6510037108141037</v>
+        <v>1.595309955030039</v>
       </c>
       <c r="F130">
-        <v>16.55680327913452</v>
+        <v>3.497874153356856</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.663479067703145</v>
+        <v>1.245842854912884</v>
       </c>
       <c r="C131">
-        <v>2.883638902370441</v>
+        <v>0.7773629559834758</v>
       </c>
       <c r="D131">
-        <v>5.44533910224947</v>
+        <v>1.655265106601928</v>
       </c>
       <c r="E131">
-        <v>0.6435686805582317</v>
+        <v>1.589612606880319</v>
       </c>
       <c r="F131">
-        <v>16.54990520627442</v>
+        <v>3.489823309350561</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1.656471505222433</v>
+        <v>1.237106977753348</v>
       </c>
       <c r="C132">
-        <v>2.875200826961291</v>
+        <v>0.7699225794755095</v>
       </c>
       <c r="D132">
-        <v>5.440286530048343</v>
+        <v>1.645456508445157</v>
       </c>
       <c r="E132">
-        <v>0.6361736946482304</v>
+        <v>1.583930826189377</v>
       </c>
       <c r="F132">
-        <v>16.54300630367573</v>
+        <v>3.481661701101154</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.649401882350845</v>
+        <v>1.228422874419377</v>
       </c>
       <c r="C133">
-        <v>2.866662662079195</v>
+        <v>0.7625022972662385</v>
       </c>
       <c r="D133">
-        <v>5.435080043267974</v>
+        <v>1.635610200063654</v>
       </c>
       <c r="E133">
-        <v>0.6288199534031462</v>
+        <v>1.578264595270924</v>
       </c>
       <c r="F133">
-        <v>16.536106746718</v>
+        <v>3.473392139791703</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.642272430156876</v>
+        <v>1.219790977056533</v>
       </c>
       <c r="C134">
-        <v>2.85802755132674</v>
+        <v>0.7551034931624678</v>
       </c>
       <c r="D134">
-        <v>5.429722796653655</v>
+        <v>1.625729261800831</v>
       </c>
       <c r="E134">
-        <v>0.6215086136677733</v>
+        <v>1.572613896341462</v>
       </c>
       <c r="F134">
-        <v>16.52920669287671</v>
+        <v>3.465017384363378</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.635085350561434</v>
+        <v>1.211211691465416</v>
       </c>
       <c r="C135">
-        <v>2.849298576548476</v>
+        <v>0.7477275135943037</v>
       </c>
       <c r="D135">
-        <v>5.424217874307238</v>
+        <v>1.615816690530822</v>
       </c>
       <c r="E135">
-        <v>0.6142407892023531</v>
+        <v>1.566978711513811</v>
       </c>
       <c r="F135">
-        <v>16.52230628365347</v>
+        <v>3.456540140131865</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.627842816229917</v>
+        <v>1.202685398488267</v>
       </c>
       <c r="C136">
-        <v>2.840478758791819</v>
+        <v>0.7403756700942182</v>
       </c>
       <c r="D136">
-        <v>5.418568291628629</v>
+        <v>1.605875402586882</v>
       </c>
       <c r="E136">
-        <v>0.6070175510917997</v>
+        <v>1.56135902301145</v>
       </c>
       <c r="F136">
-        <v>16.51540564629087</v>
+        <v>3.44796305669986</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.620546970479261</v>
+        <v>1.194212452516371</v>
       </c>
       <c r="C137">
-        <v>2.831571059263371</v>
+        <v>0.7330492396989444</v>
       </c>
       <c r="D137">
-        <v>5.412776997198572</v>
+        <v>1.595908229847888</v>
       </c>
       <c r="E137">
-        <v>0.5998399281717833</v>
+        <v>1.555754812732596</v>
       </c>
       <c r="F137">
-        <v>16.50850489530657</v>
+        <v>3.439288729430173</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.613199927199676</v>
+        <v>1.185793185369554</v>
       </c>
       <c r="C138">
-        <v>2.822578380280171</v>
+        <v>0.7257494669458321</v>
       </c>
       <c r="D138">
-        <v>5.406846874599211</v>
+        <v>1.585917927291004</v>
       </c>
       <c r="E138">
-        <v>0.5927089074718107</v>
+        <v>1.550166062548214</v>
       </c>
       <c r="F138">
-        <v>16.50160413383637</v>
+        <v>3.430519712291234</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.605803770790775</v>
+        <v>1.177427905011052</v>
       </c>
       <c r="C139">
-        <v>2.813503566215306</v>
+        <v>0.718477559027865</v>
       </c>
       <c r="D139">
-        <v>5.400780744179882</v>
+        <v>1.57590716811903</v>
       </c>
       <c r="E139">
-        <v>0.5856254346746352</v>
+        <v>1.544592754255892</v>
       </c>
       <c r="F139">
-        <v>16.49470345482277</v>
+        <v>3.421658508330029</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.598360556111783</v>
+        <v>1.169116896263694</v>
       </c>
       <c r="C140">
-        <v>2.80434940443754</v>
+        <v>0.7112346895927879</v>
       </c>
       <c r="D140">
-        <v>5.39458136476513</v>
+        <v>1.565878548983829</v>
       </c>
       <c r="E140">
-        <v>0.5785904145916352</v>
+        <v>1.539034869570377</v>
       </c>
       <c r="F140">
-        <v>16.48780294208257</v>
+        <v>3.412707568772856</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.590872308445547</v>
+        <v>1.160860423264616</v>
       </c>
       <c r="C141">
-        <v>2.795118626244383</v>
+        <v>0.7040219990729357</v>
       </c>
       <c r="D141">
-        <v>5.388251435311592</v>
+        <v>1.555834590812831</v>
       </c>
       <c r="E141">
-        <v>0.5716047116526406</v>
+        <v>1.533492390068379</v>
       </c>
       <c r="F141">
-        <v>16.48090267126753</v>
+        <v>3.40366929066354</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.583341023476013</v>
+        <v>1.152658728003593</v>
       </c>
       <c r="C142">
-        <v>2.785813907788024</v>
+        <v>0.6968405947163006</v>
       </c>
       <c r="D142">
-        <v>5.38179359651121</v>
+        <v>1.545777738097073</v>
       </c>
       <c r="E142">
-        <v>0.5646691504113297</v>
+        <v>1.527965297306895</v>
       </c>
       <c r="F142">
-        <v>16.47400271070737</v>
+        <v>3.394546039802351</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.575768667278872</v>
+        <v>1.144512032500256</v>
       </c>
       <c r="C143">
-        <v>2.7764378709939</v>
+        <v>0.6896915482653827</v>
       </c>
       <c r="D143">
-        <v>5.375210432346697</v>
+        <v>1.535710363655283</v>
       </c>
       <c r="E143">
-        <v>0.5577845160639218</v>
+        <v>1.522453572748076</v>
       </c>
       <c r="F143">
-        <v>16.46710312215837</v>
+        <v>3.385340132710086</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.568157176325062</v>
+        <v>1.136420539307639</v>
       </c>
       <c r="C144">
-        <v>2.76699308447153</v>
+        <v>0.6825758985476471</v>
       </c>
       <c r="D144">
-        <v>5.368504471597108</v>
+        <v>1.525634766694199</v>
       </c>
       <c r="E144">
-        <v>0.5509515549812977</v>
+        <v>1.516957197772036</v>
       </c>
       <c r="F144">
-        <v>16.46020396147851</v>
+        <v>3.376053839529577</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.560508457496797</v>
+        <v>1.128384430821789</v>
       </c>
       <c r="C145">
-        <v>2.757482064417334</v>
+        <v>0.6754946529975009</v>
       </c>
       <c r="D145">
-        <v>5.361678189298805</v>
+        <v>1.515553176732494</v>
       </c>
       <c r="E145">
-        <v>0.5441709752538132</v>
+        <v>1.511476153682285</v>
       </c>
       <c r="F145">
-        <v>16.45330527922609</v>
+        <v>3.366689378760942</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.552824388115813</v>
+        <v>1.120403871965383</v>
       </c>
       <c r="C146">
-        <v>2.747907275508719</v>
+        <v>0.668448784937797</v>
       </c>
       <c r="D146">
-        <v>5.354734008160057</v>
+        <v>1.505467754293724</v>
       </c>
       <c r="E146">
-        <v>0.5374434472482017</v>
+        <v>1.506010421534207</v>
       </c>
       <c r="F146">
-        <v>16.44640712119601</v>
+        <v>3.357248940801682</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.545106815983507</v>
+        <v>1.112479009228025</v>
       </c>
       <c r="C147">
-        <v>2.738271131789538</v>
+        <v>0.6614392346052096</v>
       </c>
       <c r="D147">
-        <v>5.347674299933895</v>
+        <v>1.495380591912348</v>
       </c>
       <c r="E147">
-        <v>0.5307696041753391</v>
+        <v>1.500559982484405</v>
       </c>
       <c r="F147">
-        <v>16.43950952889745</v>
+        <v>3.347734670358149</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.537357559432643</v>
+        <v>1.10460997143571</v>
       </c>
       <c r="C148">
-        <v>2.728575997546469</v>
+        <v>0.6544669101652361</v>
       </c>
       <c r="D148">
-        <v>5.340501386747895</v>
+        <v>1.4852937168994</v>
       </c>
       <c r="E148">
-        <v>0.5241500426694465</v>
+        <v>1.495124817566798</v>
       </c>
       <c r="F148">
-        <v>16.43261253998104</v>
+        <v>3.338148670889077</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.529578407390312</v>
+        <v>1.096796871304413</v>
       </c>
       <c r="C149">
-        <v>2.718824188176394</v>
+        <v>0.6475326899211368</v>
       </c>
       <c r="D149">
-        <v>5.333217542394863</v>
+        <v>1.475209091521453</v>
       </c>
       <c r="E149">
-        <v>0.5175853233769039</v>
+        <v>1.489704907720589</v>
       </c>
       <c r="F149">
-        <v>16.4257161886236</v>
+        <v>3.328492999828162</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.521771119451812</v>
+        <v>1.089039803750405</v>
       </c>
       <c r="C150">
-        <v>2.709017971043832</v>
+        <v>0.6406374178177565</v>
       </c>
       <c r="D150">
-        <v>5.325824993582397</v>
+        <v>1.46512861555746</v>
       </c>
       <c r="E150">
-        <v>0.5110759715545594</v>
+        <v>1.484300233803563</v>
       </c>
       <c r="F150">
-        <v>16.41882050587022</v>
+        <v>3.318769685400762</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.513937425965131</v>
+        <v>1.081338849161919</v>
       </c>
       <c r="C151">
-        <v>2.69915956632888</v>
+        <v>0.6337819070750532</v>
       </c>
       <c r="D151">
-        <v>5.318325921146556</v>
+        <v>1.455054127375565</v>
       </c>
       <c r="E151">
-        <v>0.5046224776768059</v>
+        <v>1.47891077651786</v>
       </c>
       <c r="F151">
-        <v>16.41192551994133</v>
+        <v>3.308980715074756</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1.506079028125714</v>
+        <v>1.073694072981709</v>
       </c>
       <c r="C152">
-        <v>2.689251147865099</v>
+        <v>0.62696694030509</v>
       </c>
       <c r="D152">
-        <v>5.310722461233623</v>
+        <v>1.444987405489303</v>
       </c>
       <c r="E152">
-        <v>0.4982252980507639</v>
+        <v>1.473536516559424</v>
       </c>
       <c r="F152">
-        <v>16.40503125650834</v>
+        <v>3.299128039103536</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1.498197598081189</v>
+        <v>1.066105526304812</v>
       </c>
       <c r="C153">
-        <v>2.679294843967775</v>
+        <v>0.6201932703578065</v>
       </c>
       <c r="D153">
-        <v>5.303016706441508</v>
+        <v>1.434930170207857</v>
       </c>
       <c r="E153">
-        <v>0.4918848554386085</v>
+        <v>1.468177434524607</v>
       </c>
       <c r="F153">
-        <v>16.3981377389406</v>
+        <v>3.289213566482296</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.490294779045727</v>
+        <v>1.058573241905997</v>
       </c>
       <c r="C154">
-        <v>2.669292738251376</v>
+        <v>0.6134616178564914</v>
       </c>
       <c r="D154">
-        <v>5.295210706923672</v>
+        <v>1.424884085093321</v>
       </c>
       <c r="E154">
-        <v>0.4856015396871277</v>
+        <v>1.462833510919526</v>
       </c>
       <c r="F154">
-        <v>16.39124498852768</v>
+        <v>3.279239177566813</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.482372185423737</v>
+        <v>1.051097243033288</v>
       </c>
       <c r="C155">
-        <v>2.659246870436978</v>
+        <v>0.6067726738344271</v>
       </c>
       <c r="D155">
-        <v>5.287306471463584</v>
+        <v>1.414850758261387</v>
       </c>
       <c r="E155">
-        <v>0.4793757083631198</v>
+        <v>1.457504726166469</v>
       </c>
       <c r="F155">
-        <v>16.38435302467891</v>
+        <v>3.269206716057199</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1.474431402942556</v>
+        <v>1.043677539592737</v>
       </c>
       <c r="C156">
-        <v>2.649159237148976</v>
+        <v>0.6001271007119653</v>
       </c>
       <c r="D156">
-        <v>5.279305968520728</v>
+        <v>1.404831744214598</v>
       </c>
       <c r="E156">
-        <v>0.4732076873943394</v>
+        <v>1.452191060635875</v>
       </c>
       <c r="F156">
-        <v>16.37746186510222</v>
+        <v>3.259117991843762</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1.466473988793845</v>
+        <v>1.036314128881008</v>
       </c>
       <c r="C157">
-        <v>2.639031792701834</v>
+        <v>0.5935255311593793</v>
       </c>
       <c r="D157">
-        <v>5.271211127245251</v>
+        <v>1.394828545010215</v>
       </c>
       <c r="E157">
-        <v>0.4670977717153002</v>
+        <v>1.446892494584349</v>
       </c>
       <c r="F157">
-        <v>16.37057152596332</v>
+        <v>3.248974775908695</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.45850147178336</v>
+        <v>1.029006989243703</v>
       </c>
       <c r="C158">
-        <v>2.628866449875487</v>
+        <v>0.5869685681232962</v>
       </c>
       <c r="D158">
-        <v>5.263023838460894</v>
+        <v>1.384842611614629</v>
       </c>
       <c r="E158">
-        <v>0.4610462259172836</v>
+        <v>1.441609008193244</v>
       </c>
       <c r="F158">
-        <v>16.36368202203365</v>
+        <v>3.238778813857568</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.450515352488807</v>
+        <v>1.021756093352598</v>
       </c>
       <c r="C159">
-        <v>2.618665080680413</v>
+        <v>0.5804567861573545</v>
       </c>
       <c r="D159">
-        <v>5.25474595561879</v>
+        <v>1.374875345827032</v>
       </c>
       <c r="E159">
-        <v>0.455053284901812</v>
+        <v>1.436340581566439</v>
       </c>
       <c r="F159">
-        <v>16.35679336682244</v>
+        <v>3.228531817375381</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.442517103425467</v>
+        <v>1.014561401776121</v>
       </c>
       <c r="C160">
-        <v>2.608429517111653</v>
+        <v>0.5739907333367169</v>
       </c>
       <c r="D160">
-        <v>5.246379295724376</v>
+        <v>1.364928100709512</v>
       </c>
       <c r="E160">
-        <v>0.4491191545373042</v>
+        <v>1.431087194727889</v>
       </c>
       <c r="F160">
-        <v>16.34990557269284</v>
+        <v>3.218235467391774</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1.434508169219295</v>
+        <v>1.007422863630774</v>
       </c>
       <c r="C161">
-        <v>2.598161551892675</v>
+        <v>0.5675709279923837</v>
       </c>
       <c r="D161">
-        <v>5.237925640238124</v>
+        <v>1.355002183103619</v>
       </c>
       <c r="E161">
-        <v>0.4432440123179412</v>
+        <v>1.425848827656468</v>
       </c>
       <c r="F161">
-        <v>16.34301865097214</v>
+        <v>3.207891407201538</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1.426489966787192</v>
+        <v>1.000340411600507</v>
       </c>
       <c r="C162">
-        <v>2.587862939207695</v>
+        <v>0.5611978615107359</v>
       </c>
       <c r="D162">
-        <v>5.229386735950184</v>
+        <v>1.345098854033409</v>
       </c>
       <c r="E162">
-        <v>0.4374280080245488</v>
+        <v>1.420625460219747</v>
       </c>
       <c r="F162">
-        <v>16.33613261203972</v>
+        <v>3.197501258413922</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1.418463885524166</v>
+        <v>0.9933139729368277</v>
       </c>
       <c r="C163">
-        <v>2.577535395423515</v>
+        <v>0.5548719984812315</v>
       </c>
       <c r="D163">
-        <v>5.220764295829608</v>
+        <v>1.33521933025499</v>
       </c>
       <c r="E163">
-        <v>0.4316712643860391</v>
+        <v>1.415417072214307</v>
       </c>
       <c r="F163">
-        <v>16.32924746541323</v>
+        <v>3.18706661082907</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1.410431287497085</v>
+        <v>0.9863434642138097</v>
       </c>
       <c r="C164">
-        <v>2.567180599800281</v>
+        <v>0.5485937778513132</v>
       </c>
       <c r="D164">
-        <v>5.212059999849236</v>
+        <v>1.325364786015747</v>
       </c>
       <c r="E164">
-        <v>0.4259738777417516</v>
+        <v>1.410223643364794</v>
       </c>
       <c r="F164">
-        <v>16.32236321983151</v>
+        <v>3.176589025800452</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1.402393507644735</v>
+        <v>0.9794287917752857</v>
       </c>
       <c r="C165">
-        <v>2.556800195191886</v>
+        <v>0.5423636109778958</v>
       </c>
       <c r="D165">
-        <v>5.203275495787286</v>
+        <v>1.315536353172135</v>
       </c>
       <c r="E165">
-        <v>0.4203359187040165</v>
+        <v>1.405045153321125</v>
       </c>
       <c r="F165">
-        <v>16.31547988332419</v>
+        <v>3.166070030880432</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1.394351853983922</v>
+        <v>0.9725698491692636</v>
       </c>
       <c r="C166">
-        <v>2.546395788735099</v>
+        <v>0.5361818838398315</v>
       </c>
       <c r="D166">
-        <v>5.194412400006324</v>
+        <v>1.305735123861736</v>
       </c>
       <c r="E166">
-        <v>0.4147574328196983</v>
+        <v>1.399881581647302</v>
       </c>
       <c r="F166">
-        <v>16.30859746327867</v>
+        <v>3.155511131697363</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1.386307607821313</v>
+        <v>0.9657665235734931</v>
       </c>
       <c r="C167">
-        <v>2.535968952528034</v>
+        <v>0.5300489576230085</v>
       </c>
       <c r="D167">
-        <v>5.185472298210212</v>
+        <v>1.29596214981222</v>
       </c>
       <c r="E167">
-        <v>0.4092384412322104</v>
+        <v>1.39473290784485</v>
       </c>
       <c r="F167">
-        <v>16.3017159664943</v>
+        <v>3.144913805724568</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1.378262023970775</v>
+        <v>0.9590186929770873</v>
       </c>
       <c r="C168">
-        <v>2.525521224297757</v>
+        <v>0.5239651686668274</v>
       </c>
       <c r="D168">
-        <v>5.176456746179714</v>
+        <v>1.28621844508351</v>
       </c>
       <c r="E168">
-        <v>0.4037789413399065</v>
+        <v>1.389599111340341</v>
       </c>
       <c r="F168">
-        <v>16.29483539923457</v>
+        <v>3.13427950376253</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1.370216330975929</v>
+        <v>0.9523262265062553</v>
       </c>
       <c r="C169">
-        <v>2.515054108057496</v>
+        <v>0.5179308281515809</v>
       </c>
       <c r="D169">
-        <v>5.16736727048756</v>
+        <v>1.276504987596425</v>
       </c>
       <c r="E169">
-        <v>0.3983789074530146</v>
+        <v>1.384480171486102</v>
       </c>
       <c r="F169">
-        <v>16.28795576727531</v>
+        <v>3.123609646707725</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1.362171731337659</v>
+        <v>0.9456889832700347</v>
       </c>
       <c r="C170">
-        <v>2.504569074752975</v>
+        <v>0.5119462234156402</v>
       </c>
       <c r="D170">
-        <v>5.158205369193503</v>
+        <v>1.266822719637153</v>
       </c>
       <c r="E170">
-        <v>0.3930382914485295</v>
+        <v>1.37937606756215</v>
       </c>
       <c r="F170">
-        <v>16.28107707594728</v>
+        <v>3.112905633202428</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1.354129401746332</v>
+        <v>0.9391068158510564</v>
       </c>
       <c r="C171">
-        <v>2.494067562898077</v>
+        <v>0.5060116190267787</v>
       </c>
       <c r="D171">
-        <v>5.148972512520127</v>
+        <v>1.257172543802618</v>
       </c>
       <c r="E171">
-        <v>0.3877570234213387</v>
+        <v>1.374286778747907</v>
       </c>
       <c r="F171">
-        <v>16.2741993301768</v>
+        <v>3.102168836871067</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1.346090493318467</v>
+        <v>0.9325795690185844</v>
       </c>
       <c r="C172">
-        <v>2.483550979199978</v>
+        <v>0.5001272556361691</v>
       </c>
       <c r="D172">
-        <v>5.139670143509955</v>
+        <v>1.247555335119885</v>
       </c>
       <c r="E172">
-        <v>0.3825350123315037</v>
+        <v>1.369212284177512</v>
       </c>
       <c r="F172">
-        <v>16.26732253451913</v>
+        <v>3.09140060646603</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1.338056131837607</v>
+        <v>0.9261070800156891</v>
       </c>
       <c r="C173">
-        <v>2.473020699173983</v>
+        <v>0.4942933512150593</v>
       </c>
       <c r="D173">
-        <v>5.13029967866444</v>
+        <v>1.237971934772207</v>
       </c>
       <c r="E173">
-        <v>0.3773721466482203</v>
+        <v>1.364152562909876</v>
       </c>
       <c r="F173">
-        <v>16.2604466931915</v>
+        <v>3.080602263874586</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1.330027417999164</v>
+        <v>0.9196891767232211</v>
       </c>
       <c r="C174">
-        <v>2.462478067747972</v>
+        <v>0.488510101576857</v>
       </c>
       <c r="D174">
-        <v>5.120862508565415</v>
+        <v>1.228423150670477</v>
       </c>
       <c r="E174">
-        <v>0.3722682949894735</v>
+        <v>1.359107593928201</v>
       </c>
       <c r="F174">
-        <v>16.25357181010204</v>
+        <v>3.069775109196526</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1.322005427659023</v>
+        <v>0.9133256819665369</v>
       </c>
       <c r="C175">
-        <v>2.451924399856296</v>
+        <v>0.4827776813014369</v>
       </c>
       <c r="D175">
-        <v>5.111359998479555</v>
+        <v>1.21890975550617</v>
       </c>
       <c r="E175">
-        <v>0.3672233067572139</v>
+        <v>1.35407735614392</v>
       </c>
       <c r="F175">
-        <v>16.24669788887668</v>
+        <v>3.058920420054357</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1.31399121208561</v>
+        <v>0.9070164117955706</v>
       </c>
       <c r="C176">
-        <v>2.441360981023571</v>
+        <v>0.477096242849414</v>
       </c>
       <c r="D176">
-        <v>5.101793488946362</v>
+        <v>1.209432499730483</v>
       </c>
       <c r="E176">
-        <v>0.3622370127643438</v>
+        <v>1.349061828386082</v>
       </c>
       <c r="F176">
-        <v>16.23982493288294</v>
+        <v>3.048039450928793</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1.305985798215253</v>
+        <v>0.900761175683861</v>
       </c>
       <c r="C177">
-        <v>2.430789067938378</v>
+        <v>0.4714659179793975</v>
       </c>
       <c r="D177">
-        <v>5.09216429635023</v>
+        <v>1.199992102872955</v>
       </c>
       <c r="E177">
-        <v>0.3573092258590393</v>
+        <v>1.344060989422381</v>
       </c>
       <c r="F177">
-        <v>16.23295294525156</v>
+        <v>3.037133431750179</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1.29799018891062</v>
+        <v>0.8945597746891887</v>
       </c>
       <c r="C178">
-        <v>2.420209889017113</v>
+        <v>0.4658868181399949</v>
       </c>
       <c r="D178">
-        <v>5.082473713477028</v>
+        <v>1.190589252055867</v>
       </c>
       <c r="E178">
-        <v>0.3524397415415708</v>
+        <v>1.339074817948485</v>
       </c>
       <c r="F178">
-        <v>16.22608192889691</v>
+        <v>3.026203571522285</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1.290005363221994</v>
+        <v>0.8884120057428225</v>
       </c>
       <c r="C179">
-        <v>2.409624644957522</v>
+        <v>0.460359034900464</v>
       </c>
       <c r="D179">
-        <v>5.072723010055709</v>
+        <v>1.181224608060225</v>
       </c>
       <c r="E179">
-        <v>0.3476283385779613</v>
+        <v>1.334103292587594</v>
       </c>
       <c r="F179">
-        <v>16.21921188653496</v>
+        <v>3.015251059012792</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1.282032276651206</v>
+        <v>0.8823176599265422</v>
       </c>
       <c r="C180">
-        <v>2.39903450928262</v>
+        <v>0.4548826399412426</v>
       </c>
       <c r="D180">
-        <v>5.062913433285408</v>
+        <v>1.171898808692138</v>
       </c>
       <c r="E180">
-        <v>0.3428747795999601</v>
+        <v>1.329146391892233</v>
       </c>
       <c r="F180">
-        <v>16.21234282070034</v>
+        <v>3.004277061379549</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1.274071861417999</v>
+        <v>0.8762765225949098</v>
       </c>
       <c r="C181">
-        <v>2.388440628874796</v>
+        <v>0.4494576859395502</v>
       </c>
       <c r="D181">
-        <v>5.053046208348449</v>
+        <v>1.162612464918487</v>
       </c>
       <c r="E181">
-        <v>0.3381788117039702</v>
+        <v>1.324204094350894</v>
       </c>
       <c r="F181">
-        <v>16.20547473376082</v>
+        <v>2.993282723274812</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1.266125026728632</v>
+        <v>0.8702883718945591</v>
       </c>
       <c r="C182">
-        <v>2.377844124500653</v>
+        <v>0.4440842070747908</v>
       </c>
       <c r="D182">
-        <v>5.043122538909722</v>
+        <v>1.153366157172767</v>
       </c>
       <c r="E182">
-        <v>0.333540167039631</v>
+        <v>1.319276378376753</v>
       </c>
       <c r="F182">
-        <v>16.19860762793118</v>
+        <v>2.98226916925986</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1.258192659046546</v>
+        <v>0.8643529823538949</v>
       </c>
       <c r="C183">
-        <v>2.367246091325852</v>
+        <v>0.4387622192173737</v>
       </c>
       <c r="D183">
-        <v>5.033143607602816</v>
+        <v>1.144160447495026</v>
       </c>
       <c r="E183">
-        <v>0.3289585633956827</v>
+        <v>1.314363222313997</v>
       </c>
       <c r="F183">
-        <v>16.19174150528601</v>
+        <v>2.971237505652092</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1.250275622364897</v>
+        <v>0.8584701234969745</v>
       </c>
       <c r="C184">
-        <v>2.356647599420845</v>
+        <v>0.4334917204458222</v>
       </c>
       <c r="D184">
-        <v>5.023110576503329</v>
+        <v>1.134995873234198</v>
       </c>
       <c r="E184">
-        <v>0.3244337047687775</v>
+        <v>1.309464604438917</v>
       </c>
       <c r="F184">
-        <v>16.18487636777099</v>
+        <v>2.960188818538469</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1.242374758480773</v>
+        <v>0.8526395599250693</v>
       </c>
       <c r="C185">
-        <v>2.346049694257166</v>
+        <v>0.4282726915555427</v>
       </c>
       <c r="D185">
-        <v>5.013024587589732</v>
+        <v>1.125872948283884</v>
       </c>
       <c r="E185">
-        <v>0.31996528193128</v>
+        <v>1.304580502959387</v>
       </c>
       <c r="F185">
-        <v>16.17801221721381</v>
+        <v>2.949124173437244</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1.234490887270922</v>
+        <v>0.8468610502620798</v>
       </c>
       <c r="C186">
-        <v>2.335453397195036</v>
+        <v>0.4231050964122399</v>
       </c>
       <c r="D186">
-        <v>5.002886763192165</v>
+        <v>1.116792161389968</v>
       </c>
       <c r="E186">
-        <v>0.3155529729877458</v>
+        <v>1.299710896021179</v>
       </c>
       <c r="F186">
-        <v>16.17114905533318</v>
+        <v>2.938044616600633</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1.226624806968826</v>
+        <v>0.841134349884379</v>
       </c>
       <c r="C187">
-        <v>2.324859705961356</v>
+        <v>0.417988882552901</v>
       </c>
       <c r="D187">
-        <v>4.992698206429522</v>
+        <v>1.107753984107584</v>
       </c>
       <c r="E187">
-        <v>0.3111964439273157</v>
+        <v>1.294855761697548</v>
       </c>
       <c r="F187">
-        <v>16.16428688374785</v>
+        <v>2.926951177681314</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1.218777294442943</v>
+        <v>0.8354592099445226</v>
       </c>
       <c r="C188">
-        <v>2.314269595119116</v>
+        <v>0.4129239815224525</v>
       </c>
       <c r="D188">
-        <v>4.982460001635188</v>
+        <v>1.09875886604215</v>
       </c>
       <c r="E188">
-        <v>0.3068953491589932</v>
+        <v>1.290015077994928</v>
       </c>
       <c r="F188">
-        <v>16.15742570398459</v>
+        <v>2.91584486742484</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1.210949105475973</v>
+        <v>0.8298353774420251</v>
       </c>
       <c r="C189">
-        <v>2.303684016527797</v>
+        <v>0.4079103093517719</v>
       </c>
       <c r="D189">
-        <v>4.972173214771741</v>
+        <v>1.089807234834866</v>
       </c>
       <c r="E189">
-        <v>0.3026493320434239</v>
+        <v>1.285188822854278</v>
       </c>
       <c r="F189">
-        <v>16.15056551748563</v>
+        <v>2.904726677769306</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1.20314097504498</v>
+        <v>0.8242625943536882</v>
       </c>
       <c r="C190">
-        <v>2.293103899795629</v>
+        <v>0.4029477670071996</v>
       </c>
       <c r="D190">
-        <v>4.961838893834973</v>
+        <v>1.080899498015886</v>
       </c>
       <c r="E190">
-        <v>0.2984580254140797</v>
+        <v>1.280376974150591</v>
       </c>
       <c r="F190">
-        <v>16.14370632561535</v>
+        <v>2.893597582290296</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1.195353617602229</v>
+        <v>0.8187405999057413</v>
       </c>
       <c r="C191">
-        <v>2.282530152722701</v>
+        <v>0.398036240837318</v>
       </c>
       <c r="D191">
-        <v>4.951458069247533</v>
+        <v>1.072036046698289</v>
       </c>
       <c r="E191">
-        <v>0.2943210520924148</v>
+        <v>1.275579509691533</v>
       </c>
       <c r="F191">
-        <v>16.13684812966627</v>
+        <v>2.882458539308785</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1.187587727356582</v>
+        <v>0.8132691298091291</v>
       </c>
       <c r="C192">
-        <v>2.271963661736004</v>
+        <v>0.3931756014593137</v>
       </c>
       <c r="D192">
-        <v>4.941031754242491</v>
+        <v>1.063217252837179</v>
       </c>
       <c r="E192">
-        <v>0.2902380253873713</v>
+        <v>1.27079640722106</v>
       </c>
       <c r="F192">
-        <v>16.12999093086483</v>
+        <v>2.871310489514259</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1.179843978555324</v>
+        <v>0.8078479163134277</v>
       </c>
       <c r="C193">
-        <v>2.261405292315953</v>
+        <v>0.3883657077992665</v>
       </c>
       <c r="D193">
-        <v>4.930560945237131</v>
+        <v>1.054443466836213</v>
       </c>
       <c r="E193">
-        <v>0.2862085495877839</v>
+        <v>1.266027644418355</v>
       </c>
       <c r="F193">
-        <v>16.1231347303765</v>
+        <v>2.860154356326771</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1.172123025766275</v>
+        <v>0.8024766873613045</v>
       </c>
       <c r="C194">
-        <v>2.250855889415224</v>
+        <v>0.3836064046992353</v>
       </c>
       <c r="D194">
-        <v>4.920046622197254</v>
+        <v>1.04571502472165</v>
       </c>
       <c r="E194">
-        <v>0.2822322204460156</v>
+        <v>1.261273198897876</v>
       </c>
       <c r="F194">
-        <v>16.11627952931064</v>
+        <v>2.848991045735139</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1.164425504160057</v>
+        <v>0.7971551687182278</v>
       </c>
       <c r="C195">
-        <v>2.240316277869062</v>
+        <v>0.3788975241293742</v>
       </c>
       <c r="D195">
-        <v>4.909489748992261</v>
+        <v>1.03703224573561</v>
       </c>
       <c r="E195">
-        <v>0.2783086256531303</v>
+        <v>1.256533048210072</v>
       </c>
       <c r="F195">
-        <v>16.10942532872475</v>
+        <v>2.837821449673277</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1.156752029792394</v>
+        <v>0.791883083269139</v>
       </c>
       <c r="C196">
-        <v>2.22978726279791</v>
+        <v>0.3742388856347351</v>
       </c>
       <c r="D196">
-        <v>4.898891273741299</v>
+        <v>1.028395432119684</v>
       </c>
       <c r="E196">
-        <v>0.2744373453013716</v>
+        <v>1.251807169837635</v>
       </c>
       <c r="F196">
-        <v>16.10257212962833</v>
+        <v>2.826646443622833</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.149103199886317</v>
+        <v>0.7866601510405404</v>
       </c>
       <c r="C197">
-        <v>2.219269630002124</v>
+        <v>0.3696302967820709</v>
       </c>
       <c r="D197">
-        <v>4.888252129150709</v>
+        <v>1.019804866687553</v>
       </c>
       <c r="E197">
-        <v>0.2706179523348335</v>
+        <v>1.247095541203251</v>
       </c>
       <c r="F197">
-        <v>16.09571993298639</v>
+        <v>2.815466887145242</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1.141479593114158</v>
+        <v>0.7814860883904434</v>
       </c>
       <c r="C198">
-        <v>2.208764146349341</v>
+        <v>0.3650715493871871</v>
       </c>
       <c r="D198">
-        <v>4.877573232843042</v>
+        <v>1.011260820985602</v>
       </c>
       <c r="E198">
-        <v>0.2668500129942361</v>
+        <v>1.242398139666768</v>
       </c>
       <c r="F198">
-        <v>16.08886873972395</v>
+        <v>2.804283623258252</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.133881769879215</v>
+        <v>0.7763606100139687</v>
       </c>
       <c r="C199">
-        <v>2.198271560154047</v>
+        <v>0.3605624292283062</v>
       </c>
       <c r="D199">
-        <v>4.866855487677877</v>
+        <v>1.002763550245789</v>
       </c>
       <c r="E199">
-        <v>0.2631330872503405</v>
+        <v>1.237714942524569</v>
       </c>
       <c r="F199">
-        <v>16.08201855072716</v>
+        <v>2.793097482047102</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.126310272596985</v>
+        <v>0.7712834282921166</v>
       </c>
       <c r="C200">
-        <v>2.187792601549802</v>
+        <v>0.3561027098345345</v>
       </c>
       <c r="D200">
-        <v>4.856099782064683</v>
+        <v>0.9943132939850157</v>
       </c>
       <c r="E200">
-        <v>0.2594667292290013</v>
+        <v>1.233045927010686</v>
       </c>
       <c r="F200">
-        <v>16.07516936684938</v>
+        <v>2.781909278210387</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.118765625975847</v>
+        <v>0.7662542532833816</v>
       </c>
       <c r="C201">
-        <v>2.177327982854141</v>
+        <v>0.3516921541230442</v>
       </c>
       <c r="D201">
-        <v>4.845306990267937</v>
+        <v>0.9859102763062152</v>
       </c>
       <c r="E201">
-        <v>0.2558504876187109</v>
+        <v>1.228391070296258</v>
       </c>
       <c r="F201">
-        <v>16.0683211889096</v>
+        <v>2.770719811735291</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.111248337297109</v>
+        <v>0.7612727920165573</v>
       </c>
       <c r="C202">
-        <v>2.166878398926506</v>
+        <v>0.3473305150819347</v>
       </c>
       <c r="D202">
-        <v>4.834477972704739</v>
+        <v>0.9775547098949859</v>
       </c>
       <c r="E202">
-        <v>0.2522839060760385</v>
+        <v>1.223750349491522</v>
       </c>
       <c r="F202">
-        <v>16.06147401769915</v>
+        <v>2.759529866918626</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1.103758896694299</v>
+        <v>0.7563387502682766</v>
       </c>
       <c r="C203">
-        <v>2.156444527519049</v>
+        <v>0.3430175362051582</v>
       </c>
       <c r="D203">
-        <v>4.823613576235117</v>
+        <v>0.9692467932270146</v>
       </c>
       <c r="E203">
-        <v>0.2487665236164342</v>
+        <v>1.219123741645525</v>
       </c>
       <c r="F203">
-        <v>16.05462785397977</v>
+        <v>2.748340216129453</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1.096297777431626</v>
+        <v>0.7514518320088378</v>
       </c>
       <c r="C204">
-        <v>2.146027029620448</v>
+        <v>0.3387529450545915</v>
       </c>
       <c r="D204">
-        <v>4.812714634445245</v>
+        <v>0.960986709888966</v>
       </c>
       <c r="E204">
-        <v>0.245297875002142</v>
+        <v>1.214511223746231</v>
       </c>
       <c r="F204">
-        <v>16.04778269848896</v>
+        <v>2.737151617329904</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.0888654361815</v>
+        <v>0.7466117393778848</v>
       </c>
       <c r="C205">
-        <v>2.135626549792971</v>
+        <v>0.3345364678425961</v>
       </c>
       <c r="D205">
-        <v>4.801781967923753</v>
+        <v>0.9527746317661933</v>
       </c>
       <c r="E205">
-        <v>0.2418774911061479</v>
+        <v>1.209912772721073</v>
       </c>
       <c r="F205">
-        <v>16.04093855193954</v>
+        <v>2.725964814861522</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1.08146231330104</v>
+        <v>0.741818172091644</v>
       </c>
       <c r="C206">
-        <v>2.125243716502949</v>
+        <v>0.3303678212358357</v>
       </c>
       <c r="D206">
-        <v>4.790816384531344</v>
+        <v>0.9446107190070558</v>
       </c>
       <c r="E206">
-        <v>0.2385048992780437</v>
+        <v>1.205328365439187</v>
       </c>
       <c r="F206">
-        <v>16.03409541502288</v>
+        <v>2.714780538229947</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1.074088833107465</v>
+        <v>0.7370708289671707</v>
       </c>
       <c r="C207">
-        <v>2.114879142444752</v>
+        <v>0.3262467129359154</v>
       </c>
       <c r="D207">
-        <v>4.779818679663891</v>
+        <v>0.9364951194260711</v>
       </c>
       <c r="E207">
-        <v>0.2351796236945642</v>
+        <v>1.2007579787086</v>
       </c>
       <c r="F207">
-        <v>16.02725328840995</v>
+        <v>2.703599505866924</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>1.066745404152314</v>
+        <v>0.7323694074740066</v>
       </c>
       <c r="C208">
-        <v>2.104533424858139</v>
+        <v>0.3221728429867565</v>
       </c>
       <c r="D208">
-        <v>4.7687896365092</v>
+        <v>0.9284279665833797</v>
       </c>
       <c r="E208">
-        <v>0.2319011857064901</v>
+        <v>1.196201589277822</v>
       </c>
       <c r="F208">
-        <v>16.02041217275281</v>
+        <v>2.692422422718733</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1.059432419494378</v>
+        <v>0.7277136037037236</v>
       </c>
       <c r="C209">
-        <v>2.094207145839399</v>
+        <v>0.3181459041869818</v>
       </c>
       <c r="D209">
-        <v>4.757730026297617</v>
+        <v>0.9204093855861505</v>
       </c>
       <c r="E209">
-        <v>0.2286691041640775</v>
+        <v>1.191659173836876</v>
       </c>
       <c r="F209">
-        <v>16.01357206868646</v>
+        <v>2.681249981093469</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1.052150256971309</v>
+        <v>0.7231031118524723</v>
       </c>
       <c r="C210">
-        <v>2.083900872646296</v>
+        <v>0.3141655744319921</v>
       </c>
       <c r="D210">
-        <v>4.746640608546638</v>
+        <v>0.9124394896425465</v>
       </c>
       <c r="E210">
-        <v>0.2254828957417678</v>
+        <v>1.1871307090173</v>
       </c>
       <c r="F210">
-        <v>16.0067329768292</v>
+        <v>2.67008285931196</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1.0448992794698</v>
+        <v>0.7185376255570013</v>
       </c>
       <c r="C211">
-        <v>2.073615157996717</v>
+        <v>0.310231532380895</v>
       </c>
       <c r="D211">
-        <v>4.735522131299703</v>
+        <v>0.9045183806844372</v>
       </c>
       <c r="E211">
-        <v>0.2223420752498987</v>
+        <v>1.182616171394204</v>
       </c>
       <c r="F211">
-        <v>15.99989489778502</v>
+        <v>2.65892172535559</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1.037679835194281</v>
+        <v>0.7140168375226078</v>
       </c>
       <c r="C212">
-        <v>2.063350540361464</v>
+        <v>0.3063434508914736</v>
       </c>
       <c r="D212">
-        <v>4.72437533135932</v>
+        <v>0.8966461489047165</v>
       </c>
       <c r="E212">
-        <v>0.2192461559413865</v>
+        <v>1.178115537483859</v>
       </c>
       <c r="F212">
-        <v>15.99305783214314</v>
+        <v>2.647767234585947</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1.030492257934067</v>
+        <v>0.7095404394854256</v>
       </c>
       <c r="C213">
-        <v>2.053107544252123</v>
+        <v>0.3025009950692432</v>
       </c>
       <c r="D213">
-        <v>4.713200934514684</v>
+        <v>0.88882287629907</v>
       </c>
       <c r="E213">
-        <v>0.2161946498002177</v>
+        <v>1.173628783745065</v>
       </c>
       <c r="F213">
-        <v>15.98622178048063</v>
+        <v>2.636620030610752</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1.023336867328878</v>
+        <v>0.7051081217355654</v>
       </c>
       <c r="C214">
-        <v>2.042886680502207</v>
+        <v>0.2987038243904844</v>
       </c>
       <c r="D214">
-        <v>4.701999655763934</v>
+        <v>0.8810486343450985</v>
       </c>
       <c r="E214">
-        <v>0.2131870678260431</v>
+        <v>1.169155886580207</v>
       </c>
       <c r="F214">
-        <v>15.97938674336178</v>
+        <v>2.625480743868951</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1.01621396913268</v>
+        <v>0.70071957433204</v>
       </c>
       <c r="C215">
-        <v>2.032688446544355</v>
+        <v>0.2949515930847533</v>
       </c>
       <c r="D215">
-        <v>4.690772199531192</v>
+        <v>0.8733234837633942</v>
       </c>
       <c r="E215">
-        <v>0.2102229203086032</v>
+        <v>1.164696822335292</v>
       </c>
       <c r="F215">
-        <v>15.97255272134031</v>
+        <v>2.614349995113231</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>1.009123855475787</v>
+        <v>0.6963744867780721</v>
       </c>
       <c r="C216">
-        <v>2.022513326676907</v>
+        <v>0.2912439425153721</v>
       </c>
       <c r="D216">
-        <v>4.679519259878541</v>
+        <v>0.8656474761010374</v>
       </c>
       <c r="E216">
-        <v>0.2073017170955202</v>
+        <v>1.160251567300707</v>
       </c>
       <c r="F216">
-        <v>15.96571971495901</v>
+        <v>2.603228393286902</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1.002066805125156</v>
+        <v>0.6920725479717873</v>
       </c>
       <c r="C217">
-        <v>2.012361792329571</v>
+        <v>0.2875805150412659</v>
       </c>
       <c r="D217">
-        <v>4.668241520713047</v>
+        <v>0.8580206545872029</v>
       </c>
       <c r="E217">
-        <v>0.204422967845826</v>
+        <v>1.155820097711034</v>
       </c>
       <c r="F217">
-        <v>15.95888772475154</v>
+        <v>2.59211653631296</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.9950430837428272</v>
+        <v>0.6878134457640753</v>
       </c>
       <c r="C218">
-        <v>2.002234302323689</v>
+        <v>0.2839609513054531</v>
       </c>
       <c r="D218">
-        <v>4.656939655988995</v>
+        <v>0.850443053269719</v>
       </c>
       <c r="E218">
-        <v>0.2015861822759897</v>
+        <v>1.151402389745632</v>
       </c>
       <c r="F218">
-        <v>15.95205675124209</v>
+        <v>2.58101500997636</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.988052944142458</v>
+        <v>0.6835968680729418</v>
       </c>
       <c r="C219">
-        <v>1.99213130312651</v>
+        <v>0.2803848852063326</v>
       </c>
       <c r="D219">
-        <v>4.645614329905444</v>
+        <v>0.8429146958699627</v>
       </c>
       <c r="E219">
-        <v>0.1987908703989843</v>
+        <v>1.146998419529205</v>
       </c>
       <c r="F219">
-        <v>15.94522679494698</v>
+        <v>2.569924390583586</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.9810966265438876</v>
+        <v>0.6794225025969893</v>
       </c>
       <c r="C220">
-        <v>1.98205322909992</v>
+        <v>0.2768519468064978</v>
       </c>
       <c r="D220">
-        <v>4.634266197099225</v>
+        <v>0.8354355993780227</v>
       </c>
       <c r="E220">
-        <v>0.1960365427549629</v>
+        <v>1.14260816313212</v>
       </c>
       <c r="F220">
-        <v>15.93839785637435</v>
+        <v>2.558845243643302</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.9741743588256933</v>
+        <v>0.6752900367546726</v>
       </c>
       <c r="C221">
-        <v>1.972000502745781</v>
+        <v>0.2733617626814587</v>
       </c>
       <c r="D221">
-        <v>4.622895902833517</v>
+        <v>0.8280057721967239</v>
       </c>
       <c r="E221">
-        <v>0.1933227106320733</v>
+        <v>1.138231596570923</v>
       </c>
       <c r="F221">
-        <v>15.93156993602547</v>
+        <v>2.547778124255496</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.9672863567756862</v>
+        <v>0.6711991572843325</v>
       </c>
       <c r="C222">
-        <v>1.961973534942977</v>
+        <v>0.2699139488543185</v>
       </c>
       <c r="D222">
-        <v>4.611504083182109</v>
+        <v>0.8206252144972128</v>
       </c>
       <c r="E222">
-        <v>0.1906488862758803</v>
+        <v>1.133868695808564</v>
       </c>
       <c r="F222">
-        <v>15.92474303439457</v>
+        <v>2.536723576302976</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.9604328243392996</v>
+        <v>0.6671495512514216</v>
       </c>
       <c r="C223">
-        <v>1.951972725182543</v>
+        <v>0.2665081217248617</v>
       </c>
       <c r="D223">
-        <v>4.600091365209462</v>
+        <v>0.8132939176247569</v>
       </c>
       <c r="E223">
-        <v>0.1880145830952835</v>
+        <v>1.129519436754845</v>
       </c>
       <c r="F223">
-        <v>15.91791715196986</v>
+        <v>2.525682134445425</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.9536139538658266</v>
+        <v>0.6631409058016076</v>
       </c>
       <c r="C224">
-        <v>1.941998461797387</v>
+        <v>0.2631438999823114</v>
       </c>
       <c r="D224">
-        <v>4.588658367146678</v>
+        <v>0.8060118667677008</v>
       </c>
       <c r="E224">
-        <v>0.1854193158582</v>
+        <v>1.125183795266891</v>
       </c>
       <c r="F224">
-        <v>15.91109228923352</v>
+        <v>2.514654323433203</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.9468299263524638</v>
+        <v>0.6591729080926938</v>
       </c>
       <c r="C225">
-        <v>1.932051122187198</v>
+        <v>0.259820896388067</v>
       </c>
       <c r="D225">
-        <v>4.577205698563499</v>
+        <v>0.7987790393268414</v>
       </c>
       <c r="E225">
-        <v>0.1828626008820871</v>
+        <v>1.120861747149517</v>
       </c>
       <c r="F225">
-        <v>15.90426844666246</v>
+        <v>2.503640658185599</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.940080911686121</v>
+        <v>0.6552452449378835</v>
       </c>
       <c r="C226">
-        <v>1.92213107303889</v>
+        <v>0.2565387214257947</v>
       </c>
       <c r="D226">
-        <v>4.565733960536417</v>
+        <v>0.7915954049574215</v>
       </c>
       <c r="E226">
-        <v>0.1803439562090383</v>
+        <v>1.116553268156141</v>
       </c>
       <c r="F226">
-        <v>15.89744562472841</v>
+        <v>2.492641643237254</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.9333670688829547</v>
+        <v>0.6513576037058358</v>
       </c>
       <c r="C227">
-        <v>1.912238670543216</v>
+        <v>0.2532969836139736</v>
       </c>
       <c r="D227">
-        <v>4.55424374581302</v>
+        <v>0.7844609261605524</v>
       </c>
       <c r="E227">
-        <v>0.177862901780827</v>
+        <v>1.11225833398839</v>
       </c>
       <c r="F227">
-        <v>15.89062382389846</v>
+        <v>2.481657774183474</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.9266885463255878</v>
+        <v>0.6475096721122301</v>
       </c>
       <c r="C228">
-        <v>1.902374260605208</v>
+        <v>0.250095283181372</v>
       </c>
       <c r="D228">
-        <v>4.542735638972642</v>
+        <v>0.7773755593987745</v>
       </c>
       <c r="E228">
-        <v>0.175418959602601</v>
+        <v>1.107976920296697</v>
       </c>
       <c r="F228">
-        <v>15.88380304463526</v>
+        <v>2.470689537494079</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.9200454819979892</v>
+        <v>0.6437011381477232</v>
       </c>
       <c r="C229">
-        <v>1.892538179052131</v>
+        <v>0.2469332196496471</v>
       </c>
       <c r="D229">
-        <v>4.531210216583453</v>
+        <v>0.7703392542739296</v>
       </c>
       <c r="E229">
-        <v>0.1730116539043603</v>
+        <v>1.103709002680989</v>
       </c>
       <c r="F229">
-        <v>15.87698328739739</v>
+        <v>2.459737410353996</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.91343800371796</v>
+        <v>0.6399316897567799</v>
       </c>
       <c r="C230">
-        <v>1.882730751836675</v>
+        <v>0.2438103986535118</v>
       </c>
       <c r="D230">
-        <v>4.519668047356036</v>
+        <v>0.7633519529782187</v>
       </c>
       <c r="E230">
-        <v>0.170640511285495</v>
+        <v>1.09945455669096</v>
       </c>
       <c r="F230">
-        <v>15.87016455263962</v>
+        <v>2.448801860316044</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.9068662293671977</v>
+        <v>0.6362010156447426</v>
       </c>
       <c r="C231">
-        <v>1.872952295235916</v>
+        <v>0.2407264204920533</v>
       </c>
       <c r="D231">
-        <v>4.508109692293574</v>
+        <v>0.7564135922222728</v>
       </c>
       <c r="E231">
-        <v>0.1683050608606085</v>
+        <v>1.095213557827494</v>
       </c>
       <c r="F231">
-        <v>15.86334684081312</v>
+        <v>2.437883346301184</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.9003302671189158</v>
+        <v>0.6325088051016686</v>
       </c>
       <c r="C232">
-        <v>1.863203116046733</v>
+        <v>0.2376808845029961</v>
       </c>
       <c r="D232">
-        <v>4.496535704838724</v>
+        <v>0.7495241026204248</v>
       </c>
       <c r="E232">
-        <v>0.1660048343950033</v>
+        <v>1.090985981541501</v>
       </c>
       <c r="F232">
-        <v>15.85653015236583</v>
+        <v>2.426982318797238</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.8938302156629846</v>
+        <v>0.6288547479269254</v>
       </c>
       <c r="C233">
-        <v>1.853483511776923</v>
+        <v>0.2346733893372034</v>
       </c>
       <c r="D233">
-        <v>4.484946631017252</v>
+        <v>0.74268340868703</v>
       </c>
       <c r="E233">
-        <v>0.1637393664374243</v>
+        <v>1.086771803234652</v>
       </c>
       <c r="F233">
-        <v>15.84971448774245</v>
+        <v>2.416099219524027</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.8873661644285572</v>
+        <v>0.625238534135513</v>
       </c>
       <c r="C234">
-        <v>1.843793770831983</v>
+        <v>0.2317035297844492</v>
       </c>
       <c r="D234">
-        <v>4.47334300957853</v>
+        <v>0.7358914282844607</v>
       </c>
       <c r="E234">
-        <v>0.1615081944388978</v>
+        <v>1.082570998260394</v>
       </c>
       <c r="F234">
-        <v>15.84289984738495</v>
+        <v>2.405234481247832</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.8809381938041545</v>
+        <v>0.6216598546885885</v>
       </c>
       <c r="C235">
-        <v>1.834134172699003</v>
+        <v>0.2287708979143776</v>
       </c>
       <c r="D235">
-        <v>4.461725372132957</v>
+        <v>0.7291480746973481</v>
       </c>
       <c r="E235">
-        <v>0.1593108588707817</v>
+        <v>1.078383541924097</v>
       </c>
       <c r="F235">
-        <v>15.83608623173249</v>
+        <v>2.394388528428668</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.8745463753551812</v>
+        <v>0.6181184013429776</v>
       </c>
       <c r="C236">
-        <v>1.824504988126506</v>
+        <v>0.2258750912357605</v>
       </c>
       <c r="D236">
-        <v>4.450094243286393</v>
+        <v>0.7224532554196147</v>
       </c>
       <c r="E236">
-        <v>0.1571469033348707</v>
+        <v>1.074209409484334</v>
       </c>
       <c r="F236">
-        <v>15.82927364122182</v>
+        <v>2.383561777708198</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.8681907720388502</v>
+        <v>0.6146138665718673</v>
       </c>
       <c r="C237">
-        <v>1.814906479300495</v>
+        <v>0.2230157042451842</v>
       </c>
       <c r="D237">
-        <v>4.438450140770283</v>
+        <v>0.7158068723277794</v>
       </c>
       <c r="E237">
-        <v>0.1550158746699532</v>
+        <v>1.070048576151986</v>
       </c>
       <c r="F237">
-        <v>15.82246207628723</v>
+        <v>2.372754637448089</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.8618714384164877</v>
+        <v>0.6111459432951896</v>
       </c>
       <c r="C238">
-        <v>1.805338900017706</v>
+        <v>0.2201923312344697</v>
       </c>
       <c r="D238">
-        <v>4.4267935755734</v>
+        <v>0.709208821808462</v>
       </c>
       <c r="E238">
-        <v>0.1529173230475962</v>
+        <v>1.065901017090866</v>
       </c>
       <c r="F238">
-        <v>15.81565153736096</v>
+        <v>2.361967507669772</v>
       </c>
     </row>
   </sheetData>

--- a/sriramModel-nelson-atypical-patientID_1-sims-crh-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-atypical-patientID_1-sims-crh-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.054827445451819</v>
+        <v>1.106761687532321</v>
       </c>
       <c r="C2">
-        <v>1.013235045809032</v>
+        <v>1.159104360264563</v>
       </c>
       <c r="D2">
-        <v>1.029827400878343</v>
+        <v>1.016638564946273</v>
       </c>
       <c r="E2">
-        <v>1.196663446710877</v>
+        <v>1.029030705099595</v>
       </c>
       <c r="F2">
-        <v>1.091608307160621</v>
+        <v>1.106671396408924</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.108155752156269</v>
+        <v>1.210148144926581</v>
       </c>
       <c r="C3">
-        <v>1.026053245155172</v>
+        <v>1.305047644088978</v>
       </c>
       <c r="D3">
-        <v>1.059147768524634</v>
+        <v>1.032068091241105</v>
       </c>
       <c r="E3">
-        <v>1.390242528800567</v>
+        <v>1.055215915904028</v>
       </c>
       <c r="F3">
-        <v>1.180595097694537</v>
+        <v>1.195179202253256</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.159946461814562</v>
+        <v>1.310010204292265</v>
       </c>
       <c r="C4">
-        <v>1.038460905935481</v>
+        <v>1.437775272697693</v>
       </c>
       <c r="D4">
-        <v>1.087965265315489</v>
+        <v>1.046273635628777</v>
       </c>
       <c r="E4">
-        <v>1.577565100123091</v>
+        <v>1.078694427675481</v>
       </c>
       <c r="F4">
-        <v>1.26703175690624</v>
+        <v>1.26324088700641</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.210165509876065</v>
+        <v>1.406174222895223</v>
       </c>
       <c r="C5">
-        <v>1.050464356470327</v>
+        <v>1.55740562456464</v>
       </c>
       <c r="D5">
-        <v>1.116284104738665</v>
+        <v>1.059254942032059</v>
       </c>
       <c r="E5">
-        <v>1.753218174994268</v>
+        <v>1.099641626611559</v>
       </c>
       <c r="F5">
-        <v>1.350987382546377</v>
+        <v>1.311532847351762</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.258783412733577</v>
+        <v>1.498448312544764</v>
       </c>
       <c r="C6">
-        <v>1.062069681108129</v>
+        <v>1.66422952385311</v>
       </c>
       <c r="D6">
-        <v>1.144108260438889</v>
+        <v>1.071025089050231</v>
       </c>
       <c r="E6">
-        <v>1.909917857128431</v>
+        <v>1.118251010861858</v>
       </c>
       <c r="F6">
-        <v>1.432528946369695</v>
+        <v>1.343030584015226</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.305775428531804</v>
+        <v>1.586629275509011</v>
       </c>
       <c r="C7">
-        <v>1.073282811906752</v>
+        <v>1.75869786111551</v>
       </c>
       <c r="D7">
-        <v>1.171441525742603</v>
+        <v>1.0816090055131</v>
       </c>
       <c r="E7">
-        <v>2.040652032499666</v>
+        <v>1.134721178192299</v>
       </c>
       <c r="F7">
-        <v>1.511721425093157</v>
+        <v>1.361569589457011</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.351121565099876</v>
+        <v>1.670510033481733</v>
       </c>
       <c r="C8">
-        <v>1.084109551404196</v>
+        <v>1.841398778684604</v>
       </c>
       <c r="D8">
-        <v>1.198287526830709</v>
+        <v>1.09104162805466</v>
       </c>
       <c r="E8">
-        <v>2.141789778076257</v>
+        <v>1.149246183050187</v>
       </c>
       <c r="F8">
-        <v>1.588627869975091</v>
+        <v>1.370717147644812</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.394806387637311</v>
+        <v>1.74988789004263</v>
       </c>
       <c r="C9">
-        <v>1.094555564369126</v>
+        <v>1.913028502419269</v>
       </c>
       <c r="D9">
-        <v>1.224649724401738</v>
+        <v>1.099365950304985</v>
       </c>
       <c r="E9">
-        <v>2.214589231063334</v>
+        <v>1.162010408538797</v>
       </c>
       <c r="F9">
-        <v>1.663309463362738</v>
+        <v>1.373297536134909</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.436818670966668</v>
+        <v>1.824572959374457</v>
       </c>
       <c r="C10">
-        <v>1.104626392633273</v>
+        <v>1.974359090221432</v>
       </c>
       <c r="D10">
-        <v>1.250531440018373</v>
+        <v>1.106631082777833</v>
       </c>
       <c r="E10">
-        <v>2.263876486800229</v>
+        <v>1.173185341113512</v>
       </c>
       <c r="F10">
-        <v>1.735825578757753</v>
+        <v>1.371363146489272</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.477150944559769</v>
+        <v>1.894396491120882</v>
       </c>
       <c r="C11">
-        <v>1.114327456339019</v>
+        <v>2.026206775905912</v>
       </c>
       <c r="D11">
-        <v>1.275935854463827</v>
+        <v>1.11289040511972</v>
       </c>
       <c r="E11">
-        <v>2.295545645782124</v>
+        <v>1.182927835916047</v>
       </c>
       <c r="F11">
-        <v>1.806233852245111</v>
+        <v>1.366341590819985</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.515798961921921</v>
+        <v>1.95921865406903</v>
       </c>
       <c r="C12">
-        <v>1.123664065872779</v>
+        <v>2.069402893636259</v>
       </c>
       <c r="D12">
-        <v>1.30086602350367</v>
+        <v>1.11819990923679</v>
       </c>
       <c r="E12">
-        <v>2.314817116078049</v>
+        <v>1.191380371698415</v>
       </c>
       <c r="F12">
-        <v>1.874590245040757</v>
+        <v>1.359207068173923</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.552761161971036</v>
+        <v>2.018934778068504</v>
       </c>
       <c r="C13">
-        <v>1.132641433119112</v>
+        <v>2.104769747134035</v>
       </c>
       <c r="D13">
-        <v>1.325324886718998</v>
+        <v>1.122616767444075</v>
       </c>
       <c r="E13">
-        <v>2.325646822352708</v>
+        <v>1.198671328393002</v>
       </c>
       <c r="F13">
-        <v>1.940949097616668</v>
+        <v>1.350621063484422</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.588038209399709</v>
+        <v>2.073480414437397</v>
       </c>
       <c r="C14">
-        <v>1.141264669059488</v>
+        <v>2.133101437826596</v>
       </c>
       <c r="D14">
-        <v>1.349315269068186</v>
+        <v>1.126198137388764</v>
       </c>
       <c r="E14">
-        <v>2.330802358008146</v>
+        <v>1.204915614538179</v>
       </c>
       <c r="F14">
-        <v>2.005363180357908</v>
+        <v>1.341034214650017</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.621632687285609</v>
+        <v>2.122834543591694</v>
       </c>
       <c r="C15">
-        <v>1.149538796420686</v>
+        <v>2.155150282972675</v>
       </c>
       <c r="D15">
-        <v>1.372839895280432</v>
+        <v>1.129000274813884</v>
       </c>
       <c r="E15">
-        <v>2.332147048094547</v>
+        <v>1.210215916443183</v>
       </c>
       <c r="F15">
-        <v>2.067883743156433</v>
+        <v>1.330755951584737</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.653549008029517</v>
+        <v>2.167020731906394</v>
       </c>
       <c r="C16">
-        <v>1.157468754015791</v>
+        <v>2.171617449516477</v>
       </c>
       <c r="D16">
-        <v>1.395901395362906</v>
+        <v>1.131077762145245</v>
       </c>
       <c r="E16">
-        <v>2.330916853714312</v>
+        <v>1.214664002779062</v>
       </c>
       <c r="F16">
-        <v>2.128560572414697</v>
+        <v>1.320000952217388</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.683793636399889</v>
+        <v>2.20610641843005</v>
       </c>
       <c r="C17">
-        <v>1.165059399709441</v>
+        <v>2.183147990300027</v>
       </c>
       <c r="D17">
-        <v>1.41850231025263</v>
+        <v>1.132482966772455</v>
       </c>
       <c r="E17">
-        <v>2.327929923310902</v>
+        <v>1.218341631434293</v>
       </c>
       <c r="F17">
-        <v>2.187442045392584</v>
+        <v>1.308919873718324</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.712375571067646</v>
+        <v>2.240200404669207</v>
       </c>
       <c r="C18">
-        <v>1.172315512267838</v>
+        <v>2.190328948157986</v>
       </c>
       <c r="D18">
-        <v>1.440645097161254</v>
+        <v>1.133265730862149</v>
       </c>
       <c r="E18">
-        <v>2.323730761548173</v>
+        <v>1.221321650016516</v>
       </c>
       <c r="F18">
-        <v>2.244575084665181</v>
+        <v>1.297619683423651</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.739307046194357</v>
+        <v>2.269448880878912</v>
       </c>
       <c r="C19">
-        <v>1.179241802250487</v>
+        <v>2.193689942192892</v>
       </c>
       <c r="D19">
-        <v>1.462332138318086</v>
+        <v>1.133473169508169</v>
       </c>
       <c r="E19">
-        <v>2.318685139314566</v>
+        <v>1.223669072375047</v>
       </c>
       <c r="F19">
-        <v>2.30000532029142</v>
+        <v>1.286177287613465</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.7646043510022</v>
+        <v>2.294030364027445</v>
       </c>
       <c r="C20">
-        <v>1.185842921586715</v>
+        <v>2.193705336706496</v>
       </c>
       <c r="D20">
-        <v>1.483565741095862</v>
+        <v>1.133149544670264</v>
       </c>
       <c r="E20">
-        <v>2.313041589231013</v>
+        <v>1.225441946785127</v>
       </c>
       <c r="F20">
-        <v>2.353777079868972</v>
+        <v>1.274648565784572</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.788288502011236</v>
+        <v>2.314149947605108</v>
       </c>
       <c r="C21">
-        <v>1.192123443287282</v>
+        <v>2.190797606689583</v>
       </c>
       <c r="D21">
-        <v>1.504348154527216</v>
+        <v>1.132336231786317</v>
       </c>
       <c r="E21">
-        <v>2.306971088455174</v>
+        <v>1.226692146968894</v>
       </c>
       <c r="F21">
-        <v>2.405933451893807</v>
+        <v>1.263074546769648</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.810385821109974</v>
+        <v>2.330033261506138</v>
       </c>
       <c r="C22">
-        <v>1.198087884824362</v>
+        <v>2.185341276350234</v>
       </c>
       <c r="D22">
-        <v>1.524681556177235</v>
+        <v>1.131071759176917</v>
       </c>
       <c r="E22">
-        <v>2.300592780175061</v>
+        <v>1.227466108433523</v>
       </c>
       <c r="F22">
-        <v>2.456516309858781</v>
+        <v>1.25148569577887</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.830928102442966</v>
+        <v>2.341920505427798</v>
       </c>
       <c r="C23">
-        <v>1.203740729443854</v>
+        <v>2.177667173829532</v>
       </c>
       <c r="D23">
-        <v>1.544568086202275</v>
+        <v>1.129391908715968</v>
       </c>
       <c r="E23">
-        <v>2.293990735455568</v>
+        <v>1.227805482350125</v>
       </c>
       <c r="F23">
-        <v>2.505566326846028</v>
+        <v>1.239904830131793</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.849952414463163</v>
+        <v>2.350060797294282</v>
       </c>
       <c r="C24">
-        <v>1.209086356779909</v>
+        <v>2.16806671533115</v>
       </c>
       <c r="D24">
-        <v>1.564009823246921</v>
+        <v>1.127329840309705</v>
       </c>
       <c r="E24">
-        <v>2.287225080420132</v>
+        <v>1.227747688132554</v>
       </c>
       <c r="F24">
-        <v>2.553123025924211</v>
+        <v>1.22834919372982</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.867500628435947</v>
+        <v>2.354707079606157</v>
       </c>
       <c r="C25">
-        <v>1.214129123276087</v>
+        <v>2.156796064603127</v>
       </c>
       <c r="D25">
-        <v>1.583008815135946</v>
+        <v>1.124916240544166</v>
       </c>
       <c r="E25">
-        <v>2.28033935309391</v>
+        <v>1.227326394375355</v>
       </c>
       <c r="F25">
-        <v>2.599224810734774</v>
+        <v>1.21683191219492</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.883618696589466</v>
+        <v>2.356111724453354</v>
       </c>
       <c r="C26">
-        <v>1.218873349214548</v>
+        <v>2.144080053351666</v>
       </c>
       <c r="D26">
-        <v>1.601567067922757</v>
+        <v>1.122179448302663</v>
       </c>
       <c r="E26">
-        <v>2.273365381475732</v>
+        <v>1.226571946488127</v>
       </c>
       <c r="F26">
-        <v>2.643909008538931</v>
+        <v>1.205363066886731</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.898355811450308</v>
+        <v>2.354522856604834</v>
       </c>
       <c r="C27">
-        <v>1.223323299731688</v>
+        <v>2.130115810095103</v>
       </c>
       <c r="D27">
-        <v>1.619686553855113</v>
+        <v>1.119145606251436</v>
       </c>
       <c r="E27">
-        <v>2.266326756712299</v>
+        <v>1.225511746812127</v>
       </c>
       <c r="F27">
-        <v>2.687211901709411</v>
+        <v>1.193950441520532</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.91176352830565</v>
+        <v>2.35018139352782</v>
       </c>
       <c r="C28">
-        <v>1.227483211727483</v>
+        <v>2.115076059359836</v>
       </c>
       <c r="D28">
-        <v>1.637369221316772</v>
+        <v>1.115838818544416</v>
       </c>
       <c r="E28">
-        <v>2.259241143289834</v>
+        <v>1.224170589667668</v>
       </c>
       <c r="F28">
-        <v>2.729168742136181</v>
+        <v>1.182600066597857</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.923894927891679</v>
+        <v>2.343318803756164</v>
       </c>
       <c r="C29">
-        <v>1.231357279304382</v>
+        <v>2.099112099509392</v>
       </c>
       <c r="D29">
-        <v>1.654616989580656</v>
+        <v>1.112281303586297</v>
       </c>
       <c r="E29">
-        <v>2.252121893850732</v>
+        <v>1.222570958029715</v>
       </c>
       <c r="F29">
-        <v>2.769813823997882</v>
+        <v>1.171316630627978</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.934803890042325</v>
+        <v>2.334155482108104</v>
       </c>
       <c r="C30">
-        <v>1.234949655725644</v>
+        <v>2.082356448966344</v>
       </c>
       <c r="D30">
-        <v>1.671431762169993</v>
+        <v>1.108493539279901</v>
       </c>
       <c r="E30">
-        <v>2.24497920620245</v>
+        <v>1.220733274167288</v>
       </c>
       <c r="F30">
-        <v>2.809180479606127</v>
+        <v>1.160103799271258</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.944544429729106</v>
+        <v>2.3228996794109</v>
       </c>
       <c r="C31">
-        <v>1.23826446192833</v>
+        <v>2.06492520416109</v>
       </c>
       <c r="D31">
-        <v>1.687815425266288</v>
+        <v>1.104494398765493</v>
       </c>
       <c r="E31">
-        <v>2.237820964428512</v>
+        <v>1.218676117833683</v>
       </c>
       <c r="F31">
-        <v>2.847301103533801</v>
+        <v>1.148964441314787</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.953170120078063</v>
+        <v>2.309746892632553</v>
       </c>
       <c r="C32">
-        <v>1.2413057775774</v>
+        <v>2.046920104268983</v>
       </c>
       <c r="D32">
-        <v>1.703769854796694</v>
+        <v>1.100301278501846</v>
       </c>
       <c r="E32">
-        <v>2.230653306580132</v>
+        <v>1.216416423440929</v>
       </c>
       <c r="F32">
-        <v>2.884207196514278</v>
+        <v>1.137900795596898</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.960733698226115</v>
+        <v>2.294879633007389</v>
       </c>
       <c r="C33">
-        <v>1.244077653581193</v>
+        <v>2.028430356951371</v>
       </c>
       <c r="D33">
-        <v>1.719296921113731</v>
+        <v>1.095930216829305</v>
       </c>
       <c r="E33">
-        <v>2.223481036940614</v>
+        <v>1.213969653751155</v>
       </c>
       <c r="F33">
-        <v>2.919929373400902</v>
+        <v>1.126914603072197</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.967286707492198</v>
+        <v>2.278467491059429</v>
       </c>
       <c r="C34">
-        <v>1.246584109713163</v>
+        <v>2.009534224305547</v>
       </c>
       <c r="D34">
-        <v>1.734398491280892</v>
+        <v>1.091396006759476</v>
       </c>
       <c r="E34">
-        <v>2.216307944540824</v>
+        <v>1.211349952925024</v>
       </c>
       <c r="F34">
-        <v>2.954497406318799</v>
+        <v>1.116007213902825</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.972879250503017</v>
+        <v>2.260667425616994</v>
       </c>
       <c r="C35">
-        <v>1.248829136281572</v>
+        <v>1.990300417931244</v>
       </c>
       <c r="D35">
-        <v>1.74907643454986</v>
+        <v>1.086712299975491</v>
       </c>
       <c r="E35">
-        <v>2.209137056371067</v>
+        <v>1.208570280451296</v>
       </c>
       <c r="F35">
-        <v>2.987940237293401</v>
+        <v>1.105179676187446</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.977559794389592</v>
+        <v>2.241624231830967</v>
       </c>
       <c r="C36">
-        <v>1.250816699522573</v>
+        <v>1.970789306055412</v>
       </c>
       <c r="D36">
-        <v>1.763332625258784</v>
+        <v>1.081891701766691</v>
       </c>
       <c r="E36">
-        <v>2.201970804248357</v>
+        <v>1.205642529201676</v>
       </c>
       <c r="F36">
-        <v>3.020286018152397</v>
+        <v>1.09443278478109</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.981375048745591</v>
+        <v>2.221471113586808</v>
       </c>
       <c r="C37">
-        <v>1.252550738568165</v>
+        <v>1.95105397119752</v>
       </c>
       <c r="D37">
-        <v>1.777168948441892</v>
+        <v>1.076945858077459</v>
       </c>
       <c r="E37">
-        <v>2.194811151068102</v>
+        <v>1.202577630465786</v>
       </c>
       <c r="F37">
-        <v>3.051562126324825</v>
+        <v>1.083767126089819</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.98436988149248</v>
+        <v>2.200330334593859</v>
       </c>
       <c r="C38">
-        <v>1.254035169502384</v>
+        <v>1.931141118168806</v>
       </c>
       <c r="D38">
-        <v>1.790587303736274</v>
+        <v>1.071885535342547</v>
       </c>
       <c r="E38">
-        <v>2.187659689394543</v>
+        <v>1.199385647228434</v>
       </c>
       <c r="F38">
-        <v>3.081795188335954</v>
+        <v>1.073183117565862</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.986587280646899</v>
+        <v>2.178313910560149</v>
       </c>
       <c r="C39">
-        <v>1.255273884785349</v>
+        <v>1.911091886192997</v>
       </c>
       <c r="D39">
-        <v>1.803589606200736</v>
+        <v>1.066720693546349</v>
       </c>
       <c r="E39">
-        <v>2.180517721695182</v>
+        <v>1.196075856222957</v>
       </c>
       <c r="F39">
-        <v>3.111011106010755</v>
+        <v>1.062681039889477</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.988068340491734</v>
+        <v>2.155524316409355</v>
       </c>
       <c r="C40">
-        <v>1.256270753258784</v>
+        <v>1.890942550521224</v>
       </c>
       <c r="D40">
-        <v>1.81617779034576</v>
+        <v>1.06146055348549</v>
       </c>
       <c r="E40">
-        <v>2.173386319213489</v>
+        <v>1.19265682244805</v>
       </c>
       <c r="F40">
-        <v>3.139235069925676</v>
+        <v>1.052261062739656</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.988852273443336</v>
+        <v>2.132055185120752</v>
       </c>
       <c r="C41">
-        <v>1.257029622787008</v>
+        <v>1.870725112312205</v>
       </c>
       <c r="D41">
-        <v>1.828353820830371</v>
+        <v>1.056113657881072</v>
       </c>
       <c r="E41">
-        <v>2.166266374988001</v>
+        <v>1.189136464734489</v>
       </c>
       <c r="F41">
-        <v>3.166491586159087</v>
+        <v>1.041923266599096</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.988976437591103</v>
+        <v>2.107992000239188</v>
       </c>
       <c r="C42">
-        <v>1.257554318806273</v>
+        <v>1.850467813305181</v>
       </c>
       <c r="D42">
-        <v>1.840119688713333</v>
+        <v>1.050687926680024</v>
       </c>
       <c r="E42">
-        <v>2.159158636298383</v>
+        <v>1.185522114315557</v>
       </c>
       <c r="F42">
-        <v>3.192804493338645</v>
+        <v>1.031667655249257</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.988476381498347</v>
+        <v>2.08341275736049</v>
       </c>
       <c r="C43">
-        <v>1.257848647019866</v>
+        <v>1.830195597636201</v>
       </c>
       <c r="D43">
-        <v>1.851477407183575</v>
+        <v>1.04519070801175</v>
       </c>
       <c r="E43">
-        <v>2.152063718545321</v>
+        <v>1.181820567277369</v>
       </c>
       <c r="F43">
-        <v>3.218196983826243</v>
+        <v>1.021494167565346</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.987385900095381</v>
+        <v>2.05838856572206</v>
       </c>
       <c r="C44">
-        <v>1.257916393174167</v>
+        <v>1.80993051864158</v>
       </c>
       <c r="D44">
-        <v>1.862429036325484</v>
+        <v>1.039628824479672</v>
       </c>
       <c r="E44">
-        <v>2.14498213727577</v>
+        <v>1.178038131602574</v>
       </c>
       <c r="F44">
-        <v>3.242691624287414</v>
+        <v>1.011402687996608</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.985737096567984</v>
+        <v>2.03298430297152</v>
       </c>
       <c r="C45">
-        <v>1.257761323777079</v>
+        <v>1.789692086474245</v>
       </c>
       <c r="D45">
-        <v>1.872976671845158</v>
+        <v>1.034008615394248</v>
       </c>
       <c r="E45">
-        <v>2.137914325594152</v>
+        <v>1.174180669271282</v>
       </c>
       <c r="F45">
-        <v>3.266310372217352</v>
+        <v>1.001393054337705</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.983560443978093</v>
+        <v>2.007259082238322</v>
       </c>
       <c r="C46">
-        <v>1.257387187069001</v>
+        <v>1.769497566736654</v>
       </c>
       <c r="D46">
-        <v>1.883122443334419</v>
+        <v>1.0283359752875</v>
       </c>
       <c r="E46">
-        <v>2.130860650372617</v>
+        <v>1.170253634853629</v>
       </c>
       <c r="F46">
-        <v>3.289074597616762</v>
+        <v>0.9914650680743755</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.98088485393292</v>
+        <v>1.981266777387</v>
       </c>
       <c r="C47">
-        <v>1.256797713807147</v>
+        <v>1.74936224242928</v>
       </c>
       <c r="D47">
-        <v>1.892868531690975</v>
+        <v>1.022616389019346</v>
       </c>
       <c r="E47">
-        <v>2.123821424724787</v>
+        <v>1.166262108887974</v>
       </c>
       <c r="F47">
-        <v>3.311005095934449</v>
+        <v>0.9816184958072189</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.977737747556358</v>
+        <v>1.955056547391309</v>
       </c>
       <c r="C48">
-        <v>1.255996617967317</v>
+        <v>1.729299645819492</v>
       </c>
       <c r="D48">
-        <v>1.902217165792252</v>
+        <v>1.016854961152778</v>
       </c>
       <c r="E48">
-        <v>2.116796915474269</v>
+        <v>1.162210827812415</v>
       </c>
       <c r="F48">
-        <v>3.332122109693362</v>
+        <v>0.9718530809108683</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.974145125252781</v>
+        <v>1.92867318208435</v>
       </c>
       <c r="C49">
-        <v>1.254987589959108</v>
+        <v>1.709321761938069</v>
       </c>
       <c r="D49">
-        <v>1.911170622031712</v>
+        <v>1.011056452309682</v>
       </c>
       <c r="E49">
-        <v>2.109787350461496</v>
+        <v>1.158104213653526</v>
       </c>
       <c r="F49">
-        <v>3.352445340420348</v>
+        <v>0.9621685398314328</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.970131634552302</v>
+        <v>1.90215752599665</v>
       </c>
       <c r="C50">
-        <v>1.253774311296029</v>
+        <v>1.689439205635003</v>
       </c>
       <c r="D50">
-        <v>1.919731230028883</v>
+        <v>1.005225295672223</v>
       </c>
       <c r="E50">
-        <v>2.102792924790954</v>
+        <v>1.153946396494917</v>
       </c>
       <c r="F50">
-        <v>3.371993967541228</v>
+        <v>0.9525645698474684</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.965720638416551</v>
+        <v>1.875546881715217</v>
       </c>
       <c r="C51">
-        <v>1.252360445844318</v>
+        <v>1.669661376016183</v>
       </c>
       <c r="D51">
-        <v>1.927901380404157</v>
+        <v>0.9993656440635955</v>
       </c>
       <c r="E51">
-        <v>2.095813804693307</v>
+        <v>1.149741249969332</v>
       </c>
       <c r="F51">
-        <v>3.39078666278069</v>
+        <v>0.9430408500123963</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.960934281798523</v>
+        <v>1.84887529579112</v>
       </c>
       <c r="C52">
-        <v>1.250749639229482</v>
+        <v>1.649996723180965</v>
       </c>
       <c r="D52">
-        <v>1.935683521331644</v>
+        <v>0.993481369614018</v>
       </c>
       <c r="E52">
-        <v>2.088850133275632</v>
+        <v>1.145492657715379</v>
       </c>
       <c r="F52">
-        <v>3.408841604107852</v>
+        <v>0.9335972226320426</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.955793558261867</v>
+        <v>1.863297597881323</v>
       </c>
       <c r="C53">
-        <v>1.248945512096511</v>
+        <v>1.638075100698909</v>
       </c>
       <c r="D53">
-        <v>1.943080158243978</v>
+        <v>1.009513019365218</v>
       </c>
       <c r="E53">
-        <v>2.081902034020305</v>
+        <v>1.166246002478211</v>
       </c>
       <c r="F53">
-        <v>3.426176493452018</v>
+        <v>0.9243139378214453</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.950318366595211</v>
+        <v>1.874587314265272</v>
       </c>
       <c r="C54">
-        <v>1.246951682827088</v>
+        <v>1.625594386384086</v>
       </c>
       <c r="D54">
-        <v>1.950093869113433</v>
+        <v>1.02481031728754</v>
       </c>
       <c r="E54">
-        <v>2.074969613856344</v>
+        <v>1.18627720197555</v>
       </c>
       <c r="F54">
-        <v>3.442808566569875</v>
+        <v>0.9151029741098213</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.944527577339687</v>
+        <v>1.883007693537361</v>
       </c>
       <c r="C55">
-        <v>1.244771750355564</v>
+        <v>1.612621580389662</v>
       </c>
       <c r="D55">
-        <v>1.956727298406398</v>
+        <v>1.039408411330874</v>
       </c>
       <c r="E55">
-        <v>2.068052966351849</v>
+        <v>1.205618267104287</v>
       </c>
       <c r="F55">
-        <v>3.458754611239087</v>
+        <v>0.9059646750825368</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.938439081735039</v>
+        <v>1.888799219075524</v>
       </c>
       <c r="C56">
-        <v>1.242409290288815</v>
+        <v>1.59921707349449</v>
       </c>
       <c r="D56">
-        <v>1.962983150546568</v>
+        <v>1.053340675984238</v>
       </c>
       <c r="E56">
-        <v>2.061152171540453</v>
+        <v>1.224299447170382</v>
       </c>
       <c r="F56">
-        <v>3.474030976093657</v>
+        <v>0.8968993862456137</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.932069847738353</v>
+        <v>1.892181360748767</v>
       </c>
       <c r="C57">
-        <v>1.239867861859454</v>
+        <v>1.585435333237589</v>
       </c>
       <c r="D57">
-        <v>1.96886421298089</v>
+        <v>1.066638486513404</v>
       </c>
       <c r="E57">
-        <v>2.054267300094287</v>
+        <v>1.242349111433335</v>
       </c>
       <c r="F57">
-        <v>3.488653587352605</v>
+        <v>0.8879070874169981</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.925435976201252</v>
+        <v>1.893355084760865</v>
       </c>
       <c r="C58">
-        <v>1.237151016094534</v>
+        <v>1.571325301588751</v>
       </c>
       <c r="D58">
-        <v>1.97437334613097</v>
+        <v>1.079331466423466</v>
       </c>
       <c r="E58">
-        <v>2.047398411401093</v>
+        <v>1.259794026333887</v>
       </c>
       <c r="F58">
-        <v>3.502637957996884</v>
+        <v>0.878987897619965</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.918552736142616</v>
+        <v>1.892504339460228</v>
       </c>
       <c r="C59">
-        <v>1.234262284976173</v>
+        <v>1.556931187878863</v>
       </c>
       <c r="D59">
-        <v>1.9795134801251</v>
+        <v>1.091447478231558</v>
       </c>
       <c r="E59">
-        <v>2.040545557748947</v>
+        <v>1.276659527760843</v>
       </c>
       <c r="F59">
-        <v>3.515999201946015</v>
+        <v>0.8701417484867495</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.911434629606649</v>
+        <v>1.889797495143005</v>
       </c>
       <c r="C60">
-        <v>1.231205174705231</v>
+        <v>1.542292956988848</v>
       </c>
       <c r="D60">
-        <v>1.984287624813172</v>
+        <v>1.103012791978279</v>
       </c>
       <c r="E60">
-        <v>2.033708783107552</v>
+        <v>1.292969552876379</v>
       </c>
       <c r="F60">
-        <v>3.528752044895161</v>
+        <v>0.8613685719194459</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.904095415195199</v>
+        <v>1.885388900235089</v>
       </c>
       <c r="C61">
-        <v>1.227983183198487</v>
+        <v>1.527446675020764</v>
       </c>
       <c r="D61">
-        <v>1.988698876282838</v>
+        <v>1.114052231234368</v>
       </c>
       <c r="E61">
-        <v>2.026888125740036</v>
+        <v>1.308746672518292</v>
       </c>
       <c r="F61">
-        <v>3.540910834888674</v>
+        <v>0.8526683188660894</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.896548166210798</v>
+        <v>1.879420374143816</v>
       </c>
       <c r="C62">
-        <v>1.224599790413408</v>
+        <v>1.512424908191143</v>
       </c>
       <c r="D62">
-        <v>1.992750407497366</v>
+        <v>1.124589261449547</v>
       </c>
       <c r="E62">
-        <v>2.02008361844978</v>
+        <v>1.324012306842778</v>
       </c>
       <c r="F62">
-        <v>3.552489555538566</v>
+        <v>0.8440408727512602</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.888805297476442</v>
+        <v>1.872022224532826</v>
       </c>
       <c r="C63">
-        <v>1.221058458022169</v>
+        <v>1.497257182323761</v>
       </c>
       <c r="D63">
-        <v>1.996445466523589</v>
+        <v>1.134646062883959</v>
       </c>
       <c r="E63">
-        <v>2.01329528788392</v>
+        <v>1.338786759903342</v>
       </c>
       <c r="F63">
-        <v>3.563501833385425</v>
+        <v>0.835486070461154</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.880878606105342</v>
+        <v>1.863314203905321</v>
       </c>
       <c r="C64">
-        <v>1.217362625870191</v>
+        <v>1.481970264430207</v>
       </c>
       <c r="D64">
-        <v>1.999787398931012</v>
+        <v>1.14424361242801</v>
       </c>
       <c r="E64">
-        <v>2.006523158039458</v>
+        <v>1.353089284409271</v>
       </c>
       <c r="F64">
-        <v>3.573960951196924</v>
+        <v>0.8270037019381581</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.872779309887177</v>
+        <v>1.853406513762761</v>
       </c>
       <c r="C65">
-        <v>1.213515721755054</v>
+        <v>1.466588386576438</v>
       </c>
       <c r="D65">
-        <v>2.002779632991224</v>
+        <v>1.15340177323089</v>
       </c>
       <c r="E65">
-        <v>1.999767251186083</v>
+        <v>1.366938144687577</v>
       </c>
       <c r="F65">
-        <v>3.583879853566594</v>
+        <v>0.8185935373331186</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.864518068208907</v>
+        <v>1.84240068061102</v>
       </c>
       <c r="C66">
-        <v>1.209521153884864</v>
+        <v>1.451133488109558</v>
       </c>
       <c r="D66">
-        <v>2.005425666844816</v>
+        <v>1.162139370001967</v>
       </c>
       <c r="E66">
-        <v>1.993027582159915</v>
+        <v>1.380350681311625</v>
       </c>
       <c r="F66">
-        <v>3.593271165248061</v>
+        <v>0.8102553449765144</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.856105028225101</v>
+        <v>1.830390299449252</v>
       </c>
       <c r="C67">
-        <v>1.205382310681603</v>
+        <v>1.435625468717575</v>
       </c>
       <c r="D67">
-        <v>2.007729104847224</v>
+        <v>1.170474253026683</v>
       </c>
       <c r="E67">
-        <v>1.986304162875873</v>
+        <v>1.393343372018179</v>
       </c>
       <c r="F67">
-        <v>3.602147189802005</v>
+        <v>0.8019888676595068</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.847549836892073</v>
+        <v>1.817461781170106</v>
       </c>
       <c r="C68">
-        <v>1.201102560946728</v>
+        <v>1.420082395762051</v>
       </c>
       <c r="D68">
-        <v>2.009693635452476</v>
+        <v>1.17842335750251</v>
       </c>
       <c r="E68">
-        <v>1.979597010408237</v>
+        <v>1.405931886807062</v>
       </c>
       <c r="F68">
-        <v>3.610519924039957</v>
+        <v>0.7937938418267282</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.838861681715045</v>
+        <v>1.803694936597188</v>
       </c>
       <c r="C69">
-        <v>1.196685257549426</v>
+        <v>1.404520669226251</v>
       </c>
       <c r="D69">
-        <v>2.011323022295289</v>
+        <v>1.186002771974286</v>
       </c>
       <c r="E69">
-        <v>1.972906135484763</v>
+        <v>1.418131137642932</v>
       </c>
       <c r="F69">
-        <v>3.618401077445974</v>
+        <v>0.7856699649004436</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.830049306744852</v>
+        <v>1.789163527809045</v>
       </c>
       <c r="C70">
-        <v>1.192133733316475</v>
+        <v>1.388955185957928</v>
       </c>
       <c r="D70">
-        <v>2.012621123941705</v>
+        <v>1.193227760864157</v>
       </c>
       <c r="E70">
-        <v>1.966231537332314</v>
+        <v>1.429955324010194</v>
       </c>
       <c r="F70">
-        <v>3.625802050515283</v>
+        <v>0.7776169468109123</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.821121039771372</v>
+        <v>1.773935787095197</v>
       </c>
       <c r="C71">
-        <v>1.187451298366227</v>
+        <v>1.373399485649697</v>
       </c>
       <c r="D71">
-        <v>2.013591893572968</v>
+        <v>1.200112848919434</v>
       </c>
       <c r="E71">
-        <v>1.959573228510286</v>
+        <v>1.441417975796685</v>
       </c>
       <c r="F71">
-        <v>3.632733978870413</v>
+        <v>0.7696344630437346</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.812084817598649</v>
+        <v>1.758074903091784</v>
       </c>
       <c r="C72">
-        <v>1.18264124502798</v>
+        <v>1.357865842104179</v>
       </c>
       <c r="D72">
-        <v>2.014239363054812</v>
+        <v>1.206671823596158</v>
       </c>
       <c r="E72">
-        <v>1.952931216173156</v>
+        <v>1.452531991582667</v>
       </c>
       <c r="F72">
-        <v>3.639207724051156</v>
+        <v>0.7617221841557549</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.802948199112132</v>
+        <v>1.74163940556491</v>
       </c>
       <c r="C73">
-        <v>1.17770684590783</v>
+        <v>1.342365405166911</v>
       </c>
       <c r="D73">
-        <v>2.01456764214995</v>
+        <v>1.212917819831624</v>
       </c>
       <c r="E73">
-        <v>1.946305494346148</v>
+        <v>1.463309687578872</v>
       </c>
       <c r="F73">
-        <v>3.645233865797646</v>
+        <v>0.7538797669008546</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.793718395774706</v>
+        <v>1.724683576424222</v>
       </c>
       <c r="C74">
-        <v>1.172651352315939</v>
+        <v>1.326908300951097</v>
       </c>
       <c r="D74">
-        <v>2.014580945333342</v>
+        <v>1.218863353058836</v>
       </c>
       <c r="E74">
-        <v>1.939696068432377</v>
+        <v>1.473762801163097</v>
       </c>
       <c r="F74">
-        <v>3.650822743475152</v>
+        <v>0.7461068562166816</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.784402279209181</v>
+        <v>1.707257788226695</v>
       </c>
       <c r="C75">
-        <v>1.167477990605856</v>
+        <v>1.311503731253264</v>
       </c>
       <c r="D75">
-        <v>2.014283566528278</v>
+        <v>1.224520348017595</v>
       </c>
       <c r="E75">
-        <v>1.933102938966488</v>
+        <v>1.483902569853613</v>
       </c>
       <c r="F75">
-        <v>3.655984437734468</v>
+        <v>0.7384030893266266</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.7750064077705</v>
+        <v>1.689408842854271</v>
       </c>
       <c r="C76">
-        <v>1.16218996986374</v>
+        <v>1.296160052703839</v>
       </c>
       <c r="D76">
-        <v>2.013679860641373</v>
+        <v>1.229900179389371</v>
       </c>
       <c r="E76">
-        <v>1.926526102414726</v>
+        <v>1.493739680541457</v>
       </c>
       <c r="F76">
-        <v>3.660728780512335</v>
+        <v>0.7307680991848008</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.76553703704861</v>
+        <v>1.671180220669113</v>
       </c>
       <c r="C77">
-        <v>1.15679047578188</v>
+        <v>1.280884849831538</v>
       </c>
       <c r="D77">
-        <v>2.012774292446452</v>
+        <v>1.235013687745086</v>
       </c>
       <c r="E77">
-        <v>1.919965555850317</v>
+        <v>1.503284396384674</v>
       </c>
       <c r="F77">
-        <v>3.665065375849895</v>
+        <v>0.7232015051987302</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.756000137291486</v>
+        <v>1.652612359768043</v>
       </c>
       <c r="C78">
-        <v>1.151282670916738</v>
+        <v>1.265685003053374</v>
       </c>
       <c r="D78">
-        <v>2.011571401661658</v>
+        <v>1.239871222295271</v>
       </c>
       <c r="E78">
-        <v>1.913421295637531</v>
+        <v>1.51254650915512</v>
       </c>
       <c r="F78">
-        <v>3.669003589393342</v>
+        <v>0.7157029283845118</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.746401410211111</v>
+        <v>1.633742891219112</v>
       </c>
       <c r="C79">
-        <v>1.145669693746899</v>
+        <v>1.250566751800593</v>
       </c>
       <c r="D79">
-        <v>2.010075784925186</v>
+        <v>1.244482656198481</v>
       </c>
       <c r="E79">
-        <v>1.906893317019824</v>
+        <v>1.521535416482788</v>
       </c>
       <c r="F79">
-        <v>3.672552565765685</v>
+        <v>0.7082719812388235</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.736746297269563</v>
+        <v>1.614606868955365</v>
       </c>
       <c r="C80">
-        <v>1.139954661235389</v>
+        <v>1.235535746549157</v>
       </c>
       <c r="D80">
-        <v>2.008292131206699</v>
+        <v>1.248857422986247</v>
       </c>
       <c r="E80">
-        <v>1.900381614578304</v>
+        <v>1.530260106713326</v>
       </c>
       <c r="F80">
-        <v>3.675721235015718</v>
+        <v>0.7009082667028801</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.72703999960061</v>
+        <v>1.595236950166807</v>
       </c>
       <c r="C81">
-        <v>1.13414066586463</v>
+        <v>1.22059710225398</v>
       </c>
       <c r="D81">
-        <v>2.006225206879332</v>
+        <v>1.253004534254385</v>
       </c>
       <c r="E81">
-        <v>1.893886182056813</v>
+        <v>1.538729208058735</v>
       </c>
       <c r="F81">
-        <v>3.67851830644752</v>
+        <v>0.6936113922807854</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.717287483179941</v>
+        <v>1.575663585702293</v>
       </c>
       <c r="C82">
-        <v>1.128230775275134</v>
+        <v>1.205755443439425</v>
       </c>
       <c r="D82">
-        <v>2.003879835889715</v>
+        <v>1.256932605301879</v>
       </c>
       <c r="E82">
-        <v>1.887407012687986</v>
+        <v>1.546950975951411</v>
       </c>
       <c r="F82">
-        <v>3.680952292894884</v>
+        <v>0.6863809545545255</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.707493495971272</v>
+        <v>1.555915183296032</v>
       </c>
       <c r="C83">
-        <v>1.12222803259011</v>
+        <v>1.191014947070374</v>
       </c>
       <c r="D83">
-        <v>2.001260903391167</v>
+        <v>1.260649898295644</v>
       </c>
       <c r="E83">
-        <v>1.880944098921195</v>
+        <v>1.55493333561279</v>
       </c>
       <c r="F83">
-        <v>3.683031503934896</v>
+        <v>0.6792165478652826</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.697662575130451</v>
+        <v>1.536018268095347</v>
       </c>
       <c r="C84">
-        <v>1.11613545608895</v>
+        <v>1.176379378230716</v>
       </c>
       <c r="D84">
-        <v>1.998373377992334</v>
+        <v>1.264164326683547</v>
       </c>
       <c r="E84">
-        <v>1.874497433342121</v>
+        <v>1.562683882969024</v>
       </c>
       <c r="F84">
-        <v>3.684764048555048</v>
+        <v>0.6721177651655954</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.687799058193722</v>
+        <v>1.515997596367527</v>
       </c>
       <c r="C85">
-        <v>1.109956038328172</v>
+        <v>1.16185192253628</v>
       </c>
       <c r="D85">
-        <v>1.995222280739867</v>
+        <v>1.267483238750917</v>
       </c>
       <c r="E85">
-        <v>1.868067008098173</v>
+        <v>1.570209810172768</v>
       </c>
       <c r="F85">
-        <v>3.686157855170578</v>
+        <v>0.6650840524158136</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.677907094381744</v>
+        <v>1.489369367187771</v>
       </c>
       <c r="C86">
-        <v>1.103692745640645</v>
+        <v>1.14669017686458</v>
       </c>
       <c r="D86">
-        <v>1.991812667988405</v>
+        <v>1.258508937229093</v>
       </c>
       <c r="E86">
-        <v>1.861652811473472</v>
+        <v>1.562544427765412</v>
       </c>
       <c r="F86">
-        <v>3.687220661829712</v>
+        <v>0.6581024157336216</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.66799064999836</v>
+        <v>1.463043982510325</v>
       </c>
       <c r="C87">
-        <v>1.097348518171379</v>
+        <v>1.131693661947303</v>
       </c>
       <c r="D87">
-        <v>1.988149677004871</v>
+        <v>1.249581568703007</v>
       </c>
       <c r="E87">
-        <v>1.855254835644684</v>
+        <v>1.55490141769271</v>
       </c>
       <c r="F87">
-        <v>3.687960026755066</v>
+        <v>0.6511857903672469</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.658053521532659</v>
+        <v>1.437022978018238</v>
       </c>
       <c r="C88">
-        <v>1.090926269136068</v>
+        <v>1.116861438478959</v>
       </c>
       <c r="D88">
-        <v>1.984238487970807</v>
+        <v>1.240701438107644</v>
       </c>
       <c r="E88">
-        <v>1.848873071510166</v>
+        <v>1.547280795033427</v>
       </c>
       <c r="F88">
-        <v>3.688383338921614</v>
+        <v>0.6443337009297604</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.648099339308812</v>
+        <v>1.411307587033093</v>
       </c>
       <c r="C89">
-        <v>1.084428884500279</v>
+        <v>1.102192596243874</v>
       </c>
       <c r="D89">
-        <v>1.980084301838752</v>
+        <v>1.231868855704774</v>
       </c>
       <c r="E89">
-        <v>1.84250751011395</v>
+        <v>1.53968301606491</v>
       </c>
       <c r="F89">
-        <v>3.688497809520504</v>
+        <v>0.6375456994348659</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.638131578665431</v>
+        <v>1.385898933082289</v>
       </c>
       <c r="C90">
-        <v>1.077859222616694</v>
+        <v>1.087686224629903</v>
       </c>
       <c r="D90">
-        <v>1.975692381839835</v>
+        <v>1.223084101270029</v>
       </c>
       <c r="E90">
-        <v>1.836158142593548</v>
+        <v>1.532108509686536</v>
       </c>
       <c r="F90">
-        <v>3.68831049037329</v>
+        <v>0.6308213372588197</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.628153564993116</v>
+        <v>1.360797980389554</v>
       </c>
       <c r="C91">
-        <v>1.071220113622861</v>
+        <v>1.073341300572524</v>
       </c>
       <c r="D91">
-        <v>1.971068024762028</v>
+        <v>1.214347434898202</v>
       </c>
       <c r="E91">
-        <v>1.82982495023545</v>
+        <v>1.524557683005183</v>
       </c>
       <c r="F91">
-        <v>3.687828271886251</v>
+        <v>0.6241601691935112</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.61816848104413</v>
+        <v>1.336005427632238</v>
       </c>
       <c r="C92">
-        <v>1.064514359161473</v>
+        <v>1.059156797783688</v>
       </c>
       <c r="D92">
-        <v>1.966216546289035</v>
+        <v>1.205659094322345</v>
       </c>
       <c r="E92">
-        <v>1.823507926866536</v>
+        <v>1.517030922785211</v>
       </c>
       <c r="F92">
-        <v>3.68705788260765</v>
+        <v>0.6175617503165057</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.608179374636236</v>
+        <v>1.311521811668624</v>
       </c>
       <c r="C93">
-        <v>1.057744732216113</v>
+        <v>1.045131685341427</v>
       </c>
       <c r="D93">
-        <v>1.961143286985449</v>
+        <v>1.197019292550601</v>
       </c>
       <c r="E93">
-        <v>1.817207062008056</v>
+        <v>1.50952859466004</v>
       </c>
       <c r="F93">
-        <v>3.686005905016658</v>
+        <v>0.6110256293254741</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.598189162285888</v>
+        <v>1.287347540083176</v>
       </c>
       <c r="C94">
-        <v>1.050913976482135</v>
+        <v>1.031264910934378</v>
       </c>
       <c r="D94">
-        <v>1.95585361967393</v>
+        <v>1.188428222246126</v>
       </c>
       <c r="E94">
-        <v>1.810922345395297</v>
+        <v>1.502051044758555</v>
       </c>
       <c r="F94">
-        <v>3.684678770164439</v>
+        <v>0.6045513576347712</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.5882006379368</v>
+        <v>1.263482874037927</v>
       </c>
       <c r="C95">
-        <v>1.04402480567355</v>
+        <v>1.017555415717815</v>
       </c>
       <c r="D95">
-        <v>1.950352925935495</v>
+        <v>1.17988605734249</v>
       </c>
       <c r="E95">
-        <v>1.804653766955003</v>
+        <v>1.494598602828497</v>
       </c>
       <c r="F95">
-        <v>3.683082762578647</v>
+        <v>0.5981384902396454</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.578216475615977</v>
+        <v>1.239927933512283</v>
       </c>
       <c r="C96">
-        <v>1.03707990348552</v>
+        <v>1.004002106078783</v>
       </c>
       <c r="D96">
-        <v>1.944646586852445</v>
+        <v>1.171392951246091</v>
       </c>
       <c r="E96">
-        <v>1.79840130566855</v>
+        <v>1.487171577471746</v>
       </c>
       <c r="F96">
-        <v>3.681224030919832</v>
+        <v>0.5917865766686913</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.568239235743573</v>
+        <v>1.216682694121067</v>
       </c>
       <c r="C97">
-        <v>1.030081924129323</v>
+        <v>0.9906039022776365</v>
       </c>
       <c r="D97">
-        <v>1.938740003635799</v>
+        <v>1.162949041933222</v>
       </c>
       <c r="E97">
-        <v>1.792164954401099</v>
+        <v>1.479770266578618</v>
       </c>
       <c r="F97">
-        <v>3.679108581906037</v>
+        <v>0.5854951749830984</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.558271370045483</v>
+        <v>1.193746994223906</v>
       </c>
       <c r="C98">
-        <v>1.02303349014532</v>
+        <v>0.9773596820437517</v>
       </c>
       <c r="D98">
-        <v>1.932638573563629</v>
+        <v>1.154554448536736</v>
       </c>
       <c r="E98">
-        <v>1.785944700988032</v>
+        <v>1.472394945503776</v>
       </c>
       <c r="F98">
-        <v>3.676742290941667</v>
+        <v>0.5792638381507361</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.548315230197529</v>
+        <v>1.171120542471298</v>
       </c>
       <c r="C99">
-        <v>1.015937192979632</v>
+        <v>0.9642683243295951</v>
       </c>
       <c r="D99">
-        <v>1.926347681740771</v>
+        <v>1.146209276204988</v>
       </c>
       <c r="E99">
-        <v>1.779740533242356</v>
+        <v>1.465045882038908</v>
       </c>
       <c r="F99">
-        <v>3.674130905314276</v>
+        <v>0.5730921200730181</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.538373059163115</v>
+        <v>1.148802920594604</v>
       </c>
       <c r="C100">
-        <v>1.008795592790913</v>
+        <v>0.9513286948224458</v>
       </c>
       <c r="D100">
-        <v>1.91987270743747</v>
+        <v>1.137913614125545</v>
       </c>
       <c r="E100">
-        <v>1.773552438978149</v>
+        <v>1.457723323669022</v>
       </c>
       <c r="F100">
-        <v>3.6712800401029</v>
+        <v>0.5669795814779957</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.528447016537519</v>
+        <v>1.126793590652942</v>
       </c>
       <c r="C101">
-        <v>1.001611219215917</v>
+        <v>0.9385396365780855</v>
       </c>
       <c r="D101">
-        <v>1.913219012698428</v>
+        <v>1.129667536855888</v>
       </c>
       <c r="E101">
-        <v>1.767380400118659</v>
+        <v>1.450427509424789</v>
       </c>
       <c r="F101">
-        <v>3.668195192544142</v>
+        <v>0.5609257773923451</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.51853916706038</v>
+        <v>1.105091899140282</v>
       </c>
       <c r="C102">
-        <v>0.9943865681209251</v>
+        <v>0.9259000011937456</v>
       </c>
       <c r="D102">
-        <v>1.906391938929862</v>
+        <v>1.121471106183796</v>
       </c>
       <c r="E102">
-        <v>1.761224405660043</v>
+        <v>1.443158661538216</v>
       </c>
       <c r="F102">
-        <v>3.66488173784425</v>
+        <v>0.5549302688904691</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.508651479949455</v>
+        <v>1.08369707294353</v>
       </c>
       <c r="C103">
-        <v>0.9871241033914386</v>
+        <v>0.9134086168310892</v>
       </c>
       <c r="D103">
-        <v>1.899396800437595</v>
+        <v>1.113324368776396</v>
       </c>
       <c r="E103">
-        <v>1.755084441803205</v>
+        <v>1.435916992748774</v>
       </c>
       <c r="F103">
-        <v>3.661344931293863</v>
+        <v>0.5489926160243724</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.498785854561831</v>
+        <v>1.062608234166592</v>
       </c>
       <c r="C104">
-        <v>0.9798262568942738</v>
+        <v>0.9010643087559732</v>
       </c>
       <c r="D104">
-        <v>1.892238884611553</v>
+        <v>1.105227360892856</v>
       </c>
       <c r="E104">
-        <v>1.748960494547439</v>
+        <v>1.428702701446231</v>
       </c>
       <c r="F104">
-        <v>3.65758991834755</v>
+        <v>0.5431123802751296</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.488944098569366</v>
+        <v>1.041824398031685</v>
       </c>
       <c r="C105">
-        <v>0.972495428017903</v>
+        <v>0.8888658989134737</v>
       </c>
       <c r="D105">
-        <v>1.884923440740485</v>
+        <v>1.097180103875916</v>
       </c>
       <c r="E105">
-        <v>1.74285254969974</v>
+        <v>1.421515976435328</v>
       </c>
       <c r="F105">
-        <v>3.6536217302778</v>
+        <v>0.5372891243800827</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.479127945416466</v>
+        <v>1.021344478512117</v>
       </c>
       <c r="C106">
-        <v>0.9651339815367574</v>
+        <v>0.8768121940830992</v>
       </c>
       <c r="D106">
-        <v>1.877455680195699</v>
+        <v>1.089182610190533</v>
       </c>
       <c r="E106">
-        <v>1.736760592457355</v>
+        <v>1.414356993818074</v>
       </c>
       <c r="F106">
-        <v>3.649445289879702</v>
+        <v>0.531522412268018</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.469339058587269</v>
+        <v>1.001167290009999</v>
       </c>
       <c r="C107">
-        <v>0.9577442490753685</v>
+        <v>0.864902005280704</v>
       </c>
       <c r="D107">
-        <v>1.869840770297427</v>
+        <v>1.081234878862376</v>
       </c>
       <c r="E107">
-        <v>1.730684608338066</v>
+        <v>1.407225920591922</v>
       </c>
       <c r="F107">
-        <v>3.645065416842885</v>
+        <v>0.5258118088217066</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.459579021594833</v>
+        <v>0.9812915496031653</v>
       </c>
       <c r="C108">
-        <v>0.9503285300912934</v>
+        <v>0.8531341323455633</v>
       </c>
       <c r="D108">
-        <v>1.862083829299713</v>
+        <v>1.073336902628687</v>
       </c>
       <c r="E108">
-        <v>1.724624582490763</v>
+        <v>1.400122913343407</v>
       </c>
       <c r="F108">
-        <v>3.64048682359975</v>
+        <v>0.5201568802678775</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.449849357042761</v>
+        <v>0.9617158811257399</v>
       </c>
       <c r="C109">
-        <v>0.9428890889650369</v>
+        <v>0.8415073709138007</v>
       </c>
       <c r="D109">
-        <v>1.854189925561902</v>
+        <v>1.065488659033469</v>
       </c>
       <c r="E109">
-        <v>1.718580499879511</v>
+        <v>1.393048120770396</v>
       </c>
       <c r="F109">
-        <v>3.635714125518132</v>
+        <v>0.514557193935162</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.440151519013458</v>
+        <v>0.9424388177097937</v>
       </c>
       <c r="C110">
-        <v>0.9354281554970801</v>
+        <v>0.8300205177062771</v>
       </c>
       <c r="D110">
-        <v>1.846164068157769</v>
+        <v>1.057690114461763</v>
       </c>
       <c r="E110">
-        <v>1.712552345292546</v>
+        <v>1.386001678105537</v>
       </c>
       <c r="F110">
-        <v>3.630751839609062</v>
+        <v>0.5090123183076856</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.43048689684808</v>
+        <v>0.9234588059004869</v>
       </c>
       <c r="C111">
-        <v>0.9279479253295089</v>
+        <v>0.818672360338894</v>
       </c>
       <c r="D111">
-        <v>1.838011209615056</v>
+        <v>1.049941235841983</v>
       </c>
       <c r="E111">
-        <v>1.706540104166584</v>
+        <v>1.378983710071831</v>
       </c>
       <c r="F111">
-        <v>3.625604384377316</v>
+        <v>0.5035218240830125</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.420856823068191</v>
+        <v>0.9047742065006152</v>
       </c>
       <c r="C112">
-        <v>0.9204505617305824</v>
+        <v>0.8074616887029263</v>
       </c>
       <c r="D112">
-        <v>1.829736237374294</v>
+        <v>1.042241972950422</v>
       </c>
       <c r="E112">
-        <v>1.700543760844415</v>
+        <v>1.371994346888561</v>
       </c>
       <c r="F112">
-        <v>3.620276088807768</v>
+        <v>0.4980852830396969</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.411262567552126</v>
+        <v>0.8863832999797584</v>
       </c>
       <c r="C113">
-        <v>0.9129381905343902</v>
+        <v>0.7963872886206675</v>
       </c>
       <c r="D113">
-        <v>1.821343971929959</v>
+        <v>1.034592262991731</v>
       </c>
       <c r="E113">
-        <v>1.694563299888522</v>
+        <v>1.365033693945826</v>
       </c>
       <c r="F113">
-        <v>3.614771189234804</v>
+        <v>0.4927022674313227</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.401705346738469</v>
+        <v>0.8682842862300357</v>
       </c>
       <c r="C114">
-        <v>0.9054129033419844</v>
+        <v>0.7854479435189211</v>
       </c>
       <c r="D114">
-        <v>1.812839168154234</v>
+        <v>1.026992039546204</v>
       </c>
       <c r="E114">
-        <v>1.688598705777767</v>
+        <v>1.358101850379199</v>
       </c>
       <c r="F114">
-        <v>3.609093832254109</v>
+        <v>0.4873723511923232</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.392186323920904</v>
+        <v>0.8504752891806918</v>
       </c>
       <c r="C115">
-        <v>0.8978767572829611</v>
+        <v>0.7746424384740268</v>
       </c>
       <c r="D115">
-        <v>1.804226503253241</v>
+        <v>1.01944123803298</v>
       </c>
       <c r="E115">
-        <v>1.682649962908672</v>
+        <v>1.351198911224155</v>
       </c>
       <c r="F115">
-        <v>3.603248080591736</v>
+        <v>0.4820951095334977</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.382706605718882</v>
+        <v>0.8329543592168381</v>
       </c>
       <c r="C116">
-        <v>0.8903317754424773</v>
+        <v>0.7639695554990572</v>
       </c>
       <c r="D116">
-        <v>1.795510586437562</v>
+        <v>1.011939770375345</v>
       </c>
       <c r="E116">
-        <v>1.676717055166277</v>
+        <v>1.344324974339573</v>
       </c>
       <c r="F116">
-        <v>3.597237909910435</v>
+        <v>0.4768701194778914</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.373267253864752</v>
+        <v>0.8157194747680878</v>
       </c>
       <c r="C117">
-        <v>0.8827799434267772</v>
+        <v>0.7534280778512442</v>
       </c>
       <c r="D117">
-        <v>1.786695944995979</v>
+        <v>1.004487545691185</v>
       </c>
       <c r="E117">
-        <v>1.670799966870869</v>
+        <v>1.337480113322711</v>
       </c>
       <c r="F117">
-        <v>3.591067214752719</v>
+        <v>0.4716969613918442</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.363869279142405</v>
+        <v>0.7987685455701703</v>
       </c>
       <c r="C118">
-        <v>0.875223211947471</v>
+        <v>0.7430167885017652</v>
       </c>
       <c r="D118">
-        <v>1.777787028906947</v>
+        <v>0.9970844749581612</v>
       </c>
       <c r="E118">
-        <v>1.664898682102441</v>
+        <v>1.330664399903754</v>
       </c>
       <c r="F118">
-        <v>3.584739810216967</v>
+        <v>0.466575214624467</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.354513644643925</v>
+        <v>0.782099414152869</v>
       </c>
       <c r="C119">
-        <v>0.8676634977409566</v>
+        <v>0.7327344714558254</v>
       </c>
       <c r="D119">
-        <v>1.768788209890536</v>
+        <v>0.9897304550940681</v>
       </c>
       <c r="E119">
-        <v>1.659013184866058</v>
+        <v>1.323877906123412</v>
       </c>
       <c r="F119">
-        <v>3.578259430098525</v>
+        <v>0.4615044611396508</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.345201271695843</v>
+        <v>0.7657098588892074</v>
       </c>
       <c r="C120">
-        <v>0.8601026813208492</v>
+        <v>0.7225799132147964</v>
       </c>
       <c r="D120">
-        <v>1.759703772381808</v>
+        <v>0.982425378594568</v>
       </c>
       <c r="E120">
-        <v>1.653143459109929</v>
+        <v>1.317120694510264</v>
       </c>
       <c r="F120">
-        <v>3.571629734565171</v>
+        <v>0.4564842846193973</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.335933034640283</v>
+        <v>0.7495975960402494</v>
       </c>
       <c r="C121">
-        <v>0.8525426064877961</v>
+        <v>0.7125518970766092</v>
       </c>
       <c r="D121">
-        <v>1.750537923938521</v>
+        <v>0.9751691321188887</v>
       </c>
       <c r="E121">
-        <v>1.647289487647068</v>
+        <v>1.310392819720408</v>
       </c>
       <c r="F121">
-        <v>3.564854308083107</v>
+        <v>0.4515142705470855</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.326709768607697</v>
+        <v>0.7337602824212131</v>
       </c>
       <c r="C122">
-        <v>0.844985081552496</v>
+        <v>0.7026492147849386</v>
       </c>
       <c r="D122">
-        <v>1.741294780933803</v>
+        <v>0.967961596293663</v>
       </c>
       <c r="E122">
-        <v>1.641451254452202</v>
+        <v>1.303694332398929</v>
       </c>
       <c r="F122">
-        <v>3.557936660713074</v>
+        <v>0.4465940061275254</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.31753226819013</v>
+        <v>0.7181955176189689</v>
       </c>
       <c r="C123">
-        <v>0.8374318819015041</v>
+        <v>0.692870654110543</v>
       </c>
       <c r="D123">
-        <v>1.731978377355131</v>
+        <v>0.9608026481630728</v>
       </c>
       <c r="E123">
-        <v>1.63562874301929</v>
+        <v>1.297025276268708</v>
       </c>
       <c r="F123">
-        <v>3.550880233636831</v>
+        <v>0.4417230804388969</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.308401287108332</v>
+        <v>0.7029008465099458</v>
       </c>
       <c r="C124">
-        <v>0.8298847439134194</v>
+        <v>0.6832150052594185</v>
       </c>
       <c r="D124">
-        <v>1.722592661447399</v>
+        <v>0.9536921595071489</v>
       </c>
       <c r="E124">
-        <v>1.62982193671639</v>
+        <v>1.290385692156755</v>
       </c>
       <c r="F124">
-        <v>3.54368839685352</v>
+        <v>0.4369010840438925</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1.299317544185638</v>
+        <v>0.6878737614779431</v>
       </c>
       <c r="C125">
-        <v>0.8223453689501731</v>
+        <v>0.6736810703692926</v>
       </c>
       <c r="D125">
-        <v>1.713141490797204</v>
+        <v>0.9466299919687577</v>
       </c>
       <c r="E125">
-        <v>1.624030818819701</v>
+        <v>1.2837756156115</v>
       </c>
       <c r="F125">
-        <v>3.536364452493246</v>
+        <v>0.4321276086668348</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.290281720439653</v>
+        <v>0.6731117048987867</v>
       </c>
       <c r="C126">
-        <v>0.8148154229827407</v>
+        <v>0.664267637410091</v>
       </c>
       <c r="D126">
-        <v>1.703628641280309</v>
+        <v>0.9396160079782866</v>
       </c>
       <c r="E126">
-        <v>1.618255372008663</v>
+        <v>1.277195075199541</v>
       </c>
       <c r="F126">
-        <v>3.528911637772015</v>
+        <v>0.4274022489556044</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.281294461843198</v>
+        <v>0.6586120713789857</v>
       </c>
       <c r="C127">
-        <v>0.8072965380041019</v>
+        <v>0.6549735178766983</v>
       </c>
       <c r="D127">
-        <v>1.694057795451158</v>
+        <v>0.9326500636862221</v>
       </c>
       <c r="E127">
-        <v>1.612495579427603</v>
+        <v>1.270644093690392</v>
       </c>
       <c r="F127">
-        <v>3.521333122769464</v>
+        <v>0.4227246010063838</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1.272356382215703</v>
+        <v>0.6443722102540507</v>
       </c>
       <c r="C128">
-        <v>0.7997903075623535</v>
+        <v>0.6457975105718257</v>
       </c>
       <c r="D128">
-        <v>1.684432552264151</v>
+        <v>0.9257320097320126</v>
       </c>
       <c r="E128">
-        <v>1.606751423938378</v>
+        <v>1.264122692533164</v>
       </c>
       <c r="F128">
-        <v>3.513632016250634</v>
+        <v>0.4180942625253037</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1.263468060078564</v>
+        <v>0.630389427952715</v>
       </c>
       <c r="C129">
-        <v>0.7922982902056227</v>
+        <v>0.6367384210873717</v>
       </c>
       <c r="D129">
-        <v>1.674756422295207</v>
+        <v>0.9188616921402676</v>
       </c>
       <c r="E129">
-        <v>1.601022888268531</v>
+        <v>1.257630887510502</v>
       </c>
       <c r="F129">
-        <v>3.505811364881255</v>
+        <v>0.4135108327766036</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.254630044888524</v>
+        <v>0.6166609904739525</v>
       </c>
       <c r="C130">
-        <v>0.7848220101115171</v>
+        <v>0.6277950729065686</v>
       </c>
       <c r="D130">
-        <v>1.66503282739287</v>
+        <v>0.9120389538233983</v>
       </c>
       <c r="E130">
-        <v>1.595309955030039</v>
+        <v>1.251168687817011</v>
       </c>
       <c r="F130">
-        <v>3.497874153356856</v>
+        <v>0.4089739134333353</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.245842854912884</v>
+        <v>0.6031841257466382</v>
       </c>
       <c r="C131">
-        <v>0.7773629559834758</v>
+        <v>0.6189662669445094</v>
       </c>
       <c r="D131">
-        <v>1.655265106601928</v>
+        <v>0.9052636332528826</v>
       </c>
       <c r="E131">
-        <v>1.589612606880319</v>
+        <v>1.244736100393875</v>
       </c>
       <c r="F131">
-        <v>3.489823309350561</v>
+        <v>0.4044831078205597</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1.237106977753348</v>
+        <v>0.5899560261420072</v>
       </c>
       <c r="C132">
-        <v>0.7699225794755095</v>
+        <v>0.6102508414721022</v>
       </c>
       <c r="D132">
-        <v>1.645456508445157</v>
+        <v>0.8985355656658234</v>
       </c>
       <c r="E132">
-        <v>1.583930826189377</v>
+        <v>1.23833312762007</v>
       </c>
       <c r="F132">
-        <v>3.481661701101154</v>
+        <v>0.4000380212412868</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.228422874419377</v>
+        <v>0.5769738508555985</v>
       </c>
       <c r="C133">
-        <v>0.7625022972662385</v>
+        <v>0.6016476111717424</v>
       </c>
       <c r="D133">
-        <v>1.635610200063654</v>
+        <v>0.8918545821042231</v>
       </c>
       <c r="E133">
-        <v>1.578264595270924</v>
+        <v>1.231959767914182</v>
       </c>
       <c r="F133">
-        <v>3.473392139791703</v>
+        <v>0.3956382609767718</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.219790977056533</v>
+        <v>0.5642347283635092</v>
       </c>
       <c r="C134">
-        <v>0.7551034931624678</v>
+        <v>0.5931554050508059</v>
       </c>
       <c r="D134">
-        <v>1.625729261800831</v>
+        <v>0.8852205104306008</v>
       </c>
       <c r="E134">
-        <v>1.572613896341462</v>
+        <v>1.225616016292838</v>
       </c>
       <c r="F134">
-        <v>3.465017384363378</v>
+        <v>0.3912834361105668</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.211211691465416</v>
+        <v>0.5517357588184709</v>
       </c>
       <c r="C135">
-        <v>0.7477275135943037</v>
+        <v>0.5847730716882722</v>
       </c>
       <c r="D135">
-        <v>1.615816690530822</v>
+        <v>0.8786331752511064</v>
       </c>
       <c r="E135">
-        <v>1.566978711513811</v>
+        <v>1.219301863611189</v>
       </c>
       <c r="F135">
-        <v>3.456540140131865</v>
+        <v>0.3869731577492508</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.202685398488267</v>
+        <v>0.5394740164947782</v>
       </c>
       <c r="C136">
-        <v>0.7403756700942182</v>
+        <v>0.5764994318498795</v>
       </c>
       <c r="D136">
-        <v>1.605875402586882</v>
+        <v>0.8720923981838714</v>
       </c>
       <c r="E136">
-        <v>1.56135902301145</v>
+        <v>1.213017297453664</v>
       </c>
       <c r="F136">
-        <v>3.44796305669986</v>
+        <v>0.3827070390638522</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.194212452516371</v>
+        <v>0.5274465521863205</v>
       </c>
       <c r="C137">
-        <v>0.7330492396989444</v>
+        <v>0.568333356173311</v>
       </c>
       <c r="D137">
-        <v>1.595908229847888</v>
+        <v>0.8655979980665636</v>
       </c>
       <c r="E137">
-        <v>1.555754812732596</v>
+        <v>1.206762302085735</v>
       </c>
       <c r="F137">
-        <v>3.439288729430173</v>
+        <v>0.3784846952665243</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.185793185369554</v>
+        <v>0.5156503955837911</v>
       </c>
       <c r="C138">
-        <v>0.7257494669458321</v>
+        <v>0.5602736791002193</v>
       </c>
       <c r="D138">
-        <v>1.585917927291004</v>
+        <v>0.8591497905348965</v>
       </c>
       <c r="E138">
-        <v>1.550166062548214</v>
+        <v>1.200536858634556</v>
       </c>
       <c r="F138">
-        <v>3.430519712291234</v>
+        <v>0.3743057435235054</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.177427905011052</v>
+        <v>0.5040825576849246</v>
       </c>
       <c r="C139">
-        <v>0.718477559027865</v>
+        <v>0.5523192594627172</v>
       </c>
       <c r="D139">
-        <v>1.57590716811903</v>
+        <v>0.8527475867538982</v>
       </c>
       <c r="E139">
-        <v>1.544592754255892</v>
+        <v>1.194340945249861</v>
       </c>
       <c r="F139">
-        <v>3.421658508330029</v>
+        <v>0.3701698031073934</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.169116896263694</v>
+        <v>0.4927400330541999</v>
       </c>
       <c r="C140">
-        <v>0.7112346895927879</v>
+        <v>0.5444689739661874</v>
       </c>
       <c r="D140">
-        <v>1.565878548983829</v>
+        <v>0.8463911982758604</v>
       </c>
       <c r="E140">
-        <v>1.539034869570377</v>
+        <v>1.18817453701322</v>
       </c>
       <c r="F140">
-        <v>3.412707568772856</v>
+        <v>0.366076495278764</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.160860423264616</v>
+        <v>0.4816198022144101</v>
       </c>
       <c r="C141">
-        <v>0.7040219990729357</v>
+        <v>0.5367216687595719</v>
       </c>
       <c r="D141">
-        <v>1.555834590812831</v>
+        <v>0.8400804335715572</v>
       </c>
       <c r="E141">
-        <v>1.533492390068379</v>
+        <v>1.182037603354164</v>
       </c>
       <c r="F141">
-        <v>3.40366929066354</v>
+        <v>0.3620254433946235</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.152658728003593</v>
+        <v>0.470718833874107</v>
       </c>
       <c r="C142">
-        <v>0.6968405947163006</v>
+        <v>0.5290762513654291</v>
       </c>
       <c r="D142">
-        <v>1.545777738097073</v>
+        <v>0.8338150991923995</v>
       </c>
       <c r="E142">
-        <v>1.527965297306895</v>
+        <v>1.175930114726623</v>
       </c>
       <c r="F142">
-        <v>3.394546039802351</v>
+        <v>0.3580162730090876</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.144512032500256</v>
+        <v>0.4600340871042773</v>
       </c>
       <c r="C143">
-        <v>0.6896915482653827</v>
+        <v>0.5215315791073875</v>
       </c>
       <c r="D143">
-        <v>1.535710363655283</v>
+        <v>0.8275949999819544</v>
       </c>
       <c r="E143">
-        <v>1.522453572748076</v>
+        <v>1.1698520379452</v>
       </c>
       <c r="F143">
-        <v>3.385340132710086</v>
+        <v>0.354048611769081</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.136420539307639</v>
+        <v>0.4495625136691869</v>
       </c>
       <c r="C144">
-        <v>0.6825758985476471</v>
+        <v>0.5140865364349353</v>
       </c>
       <c r="D144">
-        <v>1.525634766694199</v>
+        <v>0.8214199313852698</v>
       </c>
       <c r="E144">
-        <v>1.516957197772036</v>
+        <v>1.163803337587374</v>
       </c>
       <c r="F144">
-        <v>3.376053839529577</v>
+        <v>0.3501220890119102</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.128384430821789</v>
+        <v>0.4393010599859344</v>
       </c>
       <c r="C145">
-        <v>0.6754946529975009</v>
+        <v>0.506740027139936</v>
       </c>
       <c r="D145">
-        <v>1.515553176732494</v>
+        <v>0.8152896937825204</v>
       </c>
       <c r="E145">
-        <v>1.511476153682285</v>
+        <v>1.157783976174511</v>
       </c>
       <c r="F145">
-        <v>3.366689378760942</v>
+        <v>0.3462363364275301</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.120403871965383</v>
+        <v>0.4292466693479568</v>
       </c>
       <c r="C146">
-        <v>0.668448784937797</v>
+        <v>0.4994909570799765</v>
       </c>
       <c r="D146">
-        <v>1.505467754293724</v>
+        <v>0.8092040867616487</v>
       </c>
       <c r="E146">
-        <v>1.506010421534207</v>
+        <v>1.151793914262143</v>
       </c>
       <c r="F146">
-        <v>3.357248940801682</v>
+        <v>0.3423909881392159</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.112479009228025</v>
+        <v>0.4193962839415868</v>
       </c>
       <c r="C147">
-        <v>0.6614392346052096</v>
+        <v>0.492338232610617</v>
       </c>
       <c r="D147">
-        <v>1.495380591912348</v>
+        <v>0.8031629069728824</v>
       </c>
       <c r="E147">
-        <v>1.500559982484405</v>
+        <v>1.145833096687995</v>
       </c>
       <c r="F147">
-        <v>3.347734670358149</v>
+        <v>0.3385856803172708</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.10460997143571</v>
+        <v>0.4097468467358434</v>
       </c>
       <c r="C148">
-        <v>0.6544669101652361</v>
+        <v>0.4852807727484271</v>
       </c>
       <c r="D148">
-        <v>1.4852937168994</v>
+        <v>0.7971659498765112</v>
       </c>
       <c r="E148">
-        <v>1.495124817566798</v>
+        <v>1.139901484990121</v>
       </c>
       <c r="F148">
-        <v>3.338148670889077</v>
+        <v>0.3348200513548497</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.096796871304413</v>
+        <v>0.400295303606866</v>
       </c>
       <c r="C149">
-        <v>0.6475326899211368</v>
+        <v>0.4783175067357667</v>
       </c>
       <c r="D149">
-        <v>1.475209091521453</v>
+        <v>0.7912130065872685</v>
       </c>
       <c r="E149">
-        <v>1.489704907720589</v>
+        <v>1.133999032012459</v>
       </c>
       <c r="F149">
-        <v>3.328492999828162</v>
+        <v>0.3310937418912785</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.089039803750405</v>
+        <v>0.3910386050122046</v>
       </c>
       <c r="C150">
-        <v>0.6406374178177565</v>
+        <v>0.4714473622026882</v>
       </c>
       <c r="D150">
-        <v>1.46512861555746</v>
+        <v>0.7853038599449448</v>
       </c>
       <c r="E150">
-        <v>1.484300233803563</v>
+        <v>1.128125688957252</v>
       </c>
       <c r="F150">
-        <v>3.318769685400762</v>
+        <v>0.327406394615298</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.081338849161919</v>
+        <v>0.3819737076104201</v>
       </c>
       <c r="C151">
-        <v>0.6337819070750532</v>
+        <v>0.4646692654690947</v>
       </c>
       <c r="D151">
-        <v>1.455054127375565</v>
+        <v>0.7794383048508273</v>
       </c>
       <c r="E151">
-        <v>1.47891077651786</v>
+        <v>1.122281405542933</v>
       </c>
       <c r="F151">
-        <v>3.308980715074756</v>
+        <v>0.3237576522289218</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1.073694072981709</v>
+        <v>0.373097576684001</v>
       </c>
       <c r="C152">
-        <v>0.62696694030509</v>
+        <v>0.4579821806941048</v>
       </c>
       <c r="D152">
-        <v>1.444987405489303</v>
+        <v>0.7736161296473527</v>
       </c>
       <c r="E152">
-        <v>1.473536516559424</v>
+        <v>1.116466130162002</v>
       </c>
       <c r="F152">
-        <v>3.299128039103536</v>
+        <v>0.320147163090443</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1.066105526304812</v>
+        <v>0.3644071875114565</v>
       </c>
       <c r="C153">
-        <v>0.6201932703578065</v>
+        <v>0.4513850426932088</v>
       </c>
       <c r="D153">
-        <v>1.434930170207857</v>
+        <v>0.7678371216570156</v>
       </c>
       <c r="E153">
-        <v>1.468177434524607</v>
+        <v>1.110679798433895</v>
       </c>
       <c r="F153">
-        <v>3.289213566482296</v>
+        <v>0.31657457649747</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.058573241905997</v>
+        <v>0.3558995258947028</v>
       </c>
       <c r="C154">
-        <v>0.6134616178564914</v>
+        <v>0.444876807196314</v>
       </c>
       <c r="D154">
-        <v>1.424884085093321</v>
+        <v>0.7621010673103633</v>
       </c>
       <c r="E154">
-        <v>1.462833510919526</v>
+        <v>1.104922356086395</v>
       </c>
       <c r="F154">
-        <v>3.279239177566813</v>
+        <v>0.3130395440318293</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.051097243033288</v>
+        <v>0.347571592861171</v>
       </c>
       <c r="C155">
-        <v>0.6067726738344271</v>
+        <v>0.4384564537020298</v>
       </c>
       <c r="D155">
-        <v>1.414850758261387</v>
+        <v>0.7564077444706673</v>
       </c>
       <c r="E155">
-        <v>1.457504726166469</v>
+        <v>1.099193744125107</v>
       </c>
       <c r="F155">
-        <v>3.269206716057199</v>
+        <v>0.3095417195793527</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1.043677539592737</v>
+        <v>0.3394204021014588</v>
       </c>
       <c r="C156">
-        <v>0.6001271007119653</v>
+        <v>0.4321229466430648</v>
       </c>
       <c r="D156">
-        <v>1.404831744214598</v>
+        <v>0.7507569374146272</v>
       </c>
       <c r="E156">
-        <v>1.452191060635875</v>
+        <v>1.093493900978232</v>
       </c>
       <c r="F156">
-        <v>3.259117991843762</v>
+        <v>0.3060807593496656</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1.036314128881008</v>
+        <v>0.331442984237528</v>
       </c>
       <c r="C157">
-        <v>0.5935255311593793</v>
+        <v>0.4258752701806356</v>
       </c>
       <c r="D157">
-        <v>1.394828545010215</v>
+        <v>0.7451484292172993</v>
       </c>
       <c r="E157">
-        <v>1.446892494584349</v>
+        <v>1.087822763107369</v>
       </c>
       <c r="F157">
-        <v>3.248974775908695</v>
+        <v>0.3026563200051089</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.029006989243703</v>
+        <v>0.3236363885848206</v>
       </c>
       <c r="C158">
-        <v>0.5869685681232962</v>
+        <v>0.4197124180267103</v>
       </c>
       <c r="D158">
-        <v>1.384842611614629</v>
+        <v>0.7395820008240254</v>
       </c>
       <c r="E158">
-        <v>1.441609008193244</v>
+        <v>1.082180265032032</v>
       </c>
       <c r="F158">
-        <v>3.238778813857568</v>
+        <v>0.2992680610026212</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.021756093352598</v>
+        <v>0.3159976803306395</v>
       </c>
       <c r="C159">
-        <v>0.5804567861573545</v>
+        <v>0.4136333867317928</v>
       </c>
       <c r="D159">
-        <v>1.374875345827032</v>
+        <v>0.7340574323825937</v>
       </c>
       <c r="E159">
-        <v>1.436340581566439</v>
+        <v>1.076566339810051</v>
       </c>
       <c r="F159">
-        <v>3.228531817375381</v>
+        <v>0.2959156460693585</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.014561401776121</v>
+        <v>0.3085239477901924</v>
       </c>
       <c r="C160">
-        <v>0.5739907333367169</v>
+        <v>0.4076371829264696</v>
       </c>
       <c r="D160">
-        <v>1.364928100709512</v>
+        <v>0.728574502289459</v>
       </c>
       <c r="E160">
-        <v>1.431087194727889</v>
+        <v>1.07098091864284</v>
       </c>
       <c r="F160">
-        <v>3.218235467391774</v>
+        <v>0.2925987400821764</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1.007422863630774</v>
+        <v>0.3012122988623501</v>
       </c>
       <c r="C161">
-        <v>0.5675709279923837</v>
+        <v>0.401722821295052</v>
       </c>
       <c r="D161">
-        <v>1.355002183103619</v>
+        <v>0.7231329865826033</v>
       </c>
       <c r="E161">
-        <v>1.425848827656468</v>
+        <v>1.065423931041588</v>
       </c>
       <c r="F161">
-        <v>3.207891407201538</v>
+        <v>0.2893170102180764</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1.000340411600507</v>
+        <v>0.2940598632145969</v>
       </c>
       <c r="C162">
-        <v>0.5611978615107359</v>
+        <v>0.3958893243175697</v>
       </c>
       <c r="D162">
-        <v>1.345098854033409</v>
+        <v>0.7177326640134025</v>
       </c>
       <c r="E162">
-        <v>1.420625460219747</v>
+        <v>1.059895308218208</v>
       </c>
       <c r="F162">
-        <v>3.197501258413922</v>
+        <v>0.2860701259664237</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.9933139729368277</v>
+        <v>0.2870637957257198</v>
       </c>
       <c r="C163">
-        <v>0.5548719984812315</v>
+        <v>0.3901357189885708</v>
       </c>
       <c r="D163">
-        <v>1.33521933025499</v>
+        <v>0.7123733112790532</v>
       </c>
       <c r="E163">
-        <v>1.415417072214307</v>
+        <v>1.054394976688724</v>
       </c>
       <c r="F163">
-        <v>3.18706661082907</v>
+        <v>0.2828577591411655</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.9863434642138097</v>
+        <v>0.2802212735224109</v>
       </c>
       <c r="C164">
-        <v>0.5485937778513132</v>
+        <v>0.3844610446882057</v>
       </c>
       <c r="D164">
-        <v>1.325364786015747</v>
+        <v>0.7070547045168407</v>
       </c>
       <c r="E164">
-        <v>1.410223643364794</v>
+        <v>1.048922862408033</v>
       </c>
       <c r="F164">
-        <v>3.176589025800452</v>
+        <v>0.27967958076472</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.9794287917752857</v>
+        <v>0.2735295010549258</v>
       </c>
       <c r="C165">
-        <v>0.5423636109778958</v>
+        <v>0.3788643476195076</v>
       </c>
       <c r="D165">
-        <v>1.315536353172135</v>
+        <v>0.7017766193771593</v>
       </c>
       <c r="E165">
-        <v>1.405045153321125</v>
+        <v>1.043478890342395</v>
       </c>
       <c r="F165">
-        <v>3.166070030880432</v>
+        <v>0.2765352684307822</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.9725698491692636</v>
+        <v>0.2669857084851155</v>
       </c>
       <c r="C166">
-        <v>0.5361818838398315</v>
+        <v>0.3733446821243646</v>
       </c>
       <c r="D166">
-        <v>1.305735123861736</v>
+        <v>0.6965388298477304</v>
       </c>
       <c r="E166">
-        <v>1.399881581647302</v>
+        <v>1.03806298436562</v>
       </c>
       <c r="F166">
-        <v>3.155511131697363</v>
+        <v>0.2734245004163494</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.9657665235734931</v>
+        <v>0.2605871523119258</v>
       </c>
       <c r="C167">
-        <v>0.5300489576230085</v>
+        <v>0.3679011106835201</v>
       </c>
       <c r="D167">
-        <v>1.29596214981222</v>
+        <v>0.6913411108033254</v>
       </c>
       <c r="E167">
-        <v>1.39473290784485</v>
+        <v>1.032675067336394</v>
       </c>
       <c r="F167">
-        <v>3.144913805724568</v>
+        <v>0.2703469572517483</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.9590186929770873</v>
+        <v>0.2543311187716953</v>
       </c>
       <c r="C168">
-        <v>0.5239651686668274</v>
+        <v>0.3625327039165726</v>
       </c>
       <c r="D168">
-        <v>1.28621844508351</v>
+        <v>0.6861832366146946</v>
       </c>
       <c r="E168">
-        <v>1.389599111340341</v>
+        <v>1.027315061052021</v>
       </c>
       <c r="F168">
-        <v>3.13427950376253</v>
+        <v>0.2673023217509363</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.9523262265062553</v>
+        <v>0.2482149209461081</v>
       </c>
       <c r="C169">
-        <v>0.5179308281515809</v>
+        <v>0.3572385380958431</v>
       </c>
       <c r="D169">
-        <v>1.276504987596425</v>
+        <v>0.6810649812293161</v>
       </c>
       <c r="E169">
-        <v>1.384480171486102</v>
+        <v>1.021982886435075</v>
       </c>
       <c r="F169">
-        <v>3.123609646707725</v>
+        <v>0.2642902790173837</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.9456889832700347</v>
+        <v>0.2422359024389811</v>
       </c>
       <c r="C170">
-        <v>0.5119462234156402</v>
+        <v>0.3520177000655644</v>
       </c>
       <c r="D170">
-        <v>1.266822719637153</v>
+        <v>0.6759861183903152</v>
       </c>
       <c r="E170">
-        <v>1.37937606756215</v>
+        <v>1.016678463571684</v>
       </c>
       <c r="F170">
-        <v>3.112905633202428</v>
+        <v>0.2613105158468678</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.9391068158510564</v>
+        <v>0.2363914371815604</v>
       </c>
       <c r="C171">
-        <v>0.5060116190267787</v>
+        <v>0.346869285011049</v>
       </c>
       <c r="D171">
-        <v>1.257172543802618</v>
+        <v>0.6709464210509768</v>
       </c>
       <c r="E171">
-        <v>1.374286778747907</v>
+        <v>1.011401709152022</v>
       </c>
       <c r="F171">
-        <v>3.102168836871067</v>
+        <v>0.2583627210754976</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.9325795690185844</v>
+        <v>0.2306789279050766</v>
       </c>
       <c r="C172">
-        <v>0.5001272556361691</v>
+        <v>0.3417923956081268</v>
       </c>
       <c r="D172">
-        <v>1.247555335119885</v>
+        <v>0.6659456612956182</v>
       </c>
       <c r="E172">
-        <v>1.369212284177512</v>
+        <v>1.006152541573098</v>
       </c>
       <c r="F172">
-        <v>3.09140060646603</v>
+        <v>0.2554465869959423</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.9261070800156891</v>
+        <v>0.2250958105634315</v>
       </c>
       <c r="C173">
-        <v>0.4942933512150593</v>
+        <v>0.3367861426351109</v>
       </c>
       <c r="D173">
-        <v>1.237971934772207</v>
+        <v>0.6609836128780603</v>
       </c>
       <c r="E173">
-        <v>1.364152562909876</v>
+        <v>1.000930877841944</v>
       </c>
       <c r="F173">
-        <v>3.080602263874586</v>
+        <v>0.2525618075898247</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.9196891767232211</v>
+        <v>0.2196395513717972</v>
       </c>
       <c r="C174">
-        <v>0.488510101576857</v>
+        <v>0.3318496449727977</v>
       </c>
       <c r="D174">
-        <v>1.228423150670477</v>
+        <v>0.6560600487560837</v>
       </c>
       <c r="E174">
-        <v>1.359107593928201</v>
+        <v>0.9957366339813717</v>
       </c>
       <c r="F174">
-        <v>3.069775109196526</v>
+        <v>0.249708079106355</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.9133256819665369</v>
+        <v>0.2143076486049049</v>
       </c>
       <c r="C175">
-        <v>0.4827776813014369</v>
+        <v>0.3269820305112293</v>
       </c>
       <c r="D175">
-        <v>1.21890975550617</v>
+        <v>0.6511747419047729</v>
       </c>
       <c r="E175">
-        <v>1.35407735614392</v>
+        <v>0.9905697245431533</v>
       </c>
       <c r="F175">
-        <v>3.058920420054357</v>
+        <v>0.2468851000649115</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.9070164117955706</v>
+        <v>0.2090976339511621</v>
       </c>
       <c r="C176">
-        <v>0.477096242849414</v>
+        <v>0.3221824356870363</v>
       </c>
       <c r="D176">
-        <v>1.209432499730483</v>
+        <v>0.6463274653750413</v>
       </c>
       <c r="E176">
-        <v>1.349061828386082</v>
+        <v>0.9854300624998558</v>
       </c>
       <c r="F176">
-        <v>3.048039450928793</v>
+        <v>0.2440925712576204</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.900761175683861</v>
+        <v>0.2040070700548212</v>
       </c>
       <c r="C177">
-        <v>0.4714659179793975</v>
+        <v>0.3174500030274093</v>
       </c>
       <c r="D177">
-        <v>1.199992102872955</v>
+        <v>0.6415179896122193</v>
       </c>
       <c r="E177">
-        <v>1.344060989422381</v>
+        <v>0.980317561596226</v>
       </c>
       <c r="F177">
-        <v>3.037133431750179</v>
+        <v>0.2413301949356585</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.8945597746891887</v>
+        <v>0.1990335543295025</v>
       </c>
       <c r="C178">
-        <v>0.4658868181399949</v>
+        <v>0.3127838841781537</v>
       </c>
       <c r="D178">
-        <v>1.190589252055867</v>
+        <v>0.6367460881490938</v>
       </c>
       <c r="E178">
-        <v>1.339074817948485</v>
+        <v>0.9752321341230497</v>
       </c>
       <c r="F178">
-        <v>3.026203571522285</v>
+        <v>0.2385976765797773</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.8884120057428225</v>
+        <v>0.1941747168246695</v>
       </c>
       <c r="C179">
-        <v>0.460359034900464</v>
+        <v>0.308183238918638</v>
       </c>
       <c r="D179">
-        <v>1.181224608060225</v>
+        <v>0.6320115339997817</v>
       </c>
       <c r="E179">
-        <v>1.334103292587594</v>
+        <v>0.9701736915969726</v>
       </c>
       <c r="F179">
-        <v>3.015251059012792</v>
+        <v>0.2358947237198109</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.8823176599265422</v>
+        <v>0.1894282207016784</v>
       </c>
       <c r="C180">
-        <v>0.4548826399412426</v>
+        <v>0.3036472351617938</v>
       </c>
       <c r="D180">
-        <v>1.171898808692138</v>
+        <v>0.6273141000907839</v>
       </c>
       <c r="E180">
-        <v>1.329146391892233</v>
+        <v>0.965142144760601</v>
       </c>
       <c r="F180">
-        <v>3.004277061379549</v>
+        <v>0.233221046053069</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.8762765225949098</v>
+        <v>0.1847917640725158</v>
       </c>
       <c r="C181">
-        <v>0.4494576859395502</v>
+        <v>0.2991750491114571</v>
       </c>
       <c r="D181">
-        <v>1.162612464918487</v>
+        <v>0.6226535595454034</v>
       </c>
       <c r="E181">
-        <v>1.324204094350894</v>
+        <v>0.9601374036693272</v>
       </c>
       <c r="F181">
-        <v>2.993282723274812</v>
+        <v>0.230576355531564</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.8702883718945591</v>
+        <v>0.1802630773017943</v>
       </c>
       <c r="C182">
-        <v>0.4440842070747908</v>
+        <v>0.294765867994427</v>
       </c>
       <c r="D182">
-        <v>1.153366157172767</v>
+        <v>0.6180296849494759</v>
       </c>
       <c r="E182">
-        <v>1.319276378376753</v>
+        <v>0.9551593776858217</v>
       </c>
       <c r="F182">
-        <v>2.98226916925986</v>
+        <v>0.2279603663626554</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.8643529823538949</v>
+        <v>0.1758399260092011</v>
       </c>
       <c r="C183">
-        <v>0.4387622192173737</v>
+        <v>0.2904188827709998</v>
       </c>
       <c r="D183">
-        <v>1.144160447495026</v>
+        <v>0.6134422485046149</v>
       </c>
       <c r="E183">
-        <v>1.314363222313997</v>
+        <v>0.9502079755134178</v>
       </c>
       <c r="F183">
-        <v>2.971237505652092</v>
+        <v>0.225372794760528</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.8584701234969745</v>
+        <v>0.1715201096790234</v>
       </c>
       <c r="C184">
-        <v>0.4334917204458222</v>
+        <v>0.2861332943185999</v>
       </c>
       <c r="D184">
-        <v>1.134995873234198</v>
+        <v>0.6088910243975999</v>
       </c>
       <c r="E184">
-        <v>1.309464604438917</v>
+        <v>0.9452831053779388</v>
       </c>
       <c r="F184">
-        <v>2.960188818538469</v>
+        <v>0.2228133588022992</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.8526395599250693</v>
+        <v>0.1673014609603979</v>
       </c>
       <c r="C185">
-        <v>0.4282726915555427</v>
+        <v>0.2819083116870463</v>
       </c>
       <c r="D185">
-        <v>1.125872948283884</v>
+        <v>0.6043757863127729</v>
       </c>
       <c r="E185">
-        <v>1.304580502959387</v>
+        <v>0.9403846750461309</v>
       </c>
       <c r="F185">
-        <v>2.949124173437244</v>
+        <v>0.2202817796878691</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.8468610502620798</v>
+        <v>0.1631818479185585</v>
       </c>
       <c r="C186">
-        <v>0.4231050964122399</v>
+        <v>0.2777431520985522</v>
       </c>
       <c r="D186">
-        <v>1.116792161389968</v>
+        <v>0.5998963082400857</v>
       </c>
       <c r="E186">
-        <v>1.299710896021179</v>
+        <v>0.9355125913710522</v>
       </c>
       <c r="F186">
-        <v>2.938044616600633</v>
+        <v>0.2177777804578833</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.841134349884379</v>
+        <v>0.1591591717287671</v>
       </c>
       <c r="C187">
-        <v>0.417988882552901</v>
+        <v>0.2736370409477257</v>
       </c>
       <c r="D187">
-        <v>1.107753984107584</v>
+        <v>0.5954523645121178</v>
       </c>
       <c r="E187">
-        <v>1.294855761697548</v>
+        <v>0.9306667608251623</v>
       </c>
       <c r="F187">
-        <v>2.926951177681314</v>
+        <v>0.2153010863817895</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.8354592099445226</v>
+        <v>0.1552313679298824</v>
       </c>
       <c r="C188">
-        <v>0.4129239815224525</v>
+        <v>0.2695892097430803</v>
       </c>
       <c r="D188">
-        <v>1.09875886604215</v>
+        <v>0.5910437286843544</v>
       </c>
       <c r="E188">
-        <v>1.290015077994928</v>
+        <v>0.9258470893793241</v>
       </c>
       <c r="F188">
-        <v>2.91584486742484</v>
+        <v>0.2128514249565535</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.8298353774420251</v>
+        <v>0.1513964064546073</v>
       </c>
       <c r="C189">
-        <v>0.4079103093517719</v>
+        <v>0.2655989000481577</v>
       </c>
       <c r="D189">
-        <v>1.089807234834866</v>
+        <v>0.5866701760288165</v>
       </c>
       <c r="E189">
-        <v>1.285188822854278</v>
+        <v>0.9210534825316158</v>
       </c>
       <c r="F189">
-        <v>2.904726677769306</v>
+        <v>0.2104285259053746</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.8242625943536882</v>
+        <v>0.1476522901384494</v>
       </c>
       <c r="C190">
-        <v>0.4029477670071996</v>
+        <v>0.2616653619910407</v>
       </c>
       <c r="D190">
-        <v>1.080899498015886</v>
+        <v>0.5823314818482147</v>
       </c>
       <c r="E190">
-        <v>1.280376974150591</v>
+        <v>0.9162858453361414</v>
       </c>
       <c r="F190">
-        <v>2.893597582290296</v>
+        <v>0.2080321201828468</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.8187405999057413</v>
+        <v>0.1439970566345425</v>
       </c>
       <c r="C191">
-        <v>0.398036240837318</v>
+        <v>0.2577878532238236</v>
       </c>
       <c r="D191">
-        <v>1.072036046698289</v>
+        <v>0.5780274218084284</v>
       </c>
       <c r="E191">
-        <v>1.275579509691533</v>
+        <v>0.9115440821789362</v>
       </c>
       <c r="F191">
-        <v>2.882458539308785</v>
+        <v>0.2056619418882189</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.8132691298091291</v>
+        <v>0.1404287766735401</v>
       </c>
       <c r="C192">
-        <v>0.3931756014593137</v>
+        <v>0.2539656395341733</v>
       </c>
       <c r="D192">
-        <v>1.063217252837179</v>
+        <v>0.5737577720342594</v>
       </c>
       <c r="E192">
-        <v>1.27079640722106</v>
+        <v>0.9068280970625917</v>
       </c>
       <c r="F192">
-        <v>2.871310489514259</v>
+        <v>0.2033177273874082</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.8078479163134277</v>
+        <v>0.1369455543007162</v>
       </c>
       <c r="C193">
-        <v>0.3883657077992665</v>
+        <v>0.2501979948453299</v>
       </c>
       <c r="D193">
-        <v>1.054443466836213</v>
+        <v>0.5695223088446177</v>
       </c>
       <c r="E193">
-        <v>1.266027644418355</v>
+        <v>0.902137793970207</v>
       </c>
       <c r="F193">
-        <v>2.860154356326771</v>
+        <v>0.2009992149937204</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.8024766873613045</v>
+        <v>0.1335455274962997</v>
       </c>
       <c r="C194">
-        <v>0.3836064046992353</v>
+        <v>0.2464841975813869</v>
       </c>
       <c r="D194">
-        <v>1.04571502472165</v>
+        <v>0.5653208089144244</v>
       </c>
       <c r="E194">
-        <v>1.261273198897876</v>
+        <v>0.8974730763559734</v>
       </c>
       <c r="F194">
-        <v>2.848991045735139</v>
+        <v>0.1987061451957034</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.7971551687182278</v>
+        <v>0.1302268663272146</v>
       </c>
       <c r="C195">
-        <v>0.3788975241293742</v>
+        <v>0.2428235314221371</v>
       </c>
       <c r="D195">
-        <v>1.03703224573561</v>
+        <v>0.5611530499905544</v>
       </c>
       <c r="E195">
-        <v>1.256533048210072</v>
+        <v>0.8928338473592755</v>
       </c>
       <c r="F195">
-        <v>2.837821449673277</v>
+        <v>0.1964382606530548</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.791883083269139</v>
+        <v>0.1269877745822595</v>
       </c>
       <c r="C196">
-        <v>0.3742388856347351</v>
+        <v>0.2392152978337988</v>
       </c>
       <c r="D196">
-        <v>1.028395432119684</v>
+        <v>0.5570188101165766</v>
       </c>
       <c r="E196">
-        <v>1.251807169837635</v>
+        <v>0.8882200098328025</v>
       </c>
       <c r="F196">
-        <v>2.826646443622833</v>
+        <v>0.1941953060254451</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.7866601510405404</v>
+        <v>0.1238264883459977</v>
       </c>
       <c r="C197">
-        <v>0.3696302967820709</v>
+        <v>0.2356588017153901</v>
       </c>
       <c r="D197">
-        <v>1.019804866687553</v>
+        <v>0.5529178679133506</v>
       </c>
       <c r="E197">
-        <v>1.247095541203251</v>
+        <v>0.8836314663706591</v>
       </c>
       <c r="F197">
-        <v>2.815466887145242</v>
+        <v>0.1919770274600661</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.7814860883904434</v>
+        <v>0.1207412756790595</v>
       </c>
       <c r="C198">
-        <v>0.3650715493871871</v>
+        <v>0.2321533559639662</v>
       </c>
       <c r="D198">
-        <v>1.011260820985602</v>
+        <v>0.5488500026079628</v>
       </c>
       <c r="E198">
-        <v>1.242398139666768</v>
+        <v>0.8790681179794565</v>
       </c>
       <c r="F198">
-        <v>2.804283623258252</v>
+        <v>0.1897831744050816</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.7763606100139687</v>
+        <v>0.1177304373502256</v>
       </c>
       <c r="C199">
-        <v>0.3605624292283062</v>
+        <v>0.2286982814746193</v>
       </c>
       <c r="D199">
-        <v>1.002763550245789</v>
+        <v>0.5448149929450459</v>
       </c>
       <c r="E199">
-        <v>1.237714942524569</v>
+        <v>0.8745298661144379</v>
       </c>
       <c r="F199">
-        <v>2.793097482047102</v>
+        <v>0.1876134979545697</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.7712834282921166</v>
+        <v>0.1147923053064025</v>
       </c>
       <c r="C200">
-        <v>0.3561027098345345</v>
+        <v>0.2252929069503741</v>
       </c>
       <c r="D200">
-        <v>0.9943132939850157</v>
+        <v>0.5408126196586502</v>
       </c>
       <c r="E200">
-        <v>1.233045927010686</v>
+        <v>0.8700166130236564</v>
       </c>
       <c r="F200">
-        <v>2.781909278210387</v>
+        <v>0.1854677513209624</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.7662542532833816</v>
+        <v>0.1119252432941178</v>
       </c>
       <c r="C201">
-        <v>0.3516921541230442</v>
+        <v>0.2219365593234473</v>
       </c>
       <c r="D201">
-        <v>0.9859102763062152</v>
+        <v>0.5368426636798004</v>
       </c>
       <c r="E201">
-        <v>1.228391070296258</v>
+        <v>0.8655282600641293</v>
       </c>
       <c r="F201">
-        <v>2.770719811735291</v>
+        <v>0.1833456898288417</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.7612727920165573</v>
+        <v>0.1091276462922148</v>
       </c>
       <c r="C202">
-        <v>0.3473305150819347</v>
+        <v>0.2186285851590921</v>
       </c>
       <c r="D202">
-        <v>0.9775547098949859</v>
+        <v>0.5329049065742419</v>
       </c>
       <c r="E202">
-        <v>1.223750349491522</v>
+        <v>0.8610647084062507</v>
       </c>
       <c r="F202">
-        <v>2.759529866918626</v>
+        <v>0.1812470709087365</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.7563387502682766</v>
+        <v>0.1063979396923192</v>
       </c>
       <c r="C203">
-        <v>0.3430175362051582</v>
+        <v>0.2153683344042356</v>
       </c>
       <c r="D203">
-        <v>0.9692467932270146</v>
+        <v>0.528999130595414</v>
       </c>
       <c r="E203">
-        <v>1.219123741645525</v>
+        <v>0.8566258590578323</v>
       </c>
       <c r="F203">
-        <v>2.748340216129453</v>
+        <v>0.1791716537023788</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.7514518320088378</v>
+        <v>0.1037345798886187</v>
       </c>
       <c r="C204">
-        <v>0.3387529450545915</v>
+        <v>0.2121551646170077</v>
       </c>
       <c r="D204">
-        <v>0.960986709888966</v>
+        <v>0.5251251182507743</v>
       </c>
       <c r="E204">
-        <v>1.214511223746231</v>
+        <v>0.8522116128881447</v>
       </c>
       <c r="F204">
-        <v>2.737151617329904</v>
+        <v>0.1771191996794754</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.7466117393778848</v>
+        <v>0.1011360531232802</v>
       </c>
       <c r="C205">
-        <v>0.3345364678425961</v>
+        <v>0.2089884372780018</v>
       </c>
       <c r="D205">
-        <v>0.9527746317661933</v>
+        <v>0.5212826526425572</v>
       </c>
       <c r="E205">
-        <v>1.209912772721073</v>
+        <v>0.8478218686568039</v>
       </c>
       <c r="F205">
-        <v>2.725964814861522</v>
+        <v>0.175089472586771</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.741818172091644</v>
+        <v>0.09860087546303095</v>
       </c>
       <c r="C206">
-        <v>0.3303678212358357</v>
+        <v>0.2058675249491707</v>
       </c>
       <c r="D206">
-        <v>0.9446107190070558</v>
+        <v>0.5174715182868961</v>
       </c>
       <c r="E206">
-        <v>1.205328365439187</v>
+        <v>0.8434565266286922</v>
       </c>
       <c r="F206">
-        <v>2.714780538229947</v>
+        <v>0.1730822380747736</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.7370708289671707</v>
+        <v>0.09612759264021227</v>
       </c>
       <c r="C207">
-        <v>0.3262467129359154</v>
+        <v>0.2027918071215021</v>
       </c>
       <c r="D207">
-        <v>0.9364951194260711</v>
+        <v>0.5136915000965592</v>
       </c>
       <c r="E207">
-        <v>1.2007579787086</v>
+        <v>0.8391154875352388</v>
       </c>
       <c r="F207">
-        <v>2.703599505866924</v>
+        <v>0.171097263847802</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.7323694074740066</v>
+        <v>0.09371477908503366</v>
       </c>
       <c r="C208">
-        <v>0.3221728429867565</v>
+        <v>0.1997606703814721</v>
       </c>
       <c r="D208">
-        <v>0.9284279665833797</v>
+        <v>0.5099423837349705</v>
       </c>
       <c r="E208">
-        <v>1.196201589277822</v>
+        <v>0.8347986513310219</v>
       </c>
       <c r="F208">
-        <v>2.692422422718733</v>
+        <v>0.1691343196564422</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.7277136037037236</v>
+        <v>0.09136103828558788</v>
       </c>
       <c r="C209">
-        <v>0.3181459041869818</v>
+        <v>0.1967735065274136</v>
       </c>
       <c r="D209">
-        <v>0.9204093855861505</v>
+        <v>0.5062239556346183</v>
       </c>
       <c r="E209">
-        <v>1.191659173836876</v>
+        <v>0.830505917866955</v>
       </c>
       <c r="F209">
-        <v>2.681249981093469</v>
+        <v>0.1671931772557648</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.7231031118524723</v>
+        <v>0.08906500177486978</v>
       </c>
       <c r="C210">
-        <v>0.3141655744319921</v>
+        <v>0.193829716066756</v>
       </c>
       <c r="D210">
-        <v>0.9124394896425465</v>
+        <v>0.502536002124115</v>
       </c>
       <c r="E210">
-        <v>1.1871307090173</v>
+        <v>0.8262371869091567</v>
       </c>
       <c r="F210">
-        <v>2.67008285931196</v>
+        <v>0.1652736099816703</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.7185376255570013</v>
+        <v>0.08682532889162323</v>
       </c>
       <c r="C211">
-        <v>0.310231532380895</v>
+        <v>0.1909287075246765</v>
       </c>
       <c r="D211">
-        <v>0.9045183806844372</v>
+        <v>0.4988783114533449</v>
       </c>
       <c r="E211">
-        <v>1.182616171394204</v>
+        <v>0.8219923581578197</v>
       </c>
       <c r="F211">
-        <v>2.65892172535559</v>
+        <v>0.1633753938533872</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.7140168375226078</v>
+        <v>0.08464070697701609</v>
       </c>
       <c r="C212">
-        <v>0.3063434508914736</v>
+        <v>0.1880698961828337</v>
       </c>
       <c r="D212">
-        <v>0.8966461489047165</v>
+        <v>0.495250672244101</v>
       </c>
       <c r="E212">
-        <v>1.178115537483859</v>
+        <v>0.8177713295999313</v>
       </c>
       <c r="F212">
-        <v>2.647767234585947</v>
+        <v>0.1614983066283468</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.7095404394854256</v>
+        <v>0.08250985056967251</v>
       </c>
       <c r="C213">
-        <v>0.3025009950692432</v>
+        <v>0.1852527012662454</v>
       </c>
       <c r="D213">
-        <v>0.88882287629907</v>
+        <v>0.4916528739238084</v>
       </c>
       <c r="E213">
-        <v>1.173628783745065</v>
+        <v>0.8135740009260556</v>
       </c>
       <c r="F213">
-        <v>2.636620030610752</v>
+        <v>0.1596421280564937</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.7051081217355654</v>
+        <v>0.08043150040152332</v>
       </c>
       <c r="C214">
-        <v>0.2987038243904844</v>
+        <v>0.1824765495176253</v>
       </c>
       <c r="D214">
-        <v>0.8810486343450985</v>
+        <v>0.488084706742056</v>
       </c>
       <c r="E214">
-        <v>1.169155886580207</v>
+        <v>0.8094002717026558</v>
       </c>
       <c r="F214">
-        <v>2.625480743868951</v>
+        <v>0.1578066398716872</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.70071957433204</v>
+        <v>0.07840442347607561</v>
       </c>
       <c r="C215">
-        <v>0.2949515930847533</v>
+        <v>0.1797408782092003</v>
       </c>
       <c r="D215">
-        <v>0.8733234837633942</v>
+        <v>0.4845459614973548</v>
       </c>
       <c r="E215">
-        <v>1.164696822335292</v>
+        <v>0.8052500411211074</v>
       </c>
       <c r="F215">
-        <v>2.614349995113231</v>
+        <v>0.1559916257831029</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.6963744867780721</v>
+        <v>0.07642741381698907</v>
       </c>
       <c r="C216">
-        <v>0.2912439425153721</v>
+        <v>0.1770451301246263</v>
       </c>
       <c r="D216">
-        <v>0.8656474761010374</v>
+        <v>0.4810364298165919</v>
       </c>
       <c r="E216">
-        <v>1.160251567300707</v>
+        <v>0.8011232083400692</v>
       </c>
       <c r="F216">
-        <v>2.603228393286902</v>
+        <v>0.1541968712265625</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.6920725479717873</v>
+        <v>0.07449929083728295</v>
       </c>
       <c r="C217">
-        <v>0.2875805150412659</v>
+        <v>0.1743887552428724</v>
       </c>
       <c r="D217">
-        <v>0.8580206545872029</v>
+        <v>0.4775559045332798</v>
       </c>
       <c r="E217">
-        <v>1.155820097711034</v>
+        <v>0.7970196725006681</v>
       </c>
       <c r="F217">
-        <v>2.59211653631296</v>
+        <v>0.1524221636295059</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.6878134457640753</v>
+        <v>0.07261889812687403</v>
       </c>
       <c r="C218">
-        <v>0.2839609513054531</v>
+        <v>0.1717712107569432</v>
       </c>
       <c r="D218">
-        <v>0.850443053269719</v>
+        <v>0.4741041791556207</v>
       </c>
       <c r="E218">
-        <v>1.151402389745632</v>
+        <v>0.792939332741685</v>
       </c>
       <c r="F218">
-        <v>2.58101500997636</v>
+        <v>0.1506672926385637</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.6835968680729418</v>
+        <v>0.07078510392814939</v>
       </c>
       <c r="C219">
-        <v>0.2803848852063326</v>
+        <v>0.1691919610926016</v>
       </c>
       <c r="D219">
-        <v>0.8429146958699627</v>
+        <v>0.4706810480623859</v>
       </c>
       <c r="E219">
-        <v>1.146998419529205</v>
+        <v>0.7888820871278053</v>
       </c>
       <c r="F219">
-        <v>2.569924390583586</v>
+        <v>0.1489320496694976</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.6794225025969893</v>
+        <v>0.06899680219081342</v>
       </c>
       <c r="C220">
-        <v>0.2768519468064978</v>
+        <v>0.1666504689180061</v>
       </c>
       <c r="D220">
-        <v>0.8354355993780227</v>
+        <v>0.4672863065006319</v>
       </c>
       <c r="E220">
-        <v>1.14260816313212</v>
+        <v>0.7848478350852647</v>
       </c>
       <c r="F220">
-        <v>2.558845243643302</v>
+        <v>0.1472162280540487</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.6752900367546726</v>
+        <v>0.06725291034015911</v>
       </c>
       <c r="C221">
-        <v>0.2733617626814587</v>
+        <v>0.1641462121691127</v>
       </c>
       <c r="D221">
-        <v>0.8280057721967239</v>
+        <v>0.4639197500828798</v>
       </c>
       <c r="E221">
-        <v>1.138231596570923</v>
+        <v>0.7808364757224746</v>
       </c>
       <c r="F221">
-        <v>2.547778124255496</v>
+        <v>0.1455196230302949</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.6711991572843325</v>
+        <v>0.06555236870138698</v>
       </c>
       <c r="C222">
-        <v>0.2699139488543185</v>
+        <v>0.1616786740936169</v>
       </c>
       <c r="D222">
-        <v>0.8206252144972128</v>
+        <v>0.4605811760122481</v>
       </c>
       <c r="E222">
-        <v>1.133868695808564</v>
+        <v>0.7768479080722414</v>
       </c>
       <c r="F222">
-        <v>2.536723576302976</v>
+        <v>0.1438420317330069</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.6671495512514216</v>
+        <v>0.06389414069391407</v>
       </c>
       <c r="C223">
-        <v>0.2665081217248617</v>
+        <v>0.1592473433409455</v>
       </c>
       <c r="D223">
-        <v>0.8132939176247569</v>
+        <v>0.4572703821343335</v>
       </c>
       <c r="E223">
-        <v>1.129519436754845</v>
+        <v>0.7728820312061975</v>
       </c>
       <c r="F223">
-        <v>2.525682134445425</v>
+        <v>0.1421832527375497</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.6631409058016076</v>
+        <v>0.06227721316502761</v>
       </c>
       <c r="C224">
-        <v>0.2631438999823114</v>
+        <v>0.1568517146099158</v>
       </c>
       <c r="D224">
-        <v>0.8060118667677008</v>
+        <v>0.4539871672067134</v>
       </c>
       <c r="E224">
-        <v>1.125183795266891</v>
+        <v>0.7689387442479055</v>
       </c>
       <c r="F224">
-        <v>2.514654323433203</v>
+        <v>0.1405430870866918</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.6591729080926938</v>
+        <v>0.0607005949548759</v>
       </c>
       <c r="C225">
-        <v>0.259820896388067</v>
+        <v>0.1544912877446659</v>
       </c>
       <c r="D225">
-        <v>0.7987790393268414</v>
+        <v>0.4507313309107422</v>
       </c>
       <c r="E225">
-        <v>1.120861747149517</v>
+        <v>0.7650179463859617</v>
       </c>
       <c r="F225">
-        <v>2.503640658185599</v>
+        <v>0.138921337468817</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.6552452449378835</v>
+        <v>0.05916331682225166</v>
       </c>
       <c r="C226">
-        <v>0.2565387214257947</v>
+        <v>0.1521655701814028</v>
       </c>
       <c r="D226">
-        <v>0.7915954049574215</v>
+        <v>0.4475026735975313</v>
       </c>
       <c r="E226">
-        <v>1.116553268156141</v>
+        <v>0.7611195358959101</v>
       </c>
       <c r="F226">
-        <v>2.492641643237254</v>
+        <v>0.1373178084062178</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.6513576037058358</v>
+        <v>0.05766443103294344</v>
       </c>
       <c r="C227">
-        <v>0.2532969836139736</v>
+        <v>0.1498740747620578</v>
       </c>
       <c r="D227">
-        <v>0.7844609261605524</v>
+        <v>0.4443009965907803</v>
       </c>
       <c r="E227">
-        <v>1.11225833398839</v>
+        <v>0.757243412510102</v>
       </c>
       <c r="F227">
-        <v>2.481657774183474</v>
+        <v>0.13573230625474</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.6475096721122301</v>
+        <v>0.05620301094864589</v>
       </c>
       <c r="C228">
-        <v>0.250095283181372</v>
+        <v>0.1476163202209103</v>
       </c>
       <c r="D228">
-        <v>0.7773755593987745</v>
+        <v>0.4411261024183892</v>
       </c>
       <c r="E228">
-        <v>1.107976920296697</v>
+        <v>0.7533894755257929</v>
       </c>
       <c r="F228">
-        <v>2.470689537494079</v>
+        <v>0.1341646391932121</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.6437011381477232</v>
+        <v>0.0547781506317031</v>
       </c>
       <c r="C229">
-        <v>0.2469332196496471</v>
+        <v>0.1453918330821674</v>
       </c>
       <c r="D229">
-        <v>0.7703392542739296</v>
+        <v>0.4379777944088998</v>
       </c>
       <c r="E229">
-        <v>1.103709002680989</v>
+        <v>0.7495576243213983</v>
       </c>
       <c r="F229">
-        <v>2.459737410353996</v>
+        <v>0.1326146171000938</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.6399316897567799</v>
+        <v>0.0533889648856401</v>
       </c>
       <c r="C230">
-        <v>0.2438103986535118</v>
+        <v>0.143200145536022</v>
       </c>
       <c r="D230">
-        <v>0.7633519529782187</v>
+        <v>0.4348558768446295</v>
       </c>
       <c r="E230">
-        <v>1.09945455669096</v>
+        <v>0.7457477583779247</v>
       </c>
       <c r="F230">
-        <v>2.448801860316044</v>
+        <v>0.1310820515900113</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.6362010156447426</v>
+        <v>0.05203458843208117</v>
       </c>
       <c r="C231">
-        <v>0.2407264204920533</v>
+        <v>0.1410407939734303</v>
       </c>
       <c r="D231">
-        <v>0.7564135922222728</v>
+        <v>0.431760154941863</v>
       </c>
       <c r="E231">
-        <v>1.095213557827494</v>
+        <v>0.7419597772904085</v>
       </c>
       <c r="F231">
-        <v>2.437883346301184</v>
+        <v>0.129566756306872</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.6325088051016686</v>
+        <v>0.05071417522810395</v>
       </c>
       <c r="C232">
-        <v>0.2376808845029961</v>
+        <v>0.1389133215264825</v>
       </c>
       <c r="D232">
-        <v>0.7495241026204248</v>
+        <v>0.4286904344292922</v>
       </c>
       <c r="E232">
-        <v>1.090985981541501</v>
+        <v>0.7381935807063986</v>
       </c>
       <c r="F232">
-        <v>2.426982318797238</v>
+        <v>0.1280685465491649</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.6288547479269254</v>
+        <v>0.04942689857498055</v>
       </c>
       <c r="C233">
-        <v>0.2346733893372034</v>
+        <v>0.1368172771348033</v>
       </c>
       <c r="D233">
-        <v>0.74268340868703</v>
+        <v>0.4256465226205503</v>
       </c>
       <c r="E233">
-        <v>1.086771803234652</v>
+        <v>0.7344490674538913</v>
       </c>
       <c r="F233">
-        <v>2.416099219524027</v>
+        <v>0.1265872393754022</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.625238534135513</v>
+        <v>0.04817195098723304</v>
       </c>
       <c r="C234">
-        <v>0.2317035297844492</v>
+        <v>0.1347522171075119</v>
       </c>
       <c r="D234">
-        <v>0.7358914282844607</v>
+        <v>0.4226282275654908</v>
       </c>
       <c r="E234">
-        <v>1.082570998260394</v>
+        <v>0.7307261379461357</v>
       </c>
       <c r="F234">
-        <v>2.405234481247832</v>
+        <v>0.1251226535928983</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.6216598546885885</v>
+        <v>0.04694854336650575</v>
       </c>
       <c r="C235">
-        <v>0.2287708979143776</v>
+        <v>0.1327177017825613</v>
       </c>
       <c r="D235">
-        <v>0.7291480746973481</v>
+        <v>0.4196353582896318</v>
       </c>
       <c r="E235">
-        <v>1.078383541924097</v>
+        <v>0.727024692150573</v>
       </c>
       <c r="F235">
-        <v>2.394388528428668</v>
+        <v>0.1236746097465475</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.6181184013429776</v>
+        <v>0.04575590440685822</v>
       </c>
       <c r="C236">
-        <v>0.2258750912357605</v>
+        <v>0.1307132977821598</v>
       </c>
       <c r="D236">
-        <v>0.7224532554196147</v>
+        <v>0.4166677248017869</v>
       </c>
       <c r="E236">
-        <v>1.074209409484334</v>
+        <v>0.7233446301763459</v>
       </c>
       <c r="F236">
-        <v>2.383561777708198</v>
+        <v>0.1222429299436303</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.6146138665718673</v>
+        <v>0.04459328064364746</v>
       </c>
       <c r="C237">
-        <v>0.2230157042451842</v>
+        <v>0.1287385774989054</v>
       </c>
       <c r="D237">
-        <v>0.7158068723277794</v>
+        <v>0.4137251378682473</v>
       </c>
       <c r="E237">
-        <v>1.070048576151986</v>
+        <v>0.71968585228388</v>
       </c>
       <c r="F237">
-        <v>2.372754637448089</v>
+        <v>0.1208274381918192</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.6111459432951896</v>
+        <v>0.04345993649485767</v>
       </c>
       <c r="C238">
-        <v>0.2201923312344697</v>
+        <v>0.1267931186365683</v>
       </c>
       <c r="D238">
-        <v>0.709208821808462</v>
+        <v>0.4108074093142768</v>
       </c>
       <c r="E238">
-        <v>1.065901017090866</v>
+        <v>0.7160482588944646</v>
       </c>
       <c r="F238">
-        <v>2.361967507669772</v>
+        <v>0.1194279601643444</v>
       </c>
     </row>
   </sheetData>
